--- a/real_estimatesNB2.xlsx
+++ b/real_estimatesNB2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G383"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4868733</v>
+        <v>0.4881035</v>
       </c>
       <c r="C2">
-        <v>0.1979037</v>
+        <v>0.1984144</v>
       </c>
       <c r="D2">
-        <v>0.1672625</v>
+        <v>0.167417</v>
       </c>
       <c r="E2">
-        <v>0.8175919</v>
+        <v>0.8188915</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -425,16 +425,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6079287</v>
+        <v>0.6075714</v>
       </c>
       <c r="C3">
-        <v>0.2835443</v>
+        <v>0.2832823</v>
       </c>
       <c r="D3">
-        <v>0.1309012</v>
+        <v>0.1310614</v>
       </c>
       <c r="E3">
-        <v>0.9410463999999999</v>
+        <v>0.9408015</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5614837</v>
+        <v>0.5618655</v>
       </c>
       <c r="C4">
-        <v>0.2160523</v>
+        <v>0.2168423</v>
       </c>
       <c r="D4">
-        <v>0.1865371</v>
+        <v>0.1857692</v>
       </c>
       <c r="E4">
-        <v>0.877293</v>
+        <v>0.8781698</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.7693645</v>
+        <v>0.7727406</v>
       </c>
       <c r="C5">
-        <v>0.1269059</v>
+        <v>0.1255636</v>
       </c>
       <c r="D5">
-        <v>0.4508955</v>
+        <v>0.4557274</v>
       </c>
       <c r="E5">
-        <v>0.9312791</v>
+        <v>0.9324695</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.7572558</v>
+        <v>0.7602403</v>
       </c>
       <c r="C6">
-        <v>0.1185504</v>
+        <v>0.1177356</v>
       </c>
       <c r="D6">
-        <v>0.4684503</v>
+        <v>0.4720264</v>
       </c>
       <c r="E6">
-        <v>0.9169608</v>
+        <v>0.9183402000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.9554319999999999</v>
+        <v>0.954778</v>
       </c>
       <c r="C7">
-        <v>0.06321309999999999</v>
+        <v>0.0623394</v>
       </c>
       <c r="D7">
-        <v>0.5387973</v>
+        <v>0.5547854</v>
       </c>
       <c r="E7">
-        <v>0.9974644</v>
+        <v>0.9972124</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7100943</v>
+        <v>0.7154752</v>
       </c>
       <c r="C8">
-        <v>0.1363437</v>
+        <v>0.1350858</v>
       </c>
       <c r="D8">
-        <v>0.4007626</v>
+        <v>0.4064899</v>
       </c>
       <c r="E8">
-        <v>0.899707</v>
+        <v>0.9022738</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.7955936</v>
+        <v>0.79532</v>
       </c>
       <c r="C9">
-        <v>0.1287062</v>
+        <v>0.1283224</v>
       </c>
       <c r="D9">
-        <v>0.4520902</v>
+        <v>0.4532001</v>
       </c>
       <c r="E9">
-        <v>0.9483476</v>
+        <v>0.9479621</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.7639352</v>
+        <v>0.7667457</v>
       </c>
       <c r="C10">
-        <v>0.0983386</v>
+        <v>0.0975065</v>
       </c>
       <c r="D10">
-        <v>0.5263723</v>
+        <v>0.5303233000000001</v>
       </c>
       <c r="E10">
-        <v>0.9040594</v>
+        <v>0.9053906</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.8413673</v>
+        <v>0.8428328</v>
       </c>
       <c r="C11">
-        <v>0.07316540000000001</v>
+        <v>0.07242460000000001</v>
       </c>
       <c r="D11">
-        <v>0.644281</v>
+        <v>0.6474488</v>
       </c>
       <c r="E11">
-        <v>0.93951</v>
+        <v>0.9399739</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.9122737</v>
+        <v>0.9125621</v>
       </c>
       <c r="C12">
-        <v>0.0643973</v>
+        <v>0.0637959</v>
       </c>
       <c r="D12">
-        <v>0.6823482</v>
+        <v>0.6853059</v>
       </c>
       <c r="E12">
-        <v>0.980523</v>
+        <v>0.9803992</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.7583902</v>
+        <v>0.7605725</v>
       </c>
       <c r="C13">
-        <v>0.104943</v>
+        <v>0.1041705</v>
       </c>
       <c r="D13">
-        <v>0.5053329</v>
+        <v>0.5086524</v>
       </c>
       <c r="E13">
-        <v>0.9060570999999999</v>
+        <v>0.9069566</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.8135729</v>
+        <v>0.8153623</v>
       </c>
       <c r="C14">
-        <v>0.09277000000000001</v>
+        <v>0.0917221</v>
       </c>
       <c r="D14">
-        <v>0.5682131</v>
+        <v>0.5722621</v>
       </c>
       <c r="E14">
-        <v>0.9353677</v>
+        <v>0.9357993</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -713,16 +713,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.8885807</v>
+        <v>0.8896636999999999</v>
       </c>
       <c r="C15">
-        <v>0.0602331</v>
+        <v>0.0594892</v>
       </c>
       <c r="D15">
-        <v>0.7076279</v>
+        <v>0.7108451</v>
       </c>
       <c r="E15">
-        <v>0.9633414</v>
+        <v>0.9635657</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.8633851</v>
+        <v>0.8642954</v>
       </c>
       <c r="C16">
-        <v>0.0685994</v>
+        <v>0.0678848</v>
       </c>
       <c r="D16">
-        <v>0.6690246</v>
+        <v>0.6719503999999999</v>
       </c>
       <c r="E16">
-        <v>0.9518283</v>
+        <v>0.9519307</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.7843514</v>
+        <v>0.7857049</v>
       </c>
       <c r="C17">
-        <v>0.0933963</v>
+        <v>0.09277340000000001</v>
       </c>
       <c r="D17">
-        <v>0.5520494</v>
+        <v>0.554598</v>
       </c>
       <c r="E17">
-        <v>0.9147809</v>
+        <v>0.9152265000000001</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.864157</v>
+        <v>0.8648683</v>
       </c>
       <c r="C18">
-        <v>0.0764874</v>
+        <v>0.0757332</v>
       </c>
       <c r="D18">
-        <v>0.6394969</v>
+        <v>0.6425011</v>
       </c>
       <c r="E18">
-        <v>0.9580061</v>
+        <v>0.9579695</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.8291478</v>
+        <v>0.8292951</v>
       </c>
       <c r="C19">
-        <v>0.1036717</v>
+        <v>0.1025616</v>
       </c>
       <c r="D19">
-        <v>0.5362414</v>
+        <v>0.5400758</v>
       </c>
       <c r="E19">
-        <v>0.9532016</v>
+        <v>0.9526026</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.810233</v>
+        <v>0.8087214</v>
       </c>
       <c r="C20">
-        <v>0.1169841</v>
+        <v>0.1163504</v>
       </c>
       <c r="D20">
-        <v>0.4900686</v>
+        <v>0.4918796</v>
       </c>
       <c r="E20">
-        <v>0.9499212</v>
+        <v>0.9486284</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.4713292</v>
+        <v>0.4762157</v>
       </c>
       <c r="C21">
-        <v>0.1605926</v>
+        <v>0.1608937</v>
       </c>
       <c r="D21">
-        <v>0.201329</v>
+        <v>0.2043254</v>
       </c>
       <c r="E21">
-        <v>0.7592167</v>
+        <v>0.7629747</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.8943751</v>
+        <v>0.8889172</v>
       </c>
       <c r="C22">
-        <v>0.13425</v>
+        <v>0.1337939</v>
       </c>
       <c r="D22">
-        <v>0.3431814</v>
+        <v>0.3598527</v>
       </c>
       <c r="E22">
-        <v>0.9927653</v>
+        <v>0.991298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.0450829</v>
+        <v>0.0460096</v>
       </c>
       <c r="C23">
-        <v>0.0461965</v>
+        <v>0.0470792</v>
       </c>
       <c r="D23">
-        <v>0.0057296</v>
+        <v>0.0058579</v>
       </c>
       <c r="E23">
-        <v>0.2789077</v>
+        <v>0.283024</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2067613</v>
+        <v>0.204061</v>
       </c>
       <c r="C24">
-        <v>0.1348449</v>
+        <v>0.134021</v>
       </c>
       <c r="D24">
-        <v>0.0494532</v>
+        <v>0.0484114</v>
       </c>
       <c r="E24">
-        <v>0.56633</v>
+        <v>0.5636996</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.4044354</v>
+        <v>0.4046832</v>
       </c>
       <c r="C25">
-        <v>0.1532833</v>
+        <v>0.1533125</v>
       </c>
       <c r="D25">
-        <v>0.1632389</v>
+        <v>0.1633805</v>
       </c>
       <c r="E25">
-        <v>0.7027208</v>
+        <v>0.7029341</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.3883979</v>
+        <v>0.3879725</v>
       </c>
       <c r="C26">
-        <v>0.1360989</v>
+        <v>0.1362707</v>
       </c>
       <c r="D26">
-        <v>0.1712189</v>
+        <v>0.1707003</v>
       </c>
       <c r="E26">
-        <v>0.661259</v>
+        <v>0.6612763</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.813574</v>
+        <v>0.8084633</v>
       </c>
       <c r="C27">
-        <v>0.229474</v>
+        <v>0.2276677</v>
       </c>
       <c r="D27">
-        <v>0.1836194</v>
+        <v>0.1912946</v>
       </c>
       <c r="E27">
-        <v>0.988328</v>
+        <v>0.9868971</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.3327213</v>
+        <v>0.3345419</v>
       </c>
       <c r="C28">
-        <v>0.1252398</v>
+        <v>0.1259924</v>
       </c>
       <c r="D28">
-        <v>0.1416644</v>
+        <v>0.1422211</v>
       </c>
       <c r="E28">
-        <v>0.601023</v>
+        <v>0.6038508</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.4420697</v>
+        <v>0.4371976</v>
       </c>
       <c r="C29">
-        <v>0.1821202</v>
+        <v>0.1807275</v>
       </c>
       <c r="D29">
-        <v>0.1570933</v>
+        <v>0.1554921</v>
       </c>
       <c r="E29">
-        <v>0.7710912</v>
+        <v>0.766217</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.3971468</v>
+        <v>0.3965612</v>
       </c>
       <c r="C30">
-        <v>0.0990939</v>
+        <v>0.0989611</v>
       </c>
       <c r="D30">
-        <v>0.2264282</v>
+        <v>0.2261186</v>
       </c>
       <c r="E30">
-        <v>0.5972104</v>
+        <v>0.5964585</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.5191637</v>
+        <v>0.5173975</v>
       </c>
       <c r="C31">
-        <v>0.1134215</v>
+        <v>0.1128493</v>
       </c>
       <c r="D31">
-        <v>0.3070727</v>
+        <v>0.3065724</v>
       </c>
       <c r="E31">
-        <v>0.7245661</v>
+        <v>0.7222057</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.679173</v>
+        <v>0.6760083</v>
       </c>
       <c r="C32">
-        <v>0.1688239</v>
+        <v>0.1683154</v>
       </c>
       <c r="D32">
-        <v>0.31678</v>
+        <v>0.3163165</v>
       </c>
       <c r="E32">
-        <v>0.9062393</v>
+        <v>0.9039345</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1145,16 +1145,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.3898672</v>
+        <v>0.3884056</v>
       </c>
       <c r="C33">
-        <v>0.1207253</v>
+        <v>0.1201941</v>
       </c>
       <c r="D33">
-        <v>0.1911401</v>
+        <v>0.1906578</v>
       </c>
       <c r="E33">
-        <v>0.6334111</v>
+        <v>0.631278</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.4704471</v>
+        <v>0.4688894</v>
       </c>
       <c r="C34">
-        <v>0.1236522</v>
+        <v>0.1229794</v>
       </c>
       <c r="D34">
-        <v>0.2513959</v>
+        <v>0.2511461</v>
       </c>
       <c r="E34">
-        <v>0.7015066</v>
+        <v>0.6991602</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.6188289</v>
+        <v>0.6171504</v>
       </c>
       <c r="C35">
-        <v>0.1341906</v>
+        <v>0.1335842</v>
       </c>
       <c r="D35">
-        <v>0.347408</v>
+        <v>0.3473603</v>
       </c>
       <c r="E35">
-        <v>0.8319643</v>
+        <v>0.8299967</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1217,16 +1217,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.5626563999999999</v>
+        <v>0.5601062999999999</v>
       </c>
       <c r="C36">
-        <v>0.1274459</v>
+        <v>0.1265925</v>
       </c>
       <c r="D36">
-        <v>0.3179592</v>
+        <v>0.3174653</v>
       </c>
       <c r="E36">
-        <v>0.7802402000000001</v>
+        <v>0.7770629</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.425426</v>
+        <v>0.4229651</v>
       </c>
       <c r="C37">
-        <v>0.1108078</v>
+        <v>0.1104048</v>
       </c>
       <c r="D37">
-        <v>0.2334314</v>
+        <v>0.2319678</v>
       </c>
       <c r="E37">
-        <v>0.6428970000000001</v>
+        <v>0.6401481</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.56427</v>
+        <v>0.5613118</v>
       </c>
       <c r="C38">
-        <v>0.1567153</v>
+        <v>0.1557939</v>
       </c>
       <c r="D38">
-        <v>0.2707583</v>
+        <v>0.2702049</v>
       </c>
       <c r="E38">
-        <v>0.8187348</v>
+        <v>0.8155611</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.4969637</v>
+        <v>0.4927004</v>
       </c>
       <c r="C39">
-        <v>0.1656526</v>
+        <v>0.1636303</v>
       </c>
       <c r="D39">
-        <v>0.2123347</v>
+        <v>0.2120962</v>
       </c>
       <c r="E39">
-        <v>0.7835742999999999</v>
+        <v>0.7779802</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.4650024</v>
+        <v>0.4580695</v>
       </c>
       <c r="C40">
-        <v>0.1819096</v>
+        <v>0.1789875</v>
       </c>
       <c r="D40">
-        <v>0.1717304</v>
+        <v>0.170609</v>
       </c>
       <c r="E40">
-        <v>0.78465</v>
+        <v>0.7764477</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.1536112</v>
+        <v>0.1538069</v>
       </c>
       <c r="C41">
-        <v>0.0750178</v>
+        <v>0.0752346</v>
       </c>
       <c r="D41">
-        <v>0.055333</v>
+        <v>0.0553026</v>
       </c>
       <c r="E41">
-        <v>0.3599352</v>
+        <v>0.3607631</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.6328555</v>
+        <v>0.6153573</v>
       </c>
       <c r="C42">
-        <v>0.333197</v>
+        <v>0.3230525</v>
       </c>
       <c r="D42">
-        <v>0.0939595</v>
+        <v>0.0992811</v>
       </c>
       <c r="E42">
-        <v>0.9662745</v>
+        <v>0.9587118</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1385,16 +1385,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.0095193</v>
+        <v>0.009549800000000001</v>
       </c>
       <c r="C43">
-        <v>0.0099013</v>
+        <v>0.0099349</v>
       </c>
       <c r="D43">
-        <v>0.0012256</v>
+        <v>0.001229</v>
       </c>
       <c r="E43">
-        <v>0.070004</v>
+        <v>0.070245</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.9665049</v>
+        <v>0.9698086</v>
       </c>
       <c r="C44">
-        <v>0.1050152</v>
+        <v>0.1058589</v>
       </c>
       <c r="D44">
-        <v>0.0476181</v>
+        <v>0.0261686</v>
       </c>
       <c r="E44">
-        <v>0.9999400000000001</v>
+        <v>0.999974</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.8853457</v>
+        <v>0.8860886</v>
       </c>
       <c r="C45">
-        <v>0.1208706</v>
+        <v>0.1213775</v>
       </c>
       <c r="D45">
-        <v>0.4280539</v>
+        <v>0.424201</v>
       </c>
       <c r="E45">
-        <v>0.987604</v>
+        <v>0.9879711</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.8142722</v>
+        <v>0.7812443</v>
       </c>
       <c r="C46">
-        <v>0.09361650000000001</v>
+        <v>0.1020262</v>
       </c>
       <c r="D46">
-        <v>0.5657986</v>
+        <v>0.5256863000000001</v>
       </c>
       <c r="E46">
-        <v>0.936511</v>
+        <v>0.9200501</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1481,16 +1481,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.965962</v>
+        <v>0.9634917</v>
       </c>
       <c r="C47">
-        <v>0.06770660000000001</v>
+        <v>0.07976949999999999</v>
       </c>
       <c r="D47">
-        <v>0.3339288</v>
+        <v>0.236531</v>
       </c>
       <c r="E47">
-        <v>0.9993779</v>
+        <v>0.9995554</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.8029426</v>
+        <v>0.7919922</v>
       </c>
       <c r="C48">
-        <v>0.09402729999999999</v>
+        <v>0.1014673</v>
       </c>
       <c r="D48">
-        <v>0.5597231</v>
+        <v>0.5323969</v>
       </c>
       <c r="E48">
-        <v>0.9288752</v>
+        <v>0.9271817</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1529,16 +1529,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.9038956</v>
+        <v>0.8848181000000001</v>
       </c>
       <c r="C49">
-        <v>0.0756366</v>
+        <v>0.0860247</v>
       </c>
       <c r="D49">
-        <v>0.6305782</v>
+        <v>0.5949503</v>
       </c>
       <c r="E49">
-        <v>0.9810693</v>
+        <v>0.975714</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.8730237</v>
+        <v>0.8573892</v>
       </c>
       <c r="C50">
-        <v>0.06311269999999999</v>
+        <v>0.0701483</v>
       </c>
       <c r="D50">
-        <v>0.6925495</v>
+        <v>0.6613501000000001</v>
       </c>
       <c r="E50">
-        <v>0.9545166</v>
+        <v>0.9487402</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.8777832</v>
+        <v>0.8682048999999999</v>
       </c>
       <c r="C51">
-        <v>0.07106560000000001</v>
+        <v>0.0817582</v>
       </c>
       <c r="D51">
-        <v>0.6622273</v>
+        <v>0.6188653</v>
       </c>
       <c r="E51">
-        <v>0.9633841</v>
+        <v>0.9639323</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.8670196</v>
+        <v>0.8455996</v>
       </c>
       <c r="C52">
-        <v>0.067285</v>
+        <v>0.07401290000000001</v>
       </c>
       <c r="D52">
-        <v>0.6750334</v>
+        <v>0.6432283</v>
       </c>
       <c r="E52">
-        <v>0.9534109</v>
+        <v>0.9432989000000001</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.9372718</v>
+        <v>0.9300797</v>
       </c>
       <c r="C53">
-        <v>0.0459206</v>
+        <v>0.0487981</v>
       </c>
       <c r="D53">
-        <v>0.7637413</v>
+        <v>0.7534647</v>
       </c>
       <c r="E53">
-        <v>0.9857272</v>
+        <v>0.983021</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1649,16 +1649,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.7998993</v>
+        <v>0.789811</v>
       </c>
       <c r="C54">
-        <v>0.058277</v>
+        <v>0.0595567</v>
       </c>
       <c r="D54">
-        <v>0.6619601000000001</v>
+        <v>0.6503612</v>
       </c>
       <c r="E54">
-        <v>0.890834</v>
+        <v>0.8835973</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.953896</v>
+        <v>0.9499063</v>
       </c>
       <c r="C55">
-        <v>0.037714</v>
+        <v>0.0399227</v>
       </c>
       <c r="D55">
-        <v>0.7939405</v>
+        <v>0.7855064</v>
       </c>
       <c r="E55">
-        <v>0.9910797</v>
+        <v>0.9899182</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.8856115</v>
+        <v>0.8834397</v>
       </c>
       <c r="C56">
-        <v>0.0536637</v>
+        <v>0.0542998</v>
       </c>
       <c r="D56">
-        <v>0.7327081</v>
+        <v>0.7294581999999999</v>
       </c>
       <c r="E56">
-        <v>0.9562676</v>
+        <v>0.9551674999999999</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.8488531</v>
+        <v>0.8484071</v>
       </c>
       <c r="C57">
-        <v>0.0601062</v>
+        <v>0.0603988</v>
       </c>
       <c r="D57">
-        <v>0.6915594</v>
+        <v>0.6903399</v>
       </c>
       <c r="E57">
-        <v>0.9336308</v>
+        <v>0.9335544</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.9347706</v>
+        <v>0.9327605</v>
       </c>
       <c r="C58">
-        <v>0.0531703</v>
+        <v>0.0539251</v>
       </c>
       <c r="D58">
-        <v>0.721769</v>
+        <v>0.7200445</v>
       </c>
       <c r="E58">
-        <v>0.9875257</v>
+        <v>0.986811</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.8228033</v>
+        <v>0.821959</v>
       </c>
       <c r="C59">
-        <v>0.0608666</v>
+        <v>0.0613699</v>
       </c>
       <c r="D59">
-        <v>0.6719926000000001</v>
+        <v>0.6699004</v>
       </c>
       <c r="E59">
-        <v>0.9132281</v>
+        <v>0.9130628</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1793,16 +1793,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.8171796</v>
+        <v>0.8177809</v>
       </c>
       <c r="C60">
-        <v>0.0636456</v>
+        <v>0.06409040000000001</v>
       </c>
       <c r="D60">
-        <v>0.659791</v>
+        <v>0.6589015</v>
       </c>
       <c r="E60">
-        <v>0.9115207</v>
+        <v>0.9124854</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.7959359</v>
+        <v>0.7881535</v>
       </c>
       <c r="C61">
-        <v>0.0735238</v>
+        <v>0.0747308</v>
       </c>
       <c r="D61">
-        <v>0.6162941</v>
+        <v>0.6074438</v>
       </c>
       <c r="E61">
-        <v>0.9045056</v>
+        <v>0.8994458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.759199</v>
+        <v>0.7593246</v>
       </c>
       <c r="C62">
-        <v>0.0784482</v>
+        <v>0.0785526</v>
       </c>
       <c r="D62">
-        <v>0.5762105</v>
+        <v>0.5760318</v>
       </c>
       <c r="E62">
-        <v>0.8796744</v>
+        <v>0.8798971</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.8678467</v>
+        <v>0.8677991</v>
       </c>
       <c r="C63">
-        <v>0.0663339</v>
+        <v>0.0664608</v>
       </c>
       <c r="D63">
-        <v>0.6788352</v>
+        <v>0.6783473</v>
       </c>
       <c r="E63">
-        <v>0.9532775</v>
+        <v>0.9533402</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1889,16 +1889,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.8867042000000001</v>
+        <v>0.8853934</v>
       </c>
       <c r="C64">
-        <v>0.1205148</v>
+        <v>0.1199779</v>
       </c>
       <c r="D64">
-        <v>0.4270815</v>
+        <v>0.4321884</v>
       </c>
       <c r="E64">
-        <v>0.9879764</v>
+        <v>0.9874075</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.3543545</v>
+        <v>0.3525013</v>
       </c>
       <c r="C65">
-        <v>0.08055710000000001</v>
+        <v>0.0802983</v>
       </c>
       <c r="D65">
-        <v>0.2158396</v>
+        <v>0.2145679</v>
       </c>
       <c r="E65">
-        <v>0.5225279</v>
+        <v>0.5203594</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1933,20 +1933,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S s2 g1 c2 a1 o3 t3</t>
+          <t>p s1 g1 c1 a1 o1 t2</t>
         </is>
       </c>
       <c r="B66">
-        <v>0.7417757</v>
+        <v>0.08106289999999999</v>
       </c>
       <c r="C66">
-        <v>0.1178406</v>
+        <v>0.044259</v>
       </c>
       <c r="D66">
-        <v>0.4624213</v>
+        <v>0.0267914</v>
       </c>
       <c r="E66">
-        <v>0.9055982</v>
+        <v>0.2203781</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1957,20 +1957,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S s2 g1 c3 a1 o4 t4</t>
+          <t>p s1 g1 c1 a2 o2 t3</t>
         </is>
       </c>
       <c r="B67">
-        <v>0.9489647</v>
+        <v>0.130919</v>
       </c>
       <c r="C67">
-        <v>0.1002861</v>
+        <v>0.0639402</v>
       </c>
       <c r="D67">
-        <v>0.2431027</v>
+        <v>0.0476834</v>
       </c>
       <c r="E67">
-        <v>0.9990719</v>
+        <v>0.3118677</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1981,20 +1981,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S s2 g1 c4 a1 o5 t5</t>
+          <t>p s1 g1 c1 a3 o3 t4</t>
         </is>
       </c>
       <c r="B68">
-        <v>0.7275037</v>
+        <v>0.0605661</v>
       </c>
       <c r="C68">
-        <v>0.1283148</v>
+        <v>0.0276076</v>
       </c>
       <c r="D68">
-        <v>0.4288263</v>
+        <v>0.0243028</v>
       </c>
       <c r="E68">
-        <v>0.9047049</v>
+        <v>0.1430083</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2005,20 +2005,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S s2 g1 c5 a1 o6 t6</t>
+          <t>p s1 g1 c1 a4 o4 t5</t>
         </is>
       </c>
       <c r="B69">
-        <v>0.8603843</v>
+        <v>0.2147197</v>
       </c>
       <c r="C69">
-        <v>0.1043843</v>
+        <v>0.0865316</v>
       </c>
       <c r="D69">
-        <v>0.5287905000000001</v>
+        <v>0.0909112</v>
       </c>
       <c r="E69">
-        <v>0.9712984</v>
+        <v>0.4277946</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2029,20 +2029,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S s2 g1 c6 a1 o7 t7</t>
+          <t>p s1 g1 c1 a5 o5 t6</t>
         </is>
       </c>
       <c r="B70">
-        <v>0.818344</v>
+        <v>0.06911109999999999</v>
       </c>
       <c r="C70">
-        <v>0.0882348</v>
+        <v>0.0297466</v>
       </c>
       <c r="D70">
-        <v>0.5846322</v>
+        <v>0.0291229</v>
       </c>
       <c r="E70">
-        <v>0.9351432</v>
+        <v>0.1552276</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2053,20 +2053,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S s2 g1 c7 a1 o8 t8</t>
+          <t>p s1 g1 c1 a6 o6 t7</t>
         </is>
       </c>
       <c r="B71">
-        <v>0.8247416</v>
+        <v>0.1456178</v>
       </c>
       <c r="C71">
-        <v>0.1008843</v>
+        <v>0.0491349</v>
       </c>
       <c r="D71">
-        <v>0.5450821</v>
+        <v>0.0728669</v>
       </c>
       <c r="E71">
-        <v>0.9486706</v>
+        <v>0.2698617</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2077,20 +2077,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S s2 g1 c8 a1 o9 t9</t>
+          <t>p s1 g1 c1 a7 o7 t8</t>
         </is>
       </c>
       <c r="B72">
-        <v>0.8103162</v>
+        <v>0.1782713</v>
       </c>
       <c r="C72">
-        <v>0.0918581</v>
+        <v>0.0614593</v>
       </c>
       <c r="D72">
-        <v>0.5697202</v>
+        <v>0.08703320000000001</v>
       </c>
       <c r="E72">
-        <v>0.9323539</v>
+        <v>0.3305281</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2101,20 +2101,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S s2 g1 c9 a1 o10 t10</t>
+          <t>p s1 g1 c1 a8 o8 t9</t>
         </is>
       </c>
       <c r="B73">
-        <v>0.9073222</v>
+        <v>0.0375143</v>
       </c>
       <c r="C73">
-        <v>0.067625</v>
+        <v>0.0132806</v>
       </c>
       <c r="D73">
-        <v>0.6693210000000001</v>
+        <v>0.018602</v>
       </c>
       <c r="E73">
-        <v>0.9793186</v>
+        <v>0.0742008</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2125,20 +2125,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S s2 g1 c10 a1 o11 t11</t>
+          <t>p s1 g1 c1 a9 o9 t10</t>
         </is>
       </c>
       <c r="B74">
-        <v>0.7236962</v>
+        <v>0.4055704</v>
       </c>
       <c r="C74">
-        <v>0.0901503</v>
+        <v>0.100829</v>
       </c>
       <c r="D74">
-        <v>0.519795</v>
+        <v>0.2311115</v>
       </c>
       <c r="E74">
-        <v>0.863718</v>
+        <v>0.6076464</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2149,20 +2149,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S s2 g1 c11 a1 o12 t12</t>
+          <t>p s1 g1 c1 a10 o10 t11</t>
         </is>
       </c>
       <c r="B75">
-        <v>0.9313018</v>
+        <v>0.1972267</v>
       </c>
       <c r="C75">
-        <v>0.0567046</v>
+        <v>0.0555915</v>
       </c>
       <c r="D75">
-        <v>0.7046846</v>
+        <v>0.1098862</v>
       </c>
       <c r="E75">
-        <v>0.9871821</v>
+        <v>0.3283774</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2173,20 +2173,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S s2 g1 c12 a1 o13 t13</t>
+          <t>p s1 g1 c1 a11 o11 t12</t>
         </is>
       </c>
       <c r="B76">
-        <v>0.83533</v>
+        <v>0.1969718</v>
       </c>
       <c r="C76">
-        <v>0.08383500000000001</v>
+        <v>0.0537565</v>
       </c>
       <c r="D76">
-        <v>0.6057116</v>
+        <v>0.111903</v>
       </c>
       <c r="E76">
-        <v>0.9436645</v>
+        <v>0.3231769</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2197,20 +2197,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S s2 g1 c13 a1 o14 t14</t>
+          <t>p s1 g1 c1 a12 o12 t13</t>
         </is>
       </c>
       <c r="B77">
-        <v>0.7863125</v>
+        <v>0.1846811</v>
       </c>
       <c r="C77">
-        <v>0.09518649999999999</v>
+        <v>0.0511831</v>
       </c>
       <c r="D77">
-        <v>0.547976</v>
+        <v>0.1042198</v>
       </c>
       <c r="E77">
-        <v>0.9178271</v>
+        <v>0.3060386</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2221,20 +2221,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S s2 g1 c14 a1 o15 t15</t>
+          <t>p s1 g1 c1 a13 o13 t14</t>
         </is>
       </c>
       <c r="B78">
-        <v>0.9037494</v>
+        <v>0.1458879</v>
       </c>
       <c r="C78">
-        <v>0.0799228</v>
+        <v>0.040956</v>
       </c>
       <c r="D78">
-        <v>0.6079625</v>
+        <v>0.0823035</v>
       </c>
       <c r="E78">
-        <v>0.9827143</v>
+        <v>0.245456</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2245,20 +2245,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S s2 g1 c15 a1 o16 t16</t>
+          <t>p s1 g1 c1 a14 o14 t15</t>
         </is>
       </c>
       <c r="B79">
-        <v>0.7526252</v>
+        <v>0.1183024</v>
       </c>
       <c r="C79">
-        <v>0.0972682</v>
+        <v>0.0321847</v>
       </c>
       <c r="D79">
-        <v>0.5221555</v>
+        <v>0.06828239999999999</v>
       </c>
       <c r="E79">
-        <v>0.8944142</v>
+        <v>0.1972086</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2269,20 +2269,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S s2 g1 c16 a1 o17 t17</t>
+          <t>p s1 g1 c1 a15 o15 t16</t>
         </is>
       </c>
       <c r="B80">
-        <v>0.7454632</v>
+        <v>0.1384446</v>
       </c>
       <c r="C80">
-        <v>0.1017018</v>
+        <v>0.0367751</v>
       </c>
       <c r="D80">
-        <v>0.5060076</v>
+        <v>0.08072269999999999</v>
       </c>
       <c r="E80">
-        <v>0.8933179</v>
+        <v>0.2272384</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2293,20 +2293,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S s2 g1 c17 a1 o18 t18</t>
+          <t>p s1 g1 c1 a16 o16 t17</t>
         </is>
       </c>
       <c r="B81">
-        <v>0.7187542</v>
+        <v>0.2219656</v>
       </c>
       <c r="C81">
-        <v>0.1069528</v>
+        <v>0.0577988</v>
       </c>
       <c r="D81">
-        <v>0.4753407</v>
+        <v>0.1289552</v>
       </c>
       <c r="E81">
-        <v>0.878179</v>
+        <v>0.3547398</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2317,20 +2317,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S s2 g1 c18 a1 o19 t19</t>
+          <t>p s1 g1 c1 a17 o17 t18</t>
         </is>
       </c>
       <c r="B82">
-        <v>0.6738168</v>
+        <v>0.1466958</v>
       </c>
       <c r="C82">
-        <v>0.118043</v>
+        <v>0.0423913</v>
       </c>
       <c r="D82">
-        <v>0.4189288</v>
+        <v>0.0813222</v>
       </c>
       <c r="E82">
-        <v>0.8554708</v>
+        <v>0.2503035</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2341,20 +2341,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S s2 g1 c19 a1 o20 t20</t>
+          <t>p s1 g1 c1 a18 o18 t19</t>
         </is>
       </c>
       <c r="B83">
-        <v>0.8114192</v>
+        <v>0.0929449</v>
       </c>
       <c r="C83">
-        <v>0.1011567</v>
+        <v>0.0288046</v>
       </c>
       <c r="D83">
-        <v>0.5407960000000001</v>
+        <v>0.0498377</v>
       </c>
       <c r="E83">
-        <v>0.9401934</v>
+        <v>0.1667927</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2365,20 +2365,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S s2 g1 c20 a1 o21 t21</t>
+          <t>p s1 g1 c1 a19 o19 t20</t>
         </is>
       </c>
       <c r="B84">
-        <v>0.8368146</v>
+        <v>0.0933211</v>
       </c>
       <c r="C84">
-        <v>0.1692075</v>
+        <v>0.0293752</v>
       </c>
       <c r="D84">
-        <v>0.3113241</v>
+        <v>0.0495382</v>
       </c>
       <c r="E84">
-        <v>0.9830995</v>
+        <v>0.168923</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2389,20 +2389,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S s2 g1 c21 a1 o22 t22</t>
+          <t>p s1 g1 c1 a20 o20 t21</t>
         </is>
       </c>
       <c r="B85">
-        <v>0.2644927</v>
+        <v>0.2456268</v>
       </c>
       <c r="C85">
-        <v>0.09181159999999999</v>
+        <v>0.08373070000000001</v>
       </c>
       <c r="D85">
-        <v>0.1247967</v>
+        <v>0.1183907</v>
       </c>
       <c r="E85">
-        <v>0.4755887</v>
+        <v>0.4411763</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2413,20 +2413,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a1 o1 t2</t>
+          <t>p s1 g1 c1 a21 o21 t22</t>
         </is>
       </c>
       <c r="B86">
-        <v>0.0810632</v>
+        <v>0.1075286</v>
       </c>
       <c r="C86">
-        <v>0.0442912</v>
+        <v>0.0480885</v>
       </c>
       <c r="D86">
-        <v>0.0267695</v>
+        <v>0.0431737</v>
       </c>
       <c r="E86">
-        <v>0.2205237</v>
+        <v>0.2434079</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2437,20 +2437,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a2 o2 t3</t>
+          <t>p s1 g1 c1 a22 o22 t23</t>
         </is>
       </c>
       <c r="B87">
-        <v>0.1312816</v>
+        <v>0.9999932</v>
       </c>
       <c r="C87">
-        <v>0.0640738</v>
+        <v>0.0068826</v>
       </c>
       <c r="D87">
-        <v>0.0478413</v>
+        <v>8.220498E-304</v>
       </c>
       <c r="E87">
-        <v>0.3124894</v>
+        <v>1</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2461,20 +2461,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a3 o3 t4</t>
+          <t>p s2 g1 c1 a1 o1 t2</t>
         </is>
       </c>
       <c r="B88">
-        <v>0.0601722</v>
+        <v>0.6305269999999999</v>
       </c>
       <c r="C88">
-        <v>0.027416</v>
+        <v>0.1341269</v>
       </c>
       <c r="D88">
-        <v>0.0241579</v>
+        <v>0.3557222</v>
       </c>
       <c r="E88">
-        <v>0.1420601</v>
+        <v>0.8406319</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2485,20 +2485,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a4 o4 t5</t>
+          <t>p s2 g1 c1 a2 o2 t3</t>
         </is>
       </c>
       <c r="B89">
-        <v>0.2159593</v>
+        <v>0.7445232000000001</v>
       </c>
       <c r="C89">
-        <v>0.086676</v>
+        <v>0.1022278</v>
       </c>
       <c r="D89">
-        <v>0.09172909999999999</v>
+        <v>0.5040517</v>
       </c>
       <c r="E89">
-        <v>0.4289738</v>
+        <v>0.8931203</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2509,20 +2509,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a5 o5 t6</t>
+          <t>p s2 g1 c1 a3 o3 t4</t>
         </is>
       </c>
       <c r="B90">
-        <v>0.0699226</v>
+        <v>0.5550084</v>
       </c>
       <c r="C90">
-        <v>0.0300068</v>
+        <v>0.1101082</v>
       </c>
       <c r="D90">
-        <v>0.029534</v>
+        <v>0.3423369</v>
       </c>
       <c r="E90">
-        <v>0.1566296</v>
+        <v>0.7492756</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2533,20 +2533,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a6 o6 t7</t>
+          <t>p s2 g1 c1 a4 o4 t5</t>
         </is>
       </c>
       <c r="B91">
-        <v>0.1447349</v>
+        <v>0.8410101</v>
       </c>
       <c r="C91">
-        <v>0.0489581</v>
+        <v>0.06744070000000001</v>
       </c>
       <c r="D91">
-        <v>0.07231269999999999</v>
+        <v>0.663112</v>
       </c>
       <c r="E91">
-        <v>0.2686818</v>
+        <v>0.9342775</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2557,20 +2557,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a7 o7 t8</t>
+          <t>p s2 g1 c1 a5 o5 t6</t>
         </is>
       </c>
       <c r="B92">
-        <v>0.1797817</v>
+        <v>0.5895355</v>
       </c>
       <c r="C92">
-        <v>0.0617488</v>
+        <v>0.1045902</v>
       </c>
       <c r="D92">
-        <v>0.08797820000000001</v>
+        <v>0.381047</v>
       </c>
       <c r="E92">
-        <v>0.33246</v>
+        <v>0.770157</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2581,20 +2581,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a8 o8 t9</t>
+          <t>p s2 g1 c1 a6 o6 t7</t>
         </is>
       </c>
       <c r="B93">
-        <v>0.037742</v>
+        <v>0.7672909</v>
       </c>
       <c r="C93">
-        <v>0.0132896</v>
+        <v>0.0656524</v>
       </c>
       <c r="D93">
-        <v>0.0187851</v>
+        <v>0.6159546</v>
       </c>
       <c r="E93">
-        <v>0.0743791</v>
+        <v>0.8714389</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2605,20 +2605,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a9 o9 t10</t>
+          <t>p s2 g1 c1 a7 o7 t8</t>
         </is>
       </c>
       <c r="B94">
-        <v>0.4046226</v>
+        <v>0.8075807</v>
       </c>
       <c r="C94">
-        <v>0.1008228</v>
+        <v>0.0599978</v>
       </c>
       <c r="D94">
-        <v>0.2303138</v>
+        <v>0.6632046</v>
       </c>
       <c r="E94">
-        <v>0.6068425</v>
+        <v>0.8994497</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2629,20 +2629,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a10 o10 t11</t>
+          <t>p s2 g1 c1 a8 o8 t9</t>
         </is>
       </c>
       <c r="B95">
-        <v>0.1954442</v>
+        <v>0.4298836</v>
       </c>
       <c r="C95">
-        <v>0.055437</v>
+        <v>0.0761747</v>
       </c>
       <c r="D95">
-        <v>0.1085137</v>
+        <v>0.2907971</v>
       </c>
       <c r="E95">
-        <v>0.326509</v>
+        <v>0.5809961</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2653,20 +2653,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a11 o11 t12</t>
+          <t>p s2 g1 c1 a9 o9 t10</t>
         </is>
       </c>
       <c r="B96">
-        <v>0.1956916</v>
+        <v>0.9295739</v>
       </c>
       <c r="C96">
-        <v>0.0535498</v>
+        <v>0.027002</v>
       </c>
       <c r="D96">
-        <v>0.1110284</v>
+        <v>0.8546747</v>
       </c>
       <c r="E96">
-        <v>0.3215612</v>
+        <v>0.9673457</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2677,20 +2677,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a12 o12 t13</t>
+          <t>p s2 g1 c1 a10 o10 t11</t>
         </is>
       </c>
       <c r="B97">
-        <v>0.1828318</v>
+        <v>0.8261741</v>
       </c>
       <c r="C97">
-        <v>0.0509192</v>
+        <v>0.048878</v>
       </c>
       <c r="D97">
-        <v>0.1029125</v>
+        <v>0.7092334</v>
       </c>
       <c r="E97">
-        <v>0.303797</v>
+        <v>0.902546</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2701,20 +2701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a13 o13 t14</t>
+          <t>p s2 g1 c1 a11 o11 t12</t>
         </is>
       </c>
       <c r="B98">
-        <v>0.1446297</v>
+        <v>0.8259427</v>
       </c>
       <c r="C98">
-        <v>0.0407741</v>
+        <v>0.0446054</v>
       </c>
       <c r="D98">
-        <v>0.0814092</v>
+        <v>0.7209148</v>
       </c>
       <c r="E98">
-        <v>0.2439096</v>
+        <v>0.8970878</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2725,20 +2725,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a14 o14 t15</t>
+          <t>p s2 g1 c1 a12 o12 t13</t>
         </is>
       </c>
       <c r="B99">
-        <v>0.1174938</v>
+        <v>0.8141979</v>
       </c>
       <c r="C99">
-        <v>0.0320602</v>
+        <v>0.0457379</v>
       </c>
       <c r="D99">
-        <v>0.0677104</v>
+        <v>0.7078439</v>
       </c>
       <c r="E99">
-        <v>0.1961778</v>
+        <v>0.8879636</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2749,20 +2749,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a15 o15 t16</t>
+          <t>p s2 g1 c1 a13 o13 t14</t>
         </is>
       </c>
       <c r="B100">
-        <v>0.1373822</v>
+        <v>0.767678</v>
       </c>
       <c r="C100">
-        <v>0.0366448</v>
+        <v>0.0539308</v>
       </c>
       <c r="D100">
-        <v>0.079932</v>
+        <v>0.646242</v>
       </c>
       <c r="E100">
-        <v>0.2259822</v>
+        <v>0.8566734</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2773,20 +2773,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a16 o16 t17</t>
+          <t>p s2 g1 c1 a14 o14 t15</t>
         </is>
       </c>
       <c r="B101">
-        <v>0.2212403</v>
+        <v>0.7218918</v>
       </c>
       <c r="C101">
-        <v>0.0576993</v>
+        <v>0.0547106</v>
       </c>
       <c r="D101">
-        <v>0.1284383</v>
+        <v>0.6034213</v>
       </c>
       <c r="E101">
-        <v>0.3538707</v>
+        <v>0.8157761</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2797,20 +2797,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a17 o17 t18</t>
+          <t>p s2 g1 c1 a15 o15 t16</t>
         </is>
       </c>
       <c r="B102">
-        <v>0.1460219</v>
+        <v>0.7566133</v>
       </c>
       <c r="C102">
-        <v>0.0422627</v>
+        <v>0.052442</v>
       </c>
       <c r="D102">
-        <v>0.0808818</v>
+        <v>0.6401542</v>
       </c>
       <c r="E102">
-        <v>0.2493893</v>
+        <v>0.8445354</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2821,20 +2821,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a18 o18 t19</t>
+          <t>p s2 g1 c1 a16 o16 t17</t>
         </is>
       </c>
       <c r="B103">
-        <v>0.0918784</v>
+        <v>0.8466055</v>
       </c>
       <c r="C103">
-        <v>0.028592</v>
+        <v>0.0409485</v>
       </c>
       <c r="D103">
-        <v>0.0491461</v>
+        <v>0.7484195</v>
       </c>
       <c r="E103">
-        <v>0.1653065</v>
+        <v>0.9110273</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2845,20 +2845,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a19 o19 t20</t>
+          <t>p s2 g1 c1 a17 o17 t18</t>
         </is>
       </c>
       <c r="B104">
-        <v>0.092209</v>
+        <v>0.7688296999999999</v>
       </c>
       <c r="C104">
-        <v>0.0291174</v>
+        <v>0.0538462</v>
       </c>
       <c r="D104">
-        <v>0.048858</v>
+        <v>0.6474622</v>
       </c>
       <c r="E104">
-        <v>0.1672606</v>
+        <v>0.8576036</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2869,20 +2869,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a20 o20 t21</t>
+          <t>p s2 g1 c1 a18 o18 t19</t>
         </is>
       </c>
       <c r="B105">
-        <v>0.2446816</v>
+        <v>0.6646919999999999</v>
       </c>
       <c r="C105">
-        <v>0.0836117</v>
+        <v>0.0669405</v>
       </c>
       <c r="D105">
-        <v>0.1177499</v>
+        <v>0.5238799</v>
       </c>
       <c r="E105">
-        <v>0.4401753</v>
+        <v>0.7812484</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2893,20 +2893,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a21 o21 t22</t>
+          <t>p s2 g1 c1 a19 o19 t20</t>
         </is>
       </c>
       <c r="B106">
-        <v>0.105479</v>
+        <v>0.6656840000000001</v>
       </c>
       <c r="C106">
-        <v>0.0473805</v>
+        <v>0.0659979</v>
       </c>
       <c r="D106">
-        <v>0.0422084</v>
+        <v>0.5268445</v>
       </c>
       <c r="E106">
-        <v>0.2398429</v>
+        <v>0.7807385999999999</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2917,20 +2917,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a22 o22 t23</t>
+          <t>p s2 g1 c1 a20 o20 t21</t>
         </is>
       </c>
       <c r="B107">
-        <v>0.9999941</v>
+        <v>0.8629956</v>
       </c>
       <c r="C107">
-        <v>0.0061614</v>
+        <v>0.0512758</v>
       </c>
       <c r="D107">
-        <v>9.374178E-304</v>
+        <v>0.7291638</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0.9364583</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2941,20 +2941,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a1 o1 t2</t>
+          <t>p s2 g1 c1 a21 o21 t22</t>
         </is>
       </c>
       <c r="B108">
-        <v>0.6331097</v>
+        <v>0.6997762</v>
       </c>
       <c r="C108">
-        <v>0.1338209</v>
+        <v>0.097833</v>
       </c>
       <c r="D108">
-        <v>0.3581038</v>
+        <v>0.4833844</v>
       </c>
       <c r="E108">
-        <v>0.8422101</v>
+        <v>0.8530783</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2965,20 +2965,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a2 o2 t3</t>
+          <t>p s2 g1 c1 a22 o22 t23</t>
         </is>
       </c>
       <c r="B109">
-        <v>0.7472304</v>
+        <v>0.9999997</v>
       </c>
       <c r="C109">
-        <v>0.101506</v>
+        <v>0.0003558413</v>
       </c>
       <c r="D109">
-        <v>0.5076382</v>
+        <v>1.590313E-302</v>
       </c>
       <c r="E109">
-        <v>0.8944699</v>
+        <v>1</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2989,44 +2989,44 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a3 o3 t4</t>
+          <t>Psi s2 to1 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B110">
-        <v>0.5560342</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.1099471</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0.3434704</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>0.749891</v>
+        <v>0</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve">     </t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a4 o4 t5</t>
+          <t>Psi s1 to2 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B111">
-        <v>0.8434596</v>
+        <v>0.165885</v>
       </c>
       <c r="C111">
-        <v>0.06639490000000001</v>
+        <v>0.0231062</v>
       </c>
       <c r="D111">
-        <v>0.6678771</v>
+        <v>0.1253866</v>
       </c>
       <c r="E111">
-        <v>0.9352207</v>
+        <v>0.21623</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3037,20 +3037,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a5 o5 t6</t>
+          <t>Psi s1 to2 g1 c1 a1 o2 t2</t>
         </is>
       </c>
       <c r="B112">
-        <v>0.5952449</v>
+        <v>0.165885</v>
       </c>
       <c r="C112">
-        <v>0.1039055</v>
+        <v>0.0231062</v>
       </c>
       <c r="D112">
-        <v>0.3870805</v>
+        <v>0.1253866</v>
       </c>
       <c r="E112">
-        <v>0.7739904</v>
+        <v>0.21623</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3061,20 +3061,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a6 o6 t7</t>
+          <t>Psi s1 to2 g1 c1 a2 o3 t3</t>
         </is>
       </c>
       <c r="B113">
-        <v>0.7680016</v>
+        <v>0.3304054</v>
       </c>
       <c r="C113">
-        <v>0.06560340000000001</v>
+        <v>0.0710421</v>
       </c>
       <c r="D113">
-        <v>0.6166603000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E113">
-        <v>0.8719962999999999</v>
+        <v>0.4807664</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3085,20 +3085,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a7 o7 t8</t>
+          <t>Psi s1 to2 g1 c1 a3 o4 t4</t>
         </is>
       </c>
       <c r="B114">
-        <v>0.8108806</v>
+        <v>0.2301326</v>
       </c>
       <c r="C114">
-        <v>0.0591011</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D114">
-        <v>0.6682708000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E114">
-        <v>0.9012427</v>
+        <v>0.4290259</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3109,20 +3109,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a8 o8 t9</t>
+          <t>Psi s1 to2 g1 c1 a4 o5 t5</t>
         </is>
       </c>
       <c r="B115">
-        <v>0.4341497</v>
+        <v>0.1412991</v>
       </c>
       <c r="C115">
-        <v>0.0758938</v>
+        <v>0.0510661</v>
       </c>
       <c r="D115">
-        <v>0.2951607</v>
+        <v>0.0672667</v>
       </c>
       <c r="E115">
-        <v>0.5843289</v>
+        <v>0.2729653</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3133,20 +3133,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a9 o9 t10</t>
+          <t>Psi s1 to2 g1 c1 a5 o6 t6</t>
         </is>
       </c>
       <c r="B116">
-        <v>0.9300416</v>
+        <v>0.1412991</v>
       </c>
       <c r="C116">
-        <v>0.0268423</v>
+        <v>0.0510661</v>
       </c>
       <c r="D116">
-        <v>0.8555397</v>
+        <v>0.0672667</v>
       </c>
       <c r="E116">
-        <v>0.9675771</v>
+        <v>0.2729653</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3157,20 +3157,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a10 o10 t11</t>
+          <t>Psi s1 to2 g1 c1 a6 o7 t7</t>
         </is>
       </c>
       <c r="B117">
-        <v>0.8261457</v>
+        <v>0.1412991</v>
       </c>
       <c r="C117">
-        <v>0.0490979</v>
+        <v>0.0510661</v>
       </c>
       <c r="D117">
-        <v>0.7085909</v>
+        <v>0.0672667</v>
       </c>
       <c r="E117">
-        <v>0.9027848000000001</v>
+        <v>0.2729653</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3181,20 +3181,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a11 o11 t12</t>
+          <t>Psi s1 to2 g1 c1 a7 o8 t8</t>
         </is>
       </c>
       <c r="B118">
-        <v>0.8263715</v>
+        <v>0.1412991</v>
       </c>
       <c r="C118">
-        <v>0.0445514</v>
+        <v>0.0510661</v>
       </c>
       <c r="D118">
-        <v>0.721425</v>
+        <v>0.0672667</v>
       </c>
       <c r="E118">
-        <v>0.8974044</v>
+        <v>0.2729653</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3205,20 +3205,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a12 o12 t13</t>
+          <t>Psi s1 to2 g1 c1 a8 o9 t9</t>
         </is>
       </c>
       <c r="B119">
-        <v>0.8140117</v>
+        <v>0.1412991</v>
       </c>
       <c r="C119">
-        <v>0.0458709</v>
+        <v>0.0510661</v>
       </c>
       <c r="D119">
-        <v>0.7073278</v>
+        <v>0.0672667</v>
       </c>
       <c r="E119">
-        <v>0.887967</v>
+        <v>0.2729653</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3229,20 +3229,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a13 o13 t14</t>
+          <t>Psi s1 to2 g1 c1 a9 o10 t10</t>
         </is>
       </c>
       <c r="B120">
-        <v>0.7678501</v>
+        <v>0.1412991</v>
       </c>
       <c r="C120">
-        <v>0.0540422</v>
+        <v>0.0510661</v>
       </c>
       <c r="D120">
-        <v>0.6461127</v>
+        <v>0.0672667</v>
       </c>
       <c r="E120">
-        <v>0.8569796</v>
+        <v>0.2729653</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3253,20 +3253,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a14 o14 t15</t>
+          <t>Psi s1 to2 g1 c1 a10 o11 t11</t>
         </is>
       </c>
       <c r="B121">
-        <v>0.7225586000000001</v>
+        <v>0.1412991</v>
       </c>
       <c r="C121">
-        <v>0.0547213</v>
+        <v>0.0510661</v>
       </c>
       <c r="D121">
-        <v>0.6040025999999999</v>
+        <v>0.0672667</v>
       </c>
       <c r="E121">
-        <v>0.8164093</v>
+        <v>0.2729653</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3277,20 +3277,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a15 o15 t16</t>
+          <t>Psi s1 to2 g1 c1 a11 o12 t12</t>
         </is>
       </c>
       <c r="B122">
-        <v>0.7570114999999999</v>
+        <v>0.1412991</v>
       </c>
       <c r="C122">
-        <v>0.0525462</v>
+        <v>0.0510661</v>
       </c>
       <c r="D122">
-        <v>0.6402537</v>
+        <v>0.0672667</v>
       </c>
       <c r="E122">
-        <v>0.845046</v>
+        <v>0.2729653</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3301,20 +3301,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a16 o16 t17</t>
+          <t>Psi s1 to2 g1 c1 a12 o13 t13</t>
         </is>
       </c>
       <c r="B123">
-        <v>0.8474987</v>
+        <v>0.1412991</v>
       </c>
       <c r="C123">
-        <v>0.0407705</v>
+        <v>0.0510661</v>
       </c>
       <c r="D123">
-        <v>0.7496656</v>
+        <v>0.0672667</v>
       </c>
       <c r="E123">
-        <v>0.9116059</v>
+        <v>0.2729653</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3325,20 +3325,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a17 o17 t18</t>
+          <t>Psi s1 to2 g1 c1 a13 o14 t14</t>
         </is>
       </c>
       <c r="B124">
-        <v>0.7698421</v>
+        <v>0.1412991</v>
       </c>
       <c r="C124">
-        <v>0.0537108</v>
+        <v>0.0510661</v>
       </c>
       <c r="D124">
-        <v>0.6486881</v>
+        <v>0.0672667</v>
       </c>
       <c r="E124">
-        <v>0.858339</v>
+        <v>0.2729653</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3349,20 +3349,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a18 o18 t19</t>
+          <t>Psi s1 to2 g1 c1 a14 o15 t15</t>
         </is>
       </c>
       <c r="B125">
-        <v>0.6643313</v>
+        <v>0.1412991</v>
       </c>
       <c r="C125">
-        <v>0.067201</v>
+        <v>0.0510661</v>
       </c>
       <c r="D125">
-        <v>0.5229833</v>
+        <v>0.0672667</v>
       </c>
       <c r="E125">
-        <v>0.7813096</v>
+        <v>0.2729653</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3373,20 +3373,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a19 o19 t20</t>
+          <t>Psi s1 to2 g1 c1 a15 o16 t16</t>
         </is>
       </c>
       <c r="B126">
-        <v>0.6652129</v>
+        <v>0.1412991</v>
       </c>
       <c r="C126">
-        <v>0.0661485</v>
+        <v>0.0510661</v>
       </c>
       <c r="D126">
-        <v>0.5260879000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E126">
-        <v>0.7805336</v>
+        <v>0.2729653</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3397,20 +3397,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a20 o20 t21</t>
+          <t>Psi s1 to2 g1 c1 a16 o17 t17</t>
         </is>
       </c>
       <c r="B127">
-        <v>0.8637024</v>
+        <v>0.1412991</v>
       </c>
       <c r="C127">
-        <v>0.0511381</v>
+        <v>0.0510661</v>
       </c>
       <c r="D127">
-        <v>0.7300661000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E127">
-        <v>0.9368977000000001</v>
+        <v>0.2729653</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3421,20 +3421,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a21 o21 t22</t>
+          <t>Psi s1 to2 g1 c1 a17 o18 t18</t>
         </is>
       </c>
       <c r="B128">
-        <v>0.6975784</v>
+        <v>0.1412991</v>
       </c>
       <c r="C128">
-        <v>0.09844890000000001</v>
+        <v>0.0510661</v>
       </c>
       <c r="D128">
-        <v>0.4802927</v>
+        <v>0.0672667</v>
       </c>
       <c r="E128">
-        <v>0.8520102000000001</v>
+        <v>0.2729653</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3445,20 +3445,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a22 o22 t23</t>
+          <t>Psi s1 to2 g1 c1 a18 o19 t19</t>
         </is>
       </c>
       <c r="B129">
-        <v>0.9999997</v>
+        <v>0.1412991</v>
       </c>
       <c r="C129">
-        <v>0.0003141726</v>
+        <v>0.0510661</v>
       </c>
       <c r="D129">
-        <v>1.83374E-302</v>
+        <v>0.0672667</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0.2729653</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3469,44 +3469,44 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Psi s2 to1 g1 c1 a0 o1 t1</t>
+          <t>Psi s1 to2 g1 c1 a19 o20 t20</t>
         </is>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.1412991</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.0510661</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.0672667</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.2729653</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t xml:space="preserve">     </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a0 o1 t1</t>
+          <t>Psi s1 to2 g1 c1 a20 o21 t21</t>
         </is>
       </c>
       <c r="B131">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C131">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D131">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E131">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3517,20 +3517,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a1 o2 t2</t>
+          <t>Psi s1 to2 g1 c1 a21 o22 t22</t>
         </is>
       </c>
       <c r="B132">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C132">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D132">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E132">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3541,20 +3541,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a2 o3 t3</t>
+          <t>Psi s1 to2 g1 c2 a0 o2 t2</t>
         </is>
       </c>
       <c r="B133">
-        <v>0.329266</v>
+        <v>0.165885</v>
       </c>
       <c r="C133">
-        <v>0.07091989999999999</v>
+        <v>0.0231062</v>
       </c>
       <c r="D133">
-        <v>0.2073609</v>
+        <v>0.1253866</v>
       </c>
       <c r="E133">
-        <v>0.479485</v>
+        <v>0.21623</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3565,20 +3565,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a3 o4 t4</t>
+          <t>Psi s1 to2 g1 c2 a1 o3 t3</t>
         </is>
       </c>
       <c r="B134">
-        <v>0.2290448</v>
+        <v>0.165885</v>
       </c>
       <c r="C134">
-        <v>0.0829925</v>
+        <v>0.0231062</v>
       </c>
       <c r="D134">
-        <v>0.1057513</v>
+        <v>0.1253866</v>
       </c>
       <c r="E134">
-        <v>0.4273843</v>
+        <v>0.21623</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3589,20 +3589,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a4 o5 t5</t>
+          <t>Psi s1 to2 g1 c2 a2 o4 t4</t>
         </is>
       </c>
       <c r="B135">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C135">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D135">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E135">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3613,20 +3613,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a5 o6 t6</t>
+          <t>Psi s1 to2 g1 c2 a3 o5 t5</t>
         </is>
       </c>
       <c r="B136">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C136">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D136">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E136">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3637,20 +3637,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a6 o7 t7</t>
+          <t>Psi s1 to2 g1 c2 a4 o6 t6</t>
         </is>
       </c>
       <c r="B137">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C137">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D137">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E137">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3661,20 +3661,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a7 o8 t8</t>
+          <t>Psi s1 to2 g1 c2 a5 o7 t7</t>
         </is>
       </c>
       <c r="B138">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C138">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D138">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E138">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3685,20 +3685,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a8 o9 t9</t>
+          <t>Psi s1 to2 g1 c2 a6 o8 t8</t>
         </is>
       </c>
       <c r="B139">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C139">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D139">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E139">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3709,20 +3709,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a9 o10 t10</t>
+          <t>Psi s1 to2 g1 c2 a7 o9 t9</t>
         </is>
       </c>
       <c r="B140">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C140">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D140">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E140">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3733,20 +3733,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a10 o11 t11</t>
+          <t>Psi s1 to2 g1 c2 a8 o10 t10</t>
         </is>
       </c>
       <c r="B141">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C141">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D141">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E141">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3757,20 +3757,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a11 o12 t12</t>
+          <t>Psi s1 to2 g1 c2 a9 o11 t11</t>
         </is>
       </c>
       <c r="B142">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C142">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D142">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E142">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3781,20 +3781,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a12 o13 t13</t>
+          <t>Psi s1 to2 g1 c2 a10 o12 t12</t>
         </is>
       </c>
       <c r="B143">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C143">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D143">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E143">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3805,20 +3805,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a13 o14 t14</t>
+          <t>Psi s1 to2 g1 c2 a11 o13 t13</t>
         </is>
       </c>
       <c r="B144">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C144">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D144">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E144">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3829,20 +3829,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a14 o15 t15</t>
+          <t>Psi s1 to2 g1 c2 a12 o14 t14</t>
         </is>
       </c>
       <c r="B145">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C145">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D145">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E145">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3853,20 +3853,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a15 o16 t16</t>
+          <t>Psi s1 to2 g1 c2 a13 o15 t15</t>
         </is>
       </c>
       <c r="B146">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C146">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D146">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E146">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3877,20 +3877,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a16 o17 t17</t>
+          <t>Psi s1 to2 g1 c2 a14 o16 t16</t>
         </is>
       </c>
       <c r="B147">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C147">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D147">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E147">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3901,20 +3901,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a17 o18 t18</t>
+          <t>Psi s1 to2 g1 c2 a15 o17 t17</t>
         </is>
       </c>
       <c r="B148">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C148">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D148">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E148">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3925,20 +3925,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a18 o19 t19</t>
+          <t>Psi s1 to2 g1 c2 a16 o18 t18</t>
         </is>
       </c>
       <c r="B149">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C149">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D149">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E149">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3949,20 +3949,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a19 o20 t20</t>
+          <t>Psi s1 to2 g1 c2 a17 o19 t19</t>
         </is>
       </c>
       <c r="B150">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C150">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D150">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E150">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3973,20 +3973,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a20 o21 t21</t>
+          <t>Psi s1 to2 g1 c2 a18 o20 t20</t>
         </is>
       </c>
       <c r="B151">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C151">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D151">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E151">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3997,20 +3997,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a21 o22 t22</t>
+          <t>Psi s1 to2 g1 c2 a19 o21 t21</t>
         </is>
       </c>
       <c r="B152">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C152">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D152">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E152">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4021,20 +4021,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a0 o2 t2</t>
+          <t>Psi s1 to2 g1 c2 a20 o22 t22</t>
         </is>
       </c>
       <c r="B153">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C153">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D153">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E153">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4045,20 +4045,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a1 o3 t3</t>
+          <t>Psi s1 to2 g1 c3 a0 o3 t3</t>
         </is>
       </c>
       <c r="B154">
-        <v>0.1659719</v>
+        <v>0.165885</v>
       </c>
       <c r="C154">
-        <v>0.0231377</v>
+        <v>0.0231062</v>
       </c>
       <c r="D154">
-        <v>0.1254216</v>
+        <v>0.1253866</v>
       </c>
       <c r="E154">
-        <v>0.2163888</v>
+        <v>0.21623</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4069,20 +4069,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a2 o4 t4</t>
+          <t>Psi s1 to2 g1 c3 a1 o4 t4</t>
         </is>
       </c>
       <c r="B155">
-        <v>0.329266</v>
+        <v>0.165885</v>
       </c>
       <c r="C155">
-        <v>0.07091989999999999</v>
+        <v>0.0231062</v>
       </c>
       <c r="D155">
-        <v>0.2073609</v>
+        <v>0.1253866</v>
       </c>
       <c r="E155">
-        <v>0.479485</v>
+        <v>0.21623</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4093,20 +4093,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a3 o5 t5</t>
+          <t>Psi s1 to2 g1 c3 a2 o5 t5</t>
         </is>
       </c>
       <c r="B156">
-        <v>0.2290448</v>
+        <v>0.3304054</v>
       </c>
       <c r="C156">
-        <v>0.0829925</v>
+        <v>0.0710421</v>
       </c>
       <c r="D156">
-        <v>0.1057513</v>
+        <v>0.2082129</v>
       </c>
       <c r="E156">
-        <v>0.4273843</v>
+        <v>0.4807664</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4117,20 +4117,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a4 o6 t6</t>
+          <t>Psi s1 to2 g1 c3 a3 o6 t6</t>
         </is>
       </c>
       <c r="B157">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C157">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D157">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E157">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4141,20 +4141,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a5 o7 t7</t>
+          <t>Psi s1 to2 g1 c3 a4 o7 t7</t>
         </is>
       </c>
       <c r="B158">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C158">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D158">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E158">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4165,20 +4165,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a6 o8 t8</t>
+          <t>Psi s1 to2 g1 c3 a5 o8 t8</t>
         </is>
       </c>
       <c r="B159">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C159">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D159">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E159">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4189,20 +4189,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a7 o9 t9</t>
+          <t>Psi s1 to2 g1 c3 a6 o9 t9</t>
         </is>
       </c>
       <c r="B160">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C160">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D160">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E160">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4213,20 +4213,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a8 o10 t10</t>
+          <t>Psi s1 to2 g1 c3 a7 o10 t10</t>
         </is>
       </c>
       <c r="B161">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C161">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D161">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E161">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4237,20 +4237,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a9 o11 t11</t>
+          <t>Psi s1 to2 g1 c3 a8 o11 t11</t>
         </is>
       </c>
       <c r="B162">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C162">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D162">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E162">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4261,20 +4261,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a10 o12 t12</t>
+          <t>Psi s1 to2 g1 c3 a9 o12 t12</t>
         </is>
       </c>
       <c r="B163">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C163">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D163">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E163">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4285,20 +4285,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a11 o13 t13</t>
+          <t>Psi s1 to2 g1 c3 a10 o13 t13</t>
         </is>
       </c>
       <c r="B164">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C164">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D164">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E164">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4309,20 +4309,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a12 o14 t14</t>
+          <t>Psi s1 to2 g1 c3 a11 o14 t14</t>
         </is>
       </c>
       <c r="B165">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C165">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D165">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E165">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4333,20 +4333,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a13 o15 t15</t>
+          <t>Psi s1 to2 g1 c3 a12 o15 t15</t>
         </is>
       </c>
       <c r="B166">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C166">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D166">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E166">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4357,20 +4357,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a14 o16 t16</t>
+          <t>Psi s1 to2 g1 c3 a13 o16 t16</t>
         </is>
       </c>
       <c r="B167">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C167">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D167">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E167">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4381,20 +4381,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a15 o17 t17</t>
+          <t>Psi s1 to2 g1 c3 a14 o17 t17</t>
         </is>
       </c>
       <c r="B168">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C168">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D168">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E168">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4405,20 +4405,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a16 o18 t18</t>
+          <t>Psi s1 to2 g1 c3 a15 o18 t18</t>
         </is>
       </c>
       <c r="B169">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C169">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D169">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E169">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4429,20 +4429,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a17 o19 t19</t>
+          <t>Psi s1 to2 g1 c3 a16 o19 t19</t>
         </is>
       </c>
       <c r="B170">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C170">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D170">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E170">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4453,20 +4453,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a18 o20 t20</t>
+          <t>Psi s1 to2 g1 c3 a17 o20 t20</t>
         </is>
       </c>
       <c r="B171">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C171">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D171">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E171">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4477,20 +4477,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a19 o21 t21</t>
+          <t>Psi s1 to2 g1 c3 a18 o21 t21</t>
         </is>
       </c>
       <c r="B172">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C172">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D172">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E172">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4501,20 +4501,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a20 o22 t22</t>
+          <t>Psi s1 to2 g1 c3 a19 o22 t22</t>
         </is>
       </c>
       <c r="B173">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C173">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D173">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E173">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4525,20 +4525,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a0 o3 t3</t>
+          <t>Psi s1 to2 g1 c4 a0 o4 t4</t>
         </is>
       </c>
       <c r="B174">
-        <v>0.1659719</v>
+        <v>0.165885</v>
       </c>
       <c r="C174">
-        <v>0.0231377</v>
+        <v>0.0231062</v>
       </c>
       <c r="D174">
-        <v>0.1254216</v>
+        <v>0.1253866</v>
       </c>
       <c r="E174">
-        <v>0.2163888</v>
+        <v>0.21623</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4549,20 +4549,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a1 o4 t4</t>
+          <t>Psi s1 to2 g1 c4 a1 o5 t5</t>
         </is>
       </c>
       <c r="B175">
-        <v>0.1659719</v>
+        <v>0.165885</v>
       </c>
       <c r="C175">
-        <v>0.0231377</v>
+        <v>0.0231062</v>
       </c>
       <c r="D175">
-        <v>0.1254216</v>
+        <v>0.1253866</v>
       </c>
       <c r="E175">
-        <v>0.2163888</v>
+        <v>0.21623</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4573,20 +4573,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a2 o5 t5</t>
+          <t>Psi s1 to2 g1 c4 a2 o6 t6</t>
         </is>
       </c>
       <c r="B176">
-        <v>0.329266</v>
+        <v>0.3304054</v>
       </c>
       <c r="C176">
-        <v>0.07091989999999999</v>
+        <v>0.0710421</v>
       </c>
       <c r="D176">
-        <v>0.2073609</v>
+        <v>0.2082129</v>
       </c>
       <c r="E176">
-        <v>0.479485</v>
+        <v>0.4807664</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4597,20 +4597,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a3 o6 t6</t>
+          <t>Psi s1 to2 g1 c4 a3 o7 t7</t>
         </is>
       </c>
       <c r="B177">
-        <v>0.2290448</v>
+        <v>0.2301326</v>
       </c>
       <c r="C177">
-        <v>0.0829925</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D177">
-        <v>0.1057513</v>
+        <v>0.1062816</v>
       </c>
       <c r="E177">
-        <v>0.4273843</v>
+        <v>0.4290259</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4621,20 +4621,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a4 o7 t7</t>
+          <t>Psi s1 to2 g1 c4 a4 o8 t8</t>
         </is>
       </c>
       <c r="B178">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C178">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D178">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E178">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4645,20 +4645,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a5 o8 t8</t>
+          <t>Psi s1 to2 g1 c4 a5 o9 t9</t>
         </is>
       </c>
       <c r="B179">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C179">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D179">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E179">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4669,20 +4669,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a6 o9 t9</t>
+          <t>Psi s1 to2 g1 c4 a6 o10 t10</t>
         </is>
       </c>
       <c r="B180">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C180">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D180">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E180">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4693,20 +4693,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a7 o10 t10</t>
+          <t>Psi s1 to2 g1 c4 a7 o11 t11</t>
         </is>
       </c>
       <c r="B181">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C181">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D181">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E181">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4717,20 +4717,20 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a8 o11 t11</t>
+          <t>Psi s1 to2 g1 c4 a8 o12 t12</t>
         </is>
       </c>
       <c r="B182">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C182">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D182">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E182">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4741,20 +4741,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a9 o12 t12</t>
+          <t>Psi s1 to2 g1 c4 a9 o13 t13</t>
         </is>
       </c>
       <c r="B183">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C183">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D183">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E183">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4765,20 +4765,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a10 o13 t13</t>
+          <t>Psi s1 to2 g1 c4 a10 o14 t14</t>
         </is>
       </c>
       <c r="B184">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C184">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D184">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E184">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4789,20 +4789,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a11 o14 t14</t>
+          <t>Psi s1 to2 g1 c4 a11 o15 t15</t>
         </is>
       </c>
       <c r="B185">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C185">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D185">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E185">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4813,20 +4813,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a12 o15 t15</t>
+          <t>Psi s1 to2 g1 c4 a12 o16 t16</t>
         </is>
       </c>
       <c r="B186">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C186">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D186">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E186">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4837,20 +4837,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a13 o16 t16</t>
+          <t>Psi s1 to2 g1 c4 a13 o17 t17</t>
         </is>
       </c>
       <c r="B187">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C187">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D187">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E187">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4861,20 +4861,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a14 o17 t17</t>
+          <t>Psi s1 to2 g1 c4 a14 o18 t18</t>
         </is>
       </c>
       <c r="B188">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C188">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D188">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E188">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4885,20 +4885,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a15 o18 t18</t>
+          <t>Psi s1 to2 g1 c4 a15 o19 t19</t>
         </is>
       </c>
       <c r="B189">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C189">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D189">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E189">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4909,20 +4909,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a16 o19 t19</t>
+          <t>Psi s1 to2 g1 c4 a16 o20 t20</t>
         </is>
       </c>
       <c r="B190">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C190">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D190">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E190">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4933,20 +4933,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a17 o20 t20</t>
+          <t>Psi s1 to2 g1 c4 a17 o21 t21</t>
         </is>
       </c>
       <c r="B191">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C191">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D191">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E191">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4957,20 +4957,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a18 o21 t21</t>
+          <t>Psi s1 to2 g1 c4 a18 o22 t22</t>
         </is>
       </c>
       <c r="B192">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C192">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D192">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E192">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4981,20 +4981,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a19 o22 t22</t>
+          <t>Psi s1 to2 g1 c5 a0 o5 t5</t>
         </is>
       </c>
       <c r="B193">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C193">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D193">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E193">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5005,20 +5005,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a0 o4 t4</t>
+          <t>Psi s1 to2 g1 c5 a1 o6 t6</t>
         </is>
       </c>
       <c r="B194">
-        <v>0.1659719</v>
+        <v>0.165885</v>
       </c>
       <c r="C194">
-        <v>0.0231377</v>
+        <v>0.0231062</v>
       </c>
       <c r="D194">
-        <v>0.1254216</v>
+        <v>0.1253866</v>
       </c>
       <c r="E194">
-        <v>0.2163888</v>
+        <v>0.21623</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5029,20 +5029,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a1 o5 t5</t>
+          <t>Psi s1 to2 g1 c5 a2 o7 t7</t>
         </is>
       </c>
       <c r="B195">
-        <v>0.1659719</v>
+        <v>0.3304054</v>
       </c>
       <c r="C195">
-        <v>0.0231377</v>
+        <v>0.0710421</v>
       </c>
       <c r="D195">
-        <v>0.1254216</v>
+        <v>0.2082129</v>
       </c>
       <c r="E195">
-        <v>0.2163888</v>
+        <v>0.4807664</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5053,20 +5053,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a2 o6 t6</t>
+          <t>Psi s1 to2 g1 c5 a3 o8 t8</t>
         </is>
       </c>
       <c r="B196">
-        <v>0.329266</v>
+        <v>0.2301326</v>
       </c>
       <c r="C196">
-        <v>0.07091989999999999</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D196">
-        <v>0.2073609</v>
+        <v>0.1062816</v>
       </c>
       <c r="E196">
-        <v>0.479485</v>
+        <v>0.4290259</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5077,20 +5077,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a3 o7 t7</t>
+          <t>Psi s1 to2 g1 c5 a4 o9 t9</t>
         </is>
       </c>
       <c r="B197">
-        <v>0.2290448</v>
+        <v>0.1412991</v>
       </c>
       <c r="C197">
-        <v>0.0829925</v>
+        <v>0.0510661</v>
       </c>
       <c r="D197">
-        <v>0.1057513</v>
+        <v>0.0672667</v>
       </c>
       <c r="E197">
-        <v>0.4273843</v>
+        <v>0.2729653</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5101,20 +5101,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a4 o8 t8</t>
+          <t>Psi s1 to2 g1 c5 a5 o10 t10</t>
         </is>
       </c>
       <c r="B198">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C198">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D198">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E198">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5125,20 +5125,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a5 o9 t9</t>
+          <t>Psi s1 to2 g1 c5 a6 o11 t11</t>
         </is>
       </c>
       <c r="B199">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C199">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D199">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E199">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5149,20 +5149,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a6 o10 t10</t>
+          <t>Psi s1 to2 g1 c5 a7 o12 t12</t>
         </is>
       </c>
       <c r="B200">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C200">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D200">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E200">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -5173,20 +5173,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a7 o11 t11</t>
+          <t>Psi s1 to2 g1 c5 a8 o13 t13</t>
         </is>
       </c>
       <c r="B201">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C201">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D201">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E201">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5197,20 +5197,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a8 o12 t12</t>
+          <t>Psi s1 to2 g1 c5 a9 o14 t14</t>
         </is>
       </c>
       <c r="B202">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C202">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D202">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E202">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5221,20 +5221,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a9 o13 t13</t>
+          <t>Psi s1 to2 g1 c5 a10 o15 t15</t>
         </is>
       </c>
       <c r="B203">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C203">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D203">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E203">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5245,20 +5245,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a10 o14 t14</t>
+          <t>Psi s1 to2 g1 c5 a11 o16 t16</t>
         </is>
       </c>
       <c r="B204">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C204">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D204">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E204">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5269,20 +5269,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a11 o15 t15</t>
+          <t>Psi s1 to2 g1 c5 a12 o17 t17</t>
         </is>
       </c>
       <c r="B205">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C205">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D205">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E205">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5293,20 +5293,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a12 o16 t16</t>
+          <t>Psi s1 to2 g1 c5 a13 o18 t18</t>
         </is>
       </c>
       <c r="B206">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C206">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D206">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E206">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5317,20 +5317,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a13 o17 t17</t>
+          <t>Psi s1 to2 g1 c5 a14 o19 t19</t>
         </is>
       </c>
       <c r="B207">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C207">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D207">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E207">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5341,20 +5341,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a14 o18 t18</t>
+          <t>Psi s1 to2 g1 c5 a15 o20 t20</t>
         </is>
       </c>
       <c r="B208">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C208">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D208">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E208">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5365,20 +5365,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a15 o19 t19</t>
+          <t>Psi s1 to2 g1 c5 a16 o21 t21</t>
         </is>
       </c>
       <c r="B209">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C209">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D209">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E209">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5389,20 +5389,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a16 o20 t20</t>
+          <t>Psi s1 to2 g1 c5 a17 o22 t22</t>
         </is>
       </c>
       <c r="B210">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C210">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D210">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E210">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5413,20 +5413,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a17 o21 t21</t>
+          <t>Psi s1 to2 g1 c6 a0 o6 t6</t>
         </is>
       </c>
       <c r="B211">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C211">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D211">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E211">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5437,20 +5437,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a18 o22 t22</t>
+          <t>Psi s1 to2 g1 c6 a1 o7 t7</t>
         </is>
       </c>
       <c r="B212">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C212">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D212">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E212">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5461,20 +5461,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a0 o5 t5</t>
+          <t>Psi s1 to2 g1 c6 a2 o8 t8</t>
         </is>
       </c>
       <c r="B213">
-        <v>0.1659719</v>
+        <v>0.3304054</v>
       </c>
       <c r="C213">
-        <v>0.0231377</v>
+        <v>0.0710421</v>
       </c>
       <c r="D213">
-        <v>0.1254216</v>
+        <v>0.2082129</v>
       </c>
       <c r="E213">
-        <v>0.2163888</v>
+        <v>0.4807664</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5485,20 +5485,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a1 o6 t6</t>
+          <t>Psi s1 to2 g1 c6 a3 o9 t9</t>
         </is>
       </c>
       <c r="B214">
-        <v>0.1659719</v>
+        <v>0.2301326</v>
       </c>
       <c r="C214">
-        <v>0.0231377</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D214">
-        <v>0.1254216</v>
+        <v>0.1062816</v>
       </c>
       <c r="E214">
-        <v>0.2163888</v>
+        <v>0.4290259</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5509,20 +5509,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a2 o7 t7</t>
+          <t>Psi s1 to2 g1 c6 a4 o10 t10</t>
         </is>
       </c>
       <c r="B215">
-        <v>0.329266</v>
+        <v>0.1412991</v>
       </c>
       <c r="C215">
-        <v>0.07091989999999999</v>
+        <v>0.0510661</v>
       </c>
       <c r="D215">
-        <v>0.2073609</v>
+        <v>0.0672667</v>
       </c>
       <c r="E215">
-        <v>0.479485</v>
+        <v>0.2729653</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5533,20 +5533,20 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a3 o8 t8</t>
+          <t>Psi s1 to2 g1 c6 a5 o11 t11</t>
         </is>
       </c>
       <c r="B216">
-        <v>0.2290448</v>
+        <v>0.1412991</v>
       </c>
       <c r="C216">
-        <v>0.0829925</v>
+        <v>0.0510661</v>
       </c>
       <c r="D216">
-        <v>0.1057513</v>
+        <v>0.0672667</v>
       </c>
       <c r="E216">
-        <v>0.4273843</v>
+        <v>0.2729653</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5557,20 +5557,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a4 o9 t9</t>
+          <t>Psi s1 to2 g1 c6 a6 o12 t12</t>
         </is>
       </c>
       <c r="B217">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C217">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D217">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E217">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5581,20 +5581,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a5 o10 t10</t>
+          <t>Psi s1 to2 g1 c6 a7 o13 t13</t>
         </is>
       </c>
       <c r="B218">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C218">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D218">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E218">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5605,20 +5605,20 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a6 o11 t11</t>
+          <t>Psi s1 to2 g1 c6 a8 o14 t14</t>
         </is>
       </c>
       <c r="B219">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C219">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D219">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E219">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5629,20 +5629,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a7 o12 t12</t>
+          <t>Psi s1 to2 g1 c6 a9 o15 t15</t>
         </is>
       </c>
       <c r="B220">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C220">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D220">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E220">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5653,20 +5653,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a8 o13 t13</t>
+          <t>Psi s1 to2 g1 c6 a10 o16 t16</t>
         </is>
       </c>
       <c r="B221">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C221">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D221">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E221">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5677,20 +5677,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a9 o14 t14</t>
+          <t>Psi s1 to2 g1 c6 a11 o17 t17</t>
         </is>
       </c>
       <c r="B222">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C222">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D222">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E222">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5701,20 +5701,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a10 o15 t15</t>
+          <t>Psi s1 to2 g1 c6 a12 o18 t18</t>
         </is>
       </c>
       <c r="B223">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C223">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D223">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E223">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5725,20 +5725,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a11 o16 t16</t>
+          <t>Psi s1 to2 g1 c6 a13 o19 t19</t>
         </is>
       </c>
       <c r="B224">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C224">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D224">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E224">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5749,20 +5749,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a12 o17 t17</t>
+          <t>Psi s1 to2 g1 c6 a14 o20 t20</t>
         </is>
       </c>
       <c r="B225">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C225">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D225">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E225">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5773,20 +5773,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a13 o18 t18</t>
+          <t>Psi s1 to2 g1 c6 a15 o21 t21</t>
         </is>
       </c>
       <c r="B226">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C226">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D226">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E226">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5797,20 +5797,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a14 o19 t19</t>
+          <t>Psi s1 to2 g1 c6 a16 o22 t22</t>
         </is>
       </c>
       <c r="B227">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C227">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D227">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E227">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5821,20 +5821,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a15 o20 t20</t>
+          <t>Psi s1 to2 g1 c7 a0 o7 t7</t>
         </is>
       </c>
       <c r="B228">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C228">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D228">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E228">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5845,20 +5845,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a16 o21 t21</t>
+          <t>Psi s1 to2 g1 c7 a1 o8 t8</t>
         </is>
       </c>
       <c r="B229">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C229">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D229">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E229">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5869,20 +5869,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a17 o22 t22</t>
+          <t>Psi s1 to2 g1 c7 a2 o9 t9</t>
         </is>
       </c>
       <c r="B230">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C230">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D230">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E230">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5893,20 +5893,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a0 o6 t6</t>
+          <t>Psi s1 to2 g1 c7 a3 o10 t10</t>
         </is>
       </c>
       <c r="B231">
-        <v>0.1659719</v>
+        <v>0.2301326</v>
       </c>
       <c r="C231">
-        <v>0.0231377</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D231">
-        <v>0.1254216</v>
+        <v>0.1062816</v>
       </c>
       <c r="E231">
-        <v>0.2163888</v>
+        <v>0.4290259</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5917,20 +5917,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a1 o7 t7</t>
+          <t>Psi s1 to2 g1 c7 a4 o11 t11</t>
         </is>
       </c>
       <c r="B232">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C232">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D232">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E232">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5941,20 +5941,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a2 o8 t8</t>
+          <t>Psi s1 to2 g1 c7 a5 o12 t12</t>
         </is>
       </c>
       <c r="B233">
-        <v>0.329266</v>
+        <v>0.1412991</v>
       </c>
       <c r="C233">
-        <v>0.07091989999999999</v>
+        <v>0.0510661</v>
       </c>
       <c r="D233">
-        <v>0.2073609</v>
+        <v>0.0672667</v>
       </c>
       <c r="E233">
-        <v>0.479485</v>
+        <v>0.2729653</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5965,20 +5965,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a3 o9 t9</t>
+          <t>Psi s1 to2 g1 c7 a6 o13 t13</t>
         </is>
       </c>
       <c r="B234">
-        <v>0.2290448</v>
+        <v>0.1412991</v>
       </c>
       <c r="C234">
-        <v>0.0829925</v>
+        <v>0.0510661</v>
       </c>
       <c r="D234">
-        <v>0.1057513</v>
+        <v>0.0672667</v>
       </c>
       <c r="E234">
-        <v>0.4273843</v>
+        <v>0.2729653</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5989,20 +5989,20 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a4 o10 t10</t>
+          <t>Psi s1 to2 g1 c7 a7 o14 t14</t>
         </is>
       </c>
       <c r="B235">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C235">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D235">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E235">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6013,20 +6013,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a5 o11 t11</t>
+          <t>Psi s1 to2 g1 c7 a8 o15 t15</t>
         </is>
       </c>
       <c r="B236">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C236">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D236">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E236">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -6037,20 +6037,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a6 o12 t12</t>
+          <t>Psi s1 to2 g1 c7 a9 o16 t16</t>
         </is>
       </c>
       <c r="B237">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C237">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D237">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E237">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -6061,20 +6061,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a7 o13 t13</t>
+          <t>Psi s1 to2 g1 c7 a10 o17 t17</t>
         </is>
       </c>
       <c r="B238">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C238">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D238">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E238">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -6085,20 +6085,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a8 o14 t14</t>
+          <t>Psi s1 to2 g1 c7 a11 o18 t18</t>
         </is>
       </c>
       <c r="B239">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C239">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D239">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E239">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -6109,20 +6109,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a9 o15 t15</t>
+          <t>Psi s1 to2 g1 c7 a12 o19 t19</t>
         </is>
       </c>
       <c r="B240">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C240">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D240">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E240">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6133,20 +6133,20 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a10 o16 t16</t>
+          <t>Psi s1 to2 g1 c7 a13 o20 t20</t>
         </is>
       </c>
       <c r="B241">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C241">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D241">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E241">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6157,20 +6157,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a11 o17 t17</t>
+          <t>Psi s1 to2 g1 c7 a14 o21 t21</t>
         </is>
       </c>
       <c r="B242">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C242">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D242">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E242">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -6181,20 +6181,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a12 o18 t18</t>
+          <t>Psi s1 to2 g1 c7 a15 o22 t22</t>
         </is>
       </c>
       <c r="B243">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C243">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D243">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E243">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6205,20 +6205,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a13 o19 t19</t>
+          <t>Psi s1 to2 g1 c8 a0 o8 t8</t>
         </is>
       </c>
       <c r="B244">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C244">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D244">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E244">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -6229,20 +6229,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a14 o20 t20</t>
+          <t>Psi s1 to2 g1 c8 a1 o9 t9</t>
         </is>
       </c>
       <c r="B245">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C245">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D245">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E245">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -6253,20 +6253,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a15 o21 t21</t>
+          <t>Psi s1 to2 g1 c8 a2 o10 t10</t>
         </is>
       </c>
       <c r="B246">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C246">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D246">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E246">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -6277,20 +6277,20 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a16 o22 t22</t>
+          <t>Psi s1 to2 g1 c8 a3 o11 t11</t>
         </is>
       </c>
       <c r="B247">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C247">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D247">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E247">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -6301,20 +6301,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a0 o7 t7</t>
+          <t>Psi s1 to2 g1 c8 a4 o12 t12</t>
         </is>
       </c>
       <c r="B248">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C248">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D248">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E248">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6325,20 +6325,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a1 o8 t8</t>
+          <t>Psi s1 to2 g1 c8 a5 o13 t13</t>
         </is>
       </c>
       <c r="B249">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C249">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D249">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E249">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6349,20 +6349,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a2 o9 t9</t>
+          <t>Psi s1 to2 g1 c8 a6 o14 t14</t>
         </is>
       </c>
       <c r="B250">
-        <v>0.329266</v>
+        <v>0.1412991</v>
       </c>
       <c r="C250">
-        <v>0.07091989999999999</v>
+        <v>0.0510661</v>
       </c>
       <c r="D250">
-        <v>0.2073609</v>
+        <v>0.0672667</v>
       </c>
       <c r="E250">
-        <v>0.479485</v>
+        <v>0.2729653</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6373,20 +6373,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a3 o10 t10</t>
+          <t>Psi s1 to2 g1 c8 a7 o15 t15</t>
         </is>
       </c>
       <c r="B251">
-        <v>0.2290448</v>
+        <v>0.1412991</v>
       </c>
       <c r="C251">
-        <v>0.0829925</v>
+        <v>0.0510661</v>
       </c>
       <c r="D251">
-        <v>0.1057513</v>
+        <v>0.0672667</v>
       </c>
       <c r="E251">
-        <v>0.4273843</v>
+        <v>0.2729653</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6397,20 +6397,20 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a4 o11 t11</t>
+          <t>Psi s1 to2 g1 c8 a8 o16 t16</t>
         </is>
       </c>
       <c r="B252">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C252">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D252">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E252">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6421,20 +6421,20 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a5 o12 t12</t>
+          <t>Psi s1 to2 g1 c8 a9 o17 t17</t>
         </is>
       </c>
       <c r="B253">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C253">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D253">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E253">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6445,20 +6445,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a6 o13 t13</t>
+          <t>Psi s1 to2 g1 c8 a10 o18 t18</t>
         </is>
       </c>
       <c r="B254">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C254">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D254">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E254">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6469,20 +6469,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a7 o14 t14</t>
+          <t>Psi s1 to2 g1 c8 a11 o19 t19</t>
         </is>
       </c>
       <c r="B255">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C255">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D255">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E255">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6493,20 +6493,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a8 o15 t15</t>
+          <t>Psi s1 to2 g1 c8 a12 o20 t20</t>
         </is>
       </c>
       <c r="B256">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C256">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D256">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E256">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6517,20 +6517,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a9 o16 t16</t>
+          <t>Psi s1 to2 g1 c8 a13 o21 t21</t>
         </is>
       </c>
       <c r="B257">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C257">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D257">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E257">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6541,20 +6541,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a10 o17 t17</t>
+          <t>Psi s1 to2 g1 c8 a14 o22 t22</t>
         </is>
       </c>
       <c r="B258">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C258">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D258">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E258">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6565,20 +6565,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a11 o18 t18</t>
+          <t>Psi s1 to2 g1 c9 a0 o9 t9</t>
         </is>
       </c>
       <c r="B259">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C259">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D259">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E259">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6589,20 +6589,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a12 o19 t19</t>
+          <t>Psi s1 to2 g1 c9 a1 o10 t10</t>
         </is>
       </c>
       <c r="B260">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C260">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D260">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E260">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6613,20 +6613,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a13 o20 t20</t>
+          <t>Psi s1 to2 g1 c9 a2 o11 t11</t>
         </is>
       </c>
       <c r="B261">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C261">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D261">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E261">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6637,20 +6637,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a14 o21 t21</t>
+          <t>Psi s1 to2 g1 c9 a3 o12 t12</t>
         </is>
       </c>
       <c r="B262">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C262">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D262">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E262">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6661,20 +6661,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a15 o22 t22</t>
+          <t>Psi s1 to2 g1 c9 a4 o13 t13</t>
         </is>
       </c>
       <c r="B263">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C263">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D263">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E263">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6685,20 +6685,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a0 o8 t8</t>
+          <t>Psi s1 to2 g1 c9 a5 o14 t14</t>
         </is>
       </c>
       <c r="B264">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C264">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D264">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E264">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6709,20 +6709,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a1 o9 t9</t>
+          <t>Psi s1 to2 g1 c9 a6 o15 t15</t>
         </is>
       </c>
       <c r="B265">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C265">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D265">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E265">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6733,20 +6733,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a2 o10 t10</t>
+          <t>Psi s1 to2 g1 c9 a7 o16 t16</t>
         </is>
       </c>
       <c r="B266">
-        <v>0.329266</v>
+        <v>0.1412991</v>
       </c>
       <c r="C266">
-        <v>0.07091989999999999</v>
+        <v>0.0510661</v>
       </c>
       <c r="D266">
-        <v>0.2073609</v>
+        <v>0.0672667</v>
       </c>
       <c r="E266">
-        <v>0.479485</v>
+        <v>0.2729653</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6757,20 +6757,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a3 o11 t11</t>
+          <t>Psi s1 to2 g1 c9 a8 o17 t17</t>
         </is>
       </c>
       <c r="B267">
-        <v>0.2290448</v>
+        <v>0.1412991</v>
       </c>
       <c r="C267">
-        <v>0.0829925</v>
+        <v>0.0510661</v>
       </c>
       <c r="D267">
-        <v>0.1057513</v>
+        <v>0.0672667</v>
       </c>
       <c r="E267">
-        <v>0.4273843</v>
+        <v>0.2729653</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6781,20 +6781,20 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a4 o12 t12</t>
+          <t>Psi s1 to2 g1 c9 a9 o18 t18</t>
         </is>
       </c>
       <c r="B268">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C268">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D268">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E268">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6805,20 +6805,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a5 o13 t13</t>
+          <t>Psi s1 to2 g1 c9 a10 o19 t19</t>
         </is>
       </c>
       <c r="B269">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C269">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D269">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E269">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6829,20 +6829,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a6 o14 t14</t>
+          <t>Psi s1 to2 g1 c9 a11 o20 t20</t>
         </is>
       </c>
       <c r="B270">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C270">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D270">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E270">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6853,20 +6853,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a7 o15 t15</t>
+          <t>Psi s1 to2 g1 c9 a12 o21 t21</t>
         </is>
       </c>
       <c r="B271">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C271">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D271">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E271">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6877,20 +6877,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a8 o16 t16</t>
+          <t>Psi s1 to2 g1 c9 a13 o22 t22</t>
         </is>
       </c>
       <c r="B272">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C272">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D272">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E272">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6901,20 +6901,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a9 o17 t17</t>
+          <t>Psi s1 to2 g1 c10 a0 o10 t10</t>
         </is>
       </c>
       <c r="B273">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C273">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D273">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E273">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6925,20 +6925,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a10 o18 t18</t>
+          <t>Psi s1 to2 g1 c10 a1 o11 t11</t>
         </is>
       </c>
       <c r="B274">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C274">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D274">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E274">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6949,20 +6949,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a11 o19 t19</t>
+          <t>Psi s1 to2 g1 c10 a2 o12 t12</t>
         </is>
       </c>
       <c r="B275">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C275">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D275">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E275">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6973,20 +6973,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a12 o20 t20</t>
+          <t>Psi s1 to2 g1 c10 a3 o13 t13</t>
         </is>
       </c>
       <c r="B276">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C276">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D276">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E276">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6997,20 +6997,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a13 o21 t21</t>
+          <t>Psi s1 to2 g1 c10 a4 o14 t14</t>
         </is>
       </c>
       <c r="B277">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C277">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D277">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E277">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -7021,20 +7021,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a14 o22 t22</t>
+          <t>Psi s1 to2 g1 c10 a5 o15 t15</t>
         </is>
       </c>
       <c r="B278">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C278">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D278">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E278">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -7045,20 +7045,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a0 o9 t9</t>
+          <t>Psi s1 to2 g1 c10 a6 o16 t16</t>
         </is>
       </c>
       <c r="B279">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C279">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D279">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E279">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -7069,20 +7069,20 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a1 o10 t10</t>
+          <t>Psi s1 to2 g1 c10 a7 o17 t17</t>
         </is>
       </c>
       <c r="B280">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C280">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D280">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E280">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -7093,20 +7093,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a2 o11 t11</t>
+          <t>Psi s1 to2 g1 c10 a8 o18 t18</t>
         </is>
       </c>
       <c r="B281">
-        <v>0.329266</v>
+        <v>0.1412991</v>
       </c>
       <c r="C281">
-        <v>0.07091989999999999</v>
+        <v>0.0510661</v>
       </c>
       <c r="D281">
-        <v>0.2073609</v>
+        <v>0.0672667</v>
       </c>
       <c r="E281">
-        <v>0.479485</v>
+        <v>0.2729653</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -7117,20 +7117,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a3 o12 t12</t>
+          <t>Psi s1 to2 g1 c10 a9 o19 t19</t>
         </is>
       </c>
       <c r="B282">
-        <v>0.2290448</v>
+        <v>0.1412991</v>
       </c>
       <c r="C282">
-        <v>0.0829925</v>
+        <v>0.0510661</v>
       </c>
       <c r="D282">
-        <v>0.1057513</v>
+        <v>0.0672667</v>
       </c>
       <c r="E282">
-        <v>0.4273843</v>
+        <v>0.2729653</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -7141,20 +7141,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a4 o13 t13</t>
+          <t>Psi s1 to2 g1 c10 a10 o20 t20</t>
         </is>
       </c>
       <c r="B283">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C283">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D283">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E283">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -7165,20 +7165,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a5 o14 t14</t>
+          <t>Psi s1 to2 g1 c10 a11 o21 t21</t>
         </is>
       </c>
       <c r="B284">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C284">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D284">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E284">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -7189,20 +7189,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a6 o15 t15</t>
+          <t>Psi s1 to2 g1 c10 a12 o22 t22</t>
         </is>
       </c>
       <c r="B285">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C285">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D285">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E285">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7213,20 +7213,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a7 o16 t16</t>
+          <t>Psi s1 to2 g1 c11 a0 o11 t11</t>
         </is>
       </c>
       <c r="B286">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C286">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D286">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E286">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -7237,20 +7237,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a8 o17 t17</t>
+          <t>Psi s1 to2 g1 c11 a1 o12 t12</t>
         </is>
       </c>
       <c r="B287">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C287">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D287">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E287">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -7261,20 +7261,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a9 o18 t18</t>
+          <t>Psi s1 to2 g1 c11 a2 o13 t13</t>
         </is>
       </c>
       <c r="B288">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C288">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D288">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E288">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7285,20 +7285,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a10 o19 t19</t>
+          <t>Psi s1 to2 g1 c11 a3 o14 t14</t>
         </is>
       </c>
       <c r="B289">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C289">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D289">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E289">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7309,20 +7309,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a11 o20 t20</t>
+          <t>Psi s1 to2 g1 c11 a4 o15 t15</t>
         </is>
       </c>
       <c r="B290">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C290">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D290">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E290">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7333,20 +7333,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a12 o21 t21</t>
+          <t>Psi s1 to2 g1 c11 a5 o16 t16</t>
         </is>
       </c>
       <c r="B291">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C291">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D291">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E291">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7357,20 +7357,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a13 o22 t22</t>
+          <t>Psi s1 to2 g1 c11 a6 o17 t17</t>
         </is>
       </c>
       <c r="B292">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C292">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D292">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E292">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7381,20 +7381,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a0 o10 t10</t>
+          <t>Psi s1 to2 g1 c11 a7 o18 t18</t>
         </is>
       </c>
       <c r="B293">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C293">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D293">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E293">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7405,20 +7405,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a1 o11 t11</t>
+          <t>Psi s1 to2 g1 c11 a8 o19 t19</t>
         </is>
       </c>
       <c r="B294">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C294">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D294">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E294">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7429,20 +7429,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a2 o12 t12</t>
+          <t>Psi s1 to2 g1 c11 a9 o20 t20</t>
         </is>
       </c>
       <c r="B295">
-        <v>0.329266</v>
+        <v>0.1412991</v>
       </c>
       <c r="C295">
-        <v>0.07091989999999999</v>
+        <v>0.0510661</v>
       </c>
       <c r="D295">
-        <v>0.2073609</v>
+        <v>0.0672667</v>
       </c>
       <c r="E295">
-        <v>0.479485</v>
+        <v>0.2729653</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7453,20 +7453,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a3 o13 t13</t>
+          <t>Psi s1 to2 g1 c11 a10 o21 t21</t>
         </is>
       </c>
       <c r="B296">
-        <v>0.2290448</v>
+        <v>0.1412991</v>
       </c>
       <c r="C296">
-        <v>0.0829925</v>
+        <v>0.0510661</v>
       </c>
       <c r="D296">
-        <v>0.1057513</v>
+        <v>0.0672667</v>
       </c>
       <c r="E296">
-        <v>0.4273843</v>
+        <v>0.2729653</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7477,20 +7477,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a4 o14 t14</t>
+          <t>Psi s1 to2 g1 c11 a11 o22 t22</t>
         </is>
       </c>
       <c r="B297">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C297">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D297">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E297">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7501,20 +7501,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a5 o15 t15</t>
+          <t>Psi s1 to2 g1 c12 a0 o12 t12</t>
         </is>
       </c>
       <c r="B298">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C298">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D298">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E298">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7525,20 +7525,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a6 o16 t16</t>
+          <t>Psi s1 to2 g1 c12 a1 o13 t13</t>
         </is>
       </c>
       <c r="B299">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C299">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D299">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E299">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7549,20 +7549,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a7 o17 t17</t>
+          <t>Psi s1 to2 g1 c12 a2 o14 t14</t>
         </is>
       </c>
       <c r="B300">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C300">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D300">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E300">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7573,20 +7573,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a8 o18 t18</t>
+          <t>Psi s1 to2 g1 c12 a3 o15 t15</t>
         </is>
       </c>
       <c r="B301">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C301">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D301">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E301">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7597,20 +7597,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a9 o19 t19</t>
+          <t>Psi s1 to2 g1 c12 a4 o16 t16</t>
         </is>
       </c>
       <c r="B302">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C302">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D302">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E302">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7621,20 +7621,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a10 o20 t20</t>
+          <t>Psi s1 to2 g1 c12 a5 o17 t17</t>
         </is>
       </c>
       <c r="B303">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C303">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D303">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E303">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7645,20 +7645,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a11 o21 t21</t>
+          <t>Psi s1 to2 g1 c12 a6 o18 t18</t>
         </is>
       </c>
       <c r="B304">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C304">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D304">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E304">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7669,20 +7669,20 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a12 o22 t22</t>
+          <t>Psi s1 to2 g1 c12 a7 o19 t19</t>
         </is>
       </c>
       <c r="B305">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C305">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D305">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E305">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7693,20 +7693,20 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a0 o11 t11</t>
+          <t>Psi s1 to2 g1 c12 a8 o20 t20</t>
         </is>
       </c>
       <c r="B306">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C306">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D306">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E306">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7717,20 +7717,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a1 o12 t12</t>
+          <t>Psi s1 to2 g1 c12 a9 o21 t21</t>
         </is>
       </c>
       <c r="B307">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C307">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D307">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E307">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7741,20 +7741,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a2 o13 t13</t>
+          <t>Psi s1 to2 g1 c12 a10 o22 t22</t>
         </is>
       </c>
       <c r="B308">
-        <v>0.329266</v>
+        <v>0.1412991</v>
       </c>
       <c r="C308">
-        <v>0.07091989999999999</v>
+        <v>0.0510661</v>
       </c>
       <c r="D308">
-        <v>0.2073609</v>
+        <v>0.0672667</v>
       </c>
       <c r="E308">
-        <v>0.479485</v>
+        <v>0.2729653</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7765,20 +7765,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a3 o14 t14</t>
+          <t>Psi s1 to2 g1 c13 a0 o13 t13</t>
         </is>
       </c>
       <c r="B309">
-        <v>0.2290448</v>
+        <v>0.165885</v>
       </c>
       <c r="C309">
-        <v>0.0829925</v>
+        <v>0.0231062</v>
       </c>
       <c r="D309">
-        <v>0.1057513</v>
+        <v>0.1253866</v>
       </c>
       <c r="E309">
-        <v>0.4273843</v>
+        <v>0.21623</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7789,20 +7789,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a4 o15 t15</t>
+          <t>Psi s1 to2 g1 c13 a1 o14 t14</t>
         </is>
       </c>
       <c r="B310">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C310">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D310">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E310">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7813,20 +7813,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a5 o16 t16</t>
+          <t>Psi s1 to2 g1 c13 a2 o15 t15</t>
         </is>
       </c>
       <c r="B311">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C311">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D311">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E311">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7837,20 +7837,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a6 o17 t17</t>
+          <t>Psi s1 to2 g1 c13 a3 o16 t16</t>
         </is>
       </c>
       <c r="B312">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C312">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D312">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E312">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7861,20 +7861,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a7 o18 t18</t>
+          <t>Psi s1 to2 g1 c13 a4 o17 t17</t>
         </is>
       </c>
       <c r="B313">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C313">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D313">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E313">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7885,20 +7885,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a8 o19 t19</t>
+          <t>Psi s1 to2 g1 c13 a5 o18 t18</t>
         </is>
       </c>
       <c r="B314">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C314">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D314">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E314">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7909,20 +7909,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a9 o20 t20</t>
+          <t>Psi s1 to2 g1 c13 a6 o19 t19</t>
         </is>
       </c>
       <c r="B315">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C315">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D315">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E315">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -7933,20 +7933,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a10 o21 t21</t>
+          <t>Psi s1 to2 g1 c13 a7 o20 t20</t>
         </is>
       </c>
       <c r="B316">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C316">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D316">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E316">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -7957,20 +7957,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a11 o22 t22</t>
+          <t>Psi s1 to2 g1 c13 a8 o21 t21</t>
         </is>
       </c>
       <c r="B317">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C317">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D317">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E317">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -7981,20 +7981,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a0 o12 t12</t>
+          <t>Psi s1 to2 g1 c13 a9 o22 t22</t>
         </is>
       </c>
       <c r="B318">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C318">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D318">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E318">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8005,20 +8005,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a1 o13 t13</t>
+          <t>Psi s1 to2 g1 c14 a0 o14 t14</t>
         </is>
       </c>
       <c r="B319">
-        <v>0.1659719</v>
+        <v>0.165885</v>
       </c>
       <c r="C319">
-        <v>0.0231377</v>
+        <v>0.0231062</v>
       </c>
       <c r="D319">
-        <v>0.1254216</v>
+        <v>0.1253866</v>
       </c>
       <c r="E319">
-        <v>0.2163888</v>
+        <v>0.21623</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8029,20 +8029,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a2 o14 t14</t>
+          <t>Psi s1 to2 g1 c14 a1 o15 t15</t>
         </is>
       </c>
       <c r="B320">
-        <v>0.329266</v>
+        <v>0.165885</v>
       </c>
       <c r="C320">
-        <v>0.07091989999999999</v>
+        <v>0.0231062</v>
       </c>
       <c r="D320">
-        <v>0.2073609</v>
+        <v>0.1253866</v>
       </c>
       <c r="E320">
-        <v>0.479485</v>
+        <v>0.21623</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -8053,20 +8053,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a3 o15 t15</t>
+          <t>Psi s1 to2 g1 c14 a2 o16 t16</t>
         </is>
       </c>
       <c r="B321">
-        <v>0.2290448</v>
+        <v>0.3304054</v>
       </c>
       <c r="C321">
-        <v>0.0829925</v>
+        <v>0.0710421</v>
       </c>
       <c r="D321">
-        <v>0.1057513</v>
+        <v>0.2082129</v>
       </c>
       <c r="E321">
-        <v>0.4273843</v>
+        <v>0.4807664</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -8077,20 +8077,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a4 o16 t16</t>
+          <t>Psi s1 to2 g1 c14 a3 o17 t17</t>
         </is>
       </c>
       <c r="B322">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C322">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D322">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E322">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -8101,20 +8101,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a5 o17 t17</t>
+          <t>Psi s1 to2 g1 c14 a4 o18 t18</t>
         </is>
       </c>
       <c r="B323">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C323">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D323">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E323">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -8125,20 +8125,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a6 o18 t18</t>
+          <t>Psi s1 to2 g1 c14 a5 o19 t19</t>
         </is>
       </c>
       <c r="B324">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C324">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D324">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E324">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -8149,20 +8149,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a7 o19 t19</t>
+          <t>Psi s1 to2 g1 c14 a6 o20 t20</t>
         </is>
       </c>
       <c r="B325">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C325">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D325">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E325">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -8173,20 +8173,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a8 o20 t20</t>
+          <t>Psi s1 to2 g1 c14 a7 o21 t21</t>
         </is>
       </c>
       <c r="B326">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C326">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D326">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E326">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -8197,20 +8197,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a9 o21 t21</t>
+          <t>Psi s1 to2 g1 c14 a8 o22 t22</t>
         </is>
       </c>
       <c r="B327">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C327">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D327">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E327">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -8221,20 +8221,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a10 o22 t22</t>
+          <t>Psi s1 to2 g1 c15 a0 o15 t15</t>
         </is>
       </c>
       <c r="B328">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C328">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D328">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E328">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -8245,20 +8245,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a0 o13 t13</t>
+          <t>Psi s1 to2 g1 c15 a1 o16 t16</t>
         </is>
       </c>
       <c r="B329">
-        <v>0.1659719</v>
+        <v>0.165885</v>
       </c>
       <c r="C329">
-        <v>0.0231377</v>
+        <v>0.0231062</v>
       </c>
       <c r="D329">
-        <v>0.1254216</v>
+        <v>0.1253866</v>
       </c>
       <c r="E329">
-        <v>0.2163888</v>
+        <v>0.21623</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -8269,20 +8269,20 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a1 o14 t14</t>
+          <t>Psi s1 to2 g1 c15 a2 o17 t17</t>
         </is>
       </c>
       <c r="B330">
-        <v>0.1659719</v>
+        <v>0.3304054</v>
       </c>
       <c r="C330">
-        <v>0.0231377</v>
+        <v>0.0710421</v>
       </c>
       <c r="D330">
-        <v>0.1254216</v>
+        <v>0.2082129</v>
       </c>
       <c r="E330">
-        <v>0.2163888</v>
+        <v>0.4807664</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -8293,20 +8293,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a2 o15 t15</t>
+          <t>Psi s1 to2 g1 c15 a3 o18 t18</t>
         </is>
       </c>
       <c r="B331">
-        <v>0.329266</v>
+        <v>0.2301326</v>
       </c>
       <c r="C331">
-        <v>0.07091989999999999</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D331">
-        <v>0.2073609</v>
+        <v>0.1062816</v>
       </c>
       <c r="E331">
-        <v>0.479485</v>
+        <v>0.4290259</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -8317,20 +8317,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a3 o16 t16</t>
+          <t>Psi s1 to2 g1 c15 a4 o19 t19</t>
         </is>
       </c>
       <c r="B332">
-        <v>0.2290448</v>
+        <v>0.1412991</v>
       </c>
       <c r="C332">
-        <v>0.0829925</v>
+        <v>0.0510661</v>
       </c>
       <c r="D332">
-        <v>0.1057513</v>
+        <v>0.0672667</v>
       </c>
       <c r="E332">
-        <v>0.4273843</v>
+        <v>0.2729653</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -8341,20 +8341,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a4 o17 t17</t>
+          <t>Psi s1 to2 g1 c15 a5 o20 t20</t>
         </is>
       </c>
       <c r="B333">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C333">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D333">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E333">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -8365,20 +8365,20 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a5 o18 t18</t>
+          <t>Psi s1 to2 g1 c15 a6 o21 t21</t>
         </is>
       </c>
       <c r="B334">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C334">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D334">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E334">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -8389,20 +8389,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a6 o19 t19</t>
+          <t>Psi s1 to2 g1 c15 a7 o22 t22</t>
         </is>
       </c>
       <c r="B335">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C335">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D335">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E335">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -8413,20 +8413,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a7 o20 t20</t>
+          <t>Psi s1 to2 g1 c16 a0 o16 t16</t>
         </is>
       </c>
       <c r="B336">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C336">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D336">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E336">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -8437,20 +8437,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a8 o21 t21</t>
+          <t>Psi s1 to2 g1 c16 a1 o17 t17</t>
         </is>
       </c>
       <c r="B337">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C337">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D337">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E337">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -8461,20 +8461,20 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a9 o22 t22</t>
+          <t>Psi s1 to2 g1 c16 a2 o18 t18</t>
         </is>
       </c>
       <c r="B338">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C338">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D338">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E338">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -8485,20 +8485,20 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a0 o14 t14</t>
+          <t>Psi s1 to2 g1 c16 a3 o19 t19</t>
         </is>
       </c>
       <c r="B339">
-        <v>0.1659719</v>
+        <v>0.2301326</v>
       </c>
       <c r="C339">
-        <v>0.0231377</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D339">
-        <v>0.1254216</v>
+        <v>0.1062816</v>
       </c>
       <c r="E339">
-        <v>0.2163888</v>
+        <v>0.4290259</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -8509,20 +8509,20 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a1 o15 t15</t>
+          <t>Psi s1 to2 g1 c16 a4 o20 t20</t>
         </is>
       </c>
       <c r="B340">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C340">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D340">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E340">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -8533,20 +8533,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a2 o16 t16</t>
+          <t>Psi s1 to2 g1 c16 a5 o21 t21</t>
         </is>
       </c>
       <c r="B341">
-        <v>0.329266</v>
+        <v>0.1412991</v>
       </c>
       <c r="C341">
-        <v>0.07091989999999999</v>
+        <v>0.0510661</v>
       </c>
       <c r="D341">
-        <v>0.2073609</v>
+        <v>0.0672667</v>
       </c>
       <c r="E341">
-        <v>0.479485</v>
+        <v>0.2729653</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -8557,20 +8557,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a3 o17 t17</t>
+          <t>Psi s1 to2 g1 c16 a6 o22 t22</t>
         </is>
       </c>
       <c r="B342">
-        <v>0.2290448</v>
+        <v>0.1412991</v>
       </c>
       <c r="C342">
-        <v>0.0829925</v>
+        <v>0.0510661</v>
       </c>
       <c r="D342">
-        <v>0.1057513</v>
+        <v>0.0672667</v>
       </c>
       <c r="E342">
-        <v>0.4273843</v>
+        <v>0.2729653</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -8581,20 +8581,20 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a4 o18 t18</t>
+          <t>Psi s1 to2 g1 c17 a0 o17 t17</t>
         </is>
       </c>
       <c r="B343">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C343">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D343">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E343">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -8605,20 +8605,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a5 o19 t19</t>
+          <t>Psi s1 to2 g1 c17 a1 o18 t18</t>
         </is>
       </c>
       <c r="B344">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C344">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D344">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E344">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -8629,20 +8629,20 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a6 o20 t20</t>
+          <t>Psi s1 to2 g1 c17 a2 o19 t19</t>
         </is>
       </c>
       <c r="B345">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C345">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D345">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E345">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -8653,20 +8653,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a7 o21 t21</t>
+          <t>Psi s1 to2 g1 c17 a3 o20 t20</t>
         </is>
       </c>
       <c r="B346">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C346">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D346">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E346">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -8677,20 +8677,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a8 o22 t22</t>
+          <t>Psi s1 to2 g1 c17 a4 o21 t21</t>
         </is>
       </c>
       <c r="B347">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C347">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D347">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E347">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -8701,20 +8701,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a0 o15 t15</t>
+          <t>Psi s1 to2 g1 c17 a5 o22 t22</t>
         </is>
       </c>
       <c r="B348">
-        <v>0.1659719</v>
+        <v>0.1412991</v>
       </c>
       <c r="C348">
-        <v>0.0231377</v>
+        <v>0.0510661</v>
       </c>
       <c r="D348">
-        <v>0.1254216</v>
+        <v>0.0672667</v>
       </c>
       <c r="E348">
-        <v>0.2163888</v>
+        <v>0.2729653</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -8725,20 +8725,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a1 o16 t16</t>
+          <t>Psi s1 to2 g1 c18 a0 o18 t18</t>
         </is>
       </c>
       <c r="B349">
-        <v>0.1659719</v>
+        <v>0.165885</v>
       </c>
       <c r="C349">
-        <v>0.0231377</v>
+        <v>0.0231062</v>
       </c>
       <c r="D349">
-        <v>0.1254216</v>
+        <v>0.1253866</v>
       </c>
       <c r="E349">
-        <v>0.2163888</v>
+        <v>0.21623</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -8749,20 +8749,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a2 o17 t17</t>
+          <t>Psi s1 to2 g1 c18 a1 o19 t19</t>
         </is>
       </c>
       <c r="B350">
-        <v>0.329266</v>
+        <v>0.165885</v>
       </c>
       <c r="C350">
-        <v>0.07091989999999999</v>
+        <v>0.0231062</v>
       </c>
       <c r="D350">
-        <v>0.2073609</v>
+        <v>0.1253866</v>
       </c>
       <c r="E350">
-        <v>0.479485</v>
+        <v>0.21623</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -8773,20 +8773,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a3 o18 t18</t>
+          <t>Psi s1 to2 g1 c18 a2 o20 t20</t>
         </is>
       </c>
       <c r="B351">
-        <v>0.2290448</v>
+        <v>0.3304054</v>
       </c>
       <c r="C351">
-        <v>0.0829925</v>
+        <v>0.0710421</v>
       </c>
       <c r="D351">
-        <v>0.1057513</v>
+        <v>0.2082129</v>
       </c>
       <c r="E351">
-        <v>0.4273843</v>
+        <v>0.4807664</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -8797,20 +8797,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a4 o19 t19</t>
+          <t>Psi s1 to2 g1 c18 a3 o21 t21</t>
         </is>
       </c>
       <c r="B352">
-        <v>0.1406787</v>
+        <v>0.2301326</v>
       </c>
       <c r="C352">
-        <v>0.0508967</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D352">
-        <v>0.06692770000000001</v>
+        <v>0.1062816</v>
       </c>
       <c r="E352">
-        <v>0.2720079</v>
+        <v>0.4290259</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -8821,20 +8821,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a5 o20 t20</t>
+          <t>Psi s1 to2 g1 c18 a4 o22 t22</t>
         </is>
       </c>
       <c r="B353">
-        <v>0.1406787</v>
+        <v>0.1412991</v>
       </c>
       <c r="C353">
-        <v>0.0508967</v>
+        <v>0.0510661</v>
       </c>
       <c r="D353">
-        <v>0.06692770000000001</v>
+        <v>0.0672667</v>
       </c>
       <c r="E353">
-        <v>0.2720079</v>
+        <v>0.2729653</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -8845,20 +8845,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a6 o21 t21</t>
+          <t>Psi s1 to2 g1 c19 a0 o19 t19</t>
         </is>
       </c>
       <c r="B354">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C354">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D354">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E354">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -8869,20 +8869,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a7 o22 t22</t>
+          <t>Psi s1 to2 g1 c19 a1 o20 t20</t>
         </is>
       </c>
       <c r="B355">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C355">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D355">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E355">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -8893,20 +8893,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a0 o16 t16</t>
+          <t>Psi s1 to2 g1 c19 a2 o21 t21</t>
         </is>
       </c>
       <c r="B356">
-        <v>0.1659719</v>
+        <v>0.3304054</v>
       </c>
       <c r="C356">
-        <v>0.0231377</v>
+        <v>0.0710421</v>
       </c>
       <c r="D356">
-        <v>0.1254216</v>
+        <v>0.2082129</v>
       </c>
       <c r="E356">
-        <v>0.2163888</v>
+        <v>0.4807664</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -8917,20 +8917,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a1 o17 t17</t>
+          <t>Psi s1 to2 g1 c19 a3 o22 t22</t>
         </is>
       </c>
       <c r="B357">
-        <v>0.1659719</v>
+        <v>0.2301326</v>
       </c>
       <c r="C357">
-        <v>0.0231377</v>
+        <v>0.08331909999999999</v>
       </c>
       <c r="D357">
-        <v>0.1254216</v>
+        <v>0.1062816</v>
       </c>
       <c r="E357">
-        <v>0.2163888</v>
+        <v>0.4290259</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -8941,20 +8941,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a2 o18 t18</t>
+          <t>Psi s1 to2 g1 c20 a0 o20 t20</t>
         </is>
       </c>
       <c r="B358">
-        <v>0.329266</v>
+        <v>0.165885</v>
       </c>
       <c r="C358">
-        <v>0.07091989999999999</v>
+        <v>0.0231062</v>
       </c>
       <c r="D358">
-        <v>0.2073609</v>
+        <v>0.1253866</v>
       </c>
       <c r="E358">
-        <v>0.479485</v>
+        <v>0.21623</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -8965,20 +8965,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a3 o19 t19</t>
+          <t>Psi s1 to2 g1 c20 a1 o21 t21</t>
         </is>
       </c>
       <c r="B359">
-        <v>0.2290448</v>
+        <v>0.165885</v>
       </c>
       <c r="C359">
-        <v>0.0829925</v>
+        <v>0.0231062</v>
       </c>
       <c r="D359">
-        <v>0.1057513</v>
+        <v>0.1253866</v>
       </c>
       <c r="E359">
-        <v>0.4273843</v>
+        <v>0.21623</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -8989,20 +8989,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a4 o20 t20</t>
+          <t>Psi s1 to2 g1 c20 a2 o22 t22</t>
         </is>
       </c>
       <c r="B360">
-        <v>0.1406787</v>
+        <v>0.3304054</v>
       </c>
       <c r="C360">
-        <v>0.0508967</v>
+        <v>0.0710421</v>
       </c>
       <c r="D360">
-        <v>0.06692770000000001</v>
+        <v>0.2082129</v>
       </c>
       <c r="E360">
-        <v>0.2720079</v>
+        <v>0.4807664</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -9013,20 +9013,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a5 o21 t21</t>
+          <t>Psi s1 to2 g1 c21 a0 o21 t21</t>
         </is>
       </c>
       <c r="B361">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C361">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D361">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E361">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -9037,20 +9037,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a6 o22 t22</t>
+          <t>Psi s1 to2 g1 c21 a1 o22 t22</t>
         </is>
       </c>
       <c r="B362">
-        <v>0.1406787</v>
+        <v>0.165885</v>
       </c>
       <c r="C362">
-        <v>0.0508967</v>
+        <v>0.0231062</v>
       </c>
       <c r="D362">
-        <v>0.06692770000000001</v>
+        <v>0.1253866</v>
       </c>
       <c r="E362">
-        <v>0.2720079</v>
+        <v>0.21623</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -9061,502 +9061,22 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a0 o17 t17</t>
+          <t>Psi s1 to2 g1 c22 a0 o22 t22</t>
         </is>
       </c>
       <c r="B363">
-        <v>0.1659719</v>
+        <v>0.165885</v>
       </c>
       <c r="C363">
-        <v>0.0231377</v>
+        <v>0.0231062</v>
       </c>
       <c r="D363">
-        <v>0.1254216</v>
+        <v>0.1253866</v>
       </c>
       <c r="E363">
-        <v>0.2163888</v>
+        <v>0.21623</v>
       </c>
       <c r="F363" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a1 o18 t18</t>
-        </is>
-      </c>
-      <c r="B364">
-        <v>0.1659719</v>
-      </c>
-      <c r="C364">
-        <v>0.0231377</v>
-      </c>
-      <c r="D364">
-        <v>0.1254216</v>
-      </c>
-      <c r="E364">
-        <v>0.2163888</v>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a2 o19 t19</t>
-        </is>
-      </c>
-      <c r="B365">
-        <v>0.329266</v>
-      </c>
-      <c r="C365">
-        <v>0.07091989999999999</v>
-      </c>
-      <c r="D365">
-        <v>0.2073609</v>
-      </c>
-      <c r="E365">
-        <v>0.479485</v>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a3 o20 t20</t>
-        </is>
-      </c>
-      <c r="B366">
-        <v>0.2290448</v>
-      </c>
-      <c r="C366">
-        <v>0.0829925</v>
-      </c>
-      <c r="D366">
-        <v>0.1057513</v>
-      </c>
-      <c r="E366">
-        <v>0.4273843</v>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a4 o21 t21</t>
-        </is>
-      </c>
-      <c r="B367">
-        <v>0.1406787</v>
-      </c>
-      <c r="C367">
-        <v>0.0508967</v>
-      </c>
-      <c r="D367">
-        <v>0.06692770000000001</v>
-      </c>
-      <c r="E367">
-        <v>0.2720079</v>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c17 a5 o22 t22</t>
-        </is>
-      </c>
-      <c r="B368">
-        <v>0.1406787</v>
-      </c>
-      <c r="C368">
-        <v>0.0508967</v>
-      </c>
-      <c r="D368">
-        <v>0.06692770000000001</v>
-      </c>
-      <c r="E368">
-        <v>0.2720079</v>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a0 o18 t18</t>
-        </is>
-      </c>
-      <c r="B369">
-        <v>0.1659719</v>
-      </c>
-      <c r="C369">
-        <v>0.0231377</v>
-      </c>
-      <c r="D369">
-        <v>0.1254216</v>
-      </c>
-      <c r="E369">
-        <v>0.2163888</v>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a1 o19 t19</t>
-        </is>
-      </c>
-      <c r="B370">
-        <v>0.1659719</v>
-      </c>
-      <c r="C370">
-        <v>0.0231377</v>
-      </c>
-      <c r="D370">
-        <v>0.1254216</v>
-      </c>
-      <c r="E370">
-        <v>0.2163888</v>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a2 o20 t20</t>
-        </is>
-      </c>
-      <c r="B371">
-        <v>0.329266</v>
-      </c>
-      <c r="C371">
-        <v>0.07091989999999999</v>
-      </c>
-      <c r="D371">
-        <v>0.2073609</v>
-      </c>
-      <c r="E371">
-        <v>0.479485</v>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a3 o21 t21</t>
-        </is>
-      </c>
-      <c r="B372">
-        <v>0.2290448</v>
-      </c>
-      <c r="C372">
-        <v>0.0829925</v>
-      </c>
-      <c r="D372">
-        <v>0.1057513</v>
-      </c>
-      <c r="E372">
-        <v>0.4273843</v>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c18 a4 o22 t22</t>
-        </is>
-      </c>
-      <c r="B373">
-        <v>0.1406787</v>
-      </c>
-      <c r="C373">
-        <v>0.0508967</v>
-      </c>
-      <c r="D373">
-        <v>0.06692770000000001</v>
-      </c>
-      <c r="E373">
-        <v>0.2720079</v>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c19 a0 o19 t19</t>
-        </is>
-      </c>
-      <c r="B374">
-        <v>0.1659719</v>
-      </c>
-      <c r="C374">
-        <v>0.0231377</v>
-      </c>
-      <c r="D374">
-        <v>0.1254216</v>
-      </c>
-      <c r="E374">
-        <v>0.2163888</v>
-      </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c19 a1 o20 t20</t>
-        </is>
-      </c>
-      <c r="B375">
-        <v>0.1659719</v>
-      </c>
-      <c r="C375">
-        <v>0.0231377</v>
-      </c>
-      <c r="D375">
-        <v>0.1254216</v>
-      </c>
-      <c r="E375">
-        <v>0.2163888</v>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c19 a2 o21 t21</t>
-        </is>
-      </c>
-      <c r="B376">
-        <v>0.329266</v>
-      </c>
-      <c r="C376">
-        <v>0.07091989999999999</v>
-      </c>
-      <c r="D376">
-        <v>0.2073609</v>
-      </c>
-      <c r="E376">
-        <v>0.479485</v>
-      </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c19 a3 o22 t22</t>
-        </is>
-      </c>
-      <c r="B377">
-        <v>0.2290448</v>
-      </c>
-      <c r="C377">
-        <v>0.0829925</v>
-      </c>
-      <c r="D377">
-        <v>0.1057513</v>
-      </c>
-      <c r="E377">
-        <v>0.4273843</v>
-      </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c20 a0 o20 t20</t>
-        </is>
-      </c>
-      <c r="B378">
-        <v>0.1659719</v>
-      </c>
-      <c r="C378">
-        <v>0.0231377</v>
-      </c>
-      <c r="D378">
-        <v>0.1254216</v>
-      </c>
-      <c r="E378">
-        <v>0.2163888</v>
-      </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c20 a1 o21 t21</t>
-        </is>
-      </c>
-      <c r="B379">
-        <v>0.1659719</v>
-      </c>
-      <c r="C379">
-        <v>0.0231377</v>
-      </c>
-      <c r="D379">
-        <v>0.1254216</v>
-      </c>
-      <c r="E379">
-        <v>0.2163888</v>
-      </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c20 a2 o22 t22</t>
-        </is>
-      </c>
-      <c r="B380">
-        <v>0.329266</v>
-      </c>
-      <c r="C380">
-        <v>0.07091989999999999</v>
-      </c>
-      <c r="D380">
-        <v>0.2073609</v>
-      </c>
-      <c r="E380">
-        <v>0.479485</v>
-      </c>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c21 a0 o21 t21</t>
-        </is>
-      </c>
-      <c r="B381">
-        <v>0.1659719</v>
-      </c>
-      <c r="C381">
-        <v>0.0231377</v>
-      </c>
-      <c r="D381">
-        <v>0.1254216</v>
-      </c>
-      <c r="E381">
-        <v>0.2163888</v>
-      </c>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c21 a1 o22 t22</t>
-        </is>
-      </c>
-      <c r="B382">
-        <v>0.1659719</v>
-      </c>
-      <c r="C382">
-        <v>0.0231377</v>
-      </c>
-      <c r="D382">
-        <v>0.1254216</v>
-      </c>
-      <c r="E382">
-        <v>0.2163888</v>
-      </c>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Psi s1 to2 g1 c22 a0 o22 t22</t>
-        </is>
-      </c>
-      <c r="B383">
-        <v>0.1659719</v>
-      </c>
-      <c r="C383">
-        <v>0.0231377</v>
-      </c>
-      <c r="D383">
-        <v>0.1254216</v>
-      </c>
-      <c r="E383">
-        <v>0.2163888</v>
-      </c>
-      <c r="F383" t="inlineStr">
         <is>
           <t xml:space="preserve">     </t>
         </is>

--- a/real_estimatesNB2.xlsx
+++ b/real_estimatesNB2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4881035</v>
+        <v>0.3896775</v>
       </c>
       <c r="C2">
-        <v>0.1984144</v>
+        <v>0.1407475</v>
       </c>
       <c r="D2">
-        <v>0.167417</v>
+        <v>0.1667832</v>
       </c>
       <c r="E2">
-        <v>0.8188915</v>
+        <v>0.6706801999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -425,16 +425,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6075714</v>
+        <v>0.8093293</v>
       </c>
       <c r="C3">
-        <v>0.2832823</v>
+        <v>0.1354617</v>
       </c>
       <c r="D3">
-        <v>0.1310614</v>
+        <v>0.4317102</v>
       </c>
       <c r="E3">
-        <v>0.9408015</v>
+        <v>0.9595421</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5618655</v>
+        <v>0.5097748</v>
       </c>
       <c r="C4">
-        <v>0.2168423</v>
+        <v>0.1843046</v>
       </c>
       <c r="D4">
-        <v>0.1857692</v>
+        <v>0.1968031</v>
       </c>
       <c r="E4">
-        <v>0.8781698</v>
+        <v>0.8152671</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.7727406</v>
+        <v>0.7243048</v>
       </c>
       <c r="C5">
-        <v>0.1255636</v>
+        <v>0.1107135</v>
       </c>
       <c r="D5">
-        <v>0.4557274</v>
+        <v>0.469843</v>
       </c>
       <c r="E5">
-        <v>0.9324695</v>
+        <v>0.8862107</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.7602403</v>
+        <v>0.7262224</v>
       </c>
       <c r="C6">
-        <v>0.1177356</v>
+        <v>0.1213331</v>
       </c>
       <c r="D6">
-        <v>0.4720264</v>
+        <v>0.4450822</v>
       </c>
       <c r="E6">
-        <v>0.9183402000000001</v>
+        <v>0.8976739</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.954778</v>
+        <v>0.9047177</v>
       </c>
       <c r="C7">
-        <v>0.0623394</v>
+        <v>0.0550888</v>
       </c>
       <c r="D7">
-        <v>0.5547854</v>
+        <v>0.7307106</v>
       </c>
       <c r="E7">
-        <v>0.9972124</v>
+        <v>0.9707823</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7154752</v>
+        <v>0.616344</v>
       </c>
       <c r="C8">
-        <v>0.1350858</v>
+        <v>0.1338248</v>
       </c>
       <c r="D8">
-        <v>0.4064899</v>
+        <v>0.3463355</v>
       </c>
       <c r="E8">
-        <v>0.9022738</v>
+        <v>0.829672</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.79532</v>
+        <v>0.7492411</v>
       </c>
       <c r="C9">
-        <v>0.1283224</v>
+        <v>0.1130125</v>
       </c>
       <c r="D9">
-        <v>0.4532001</v>
+        <v>0.4789109</v>
       </c>
       <c r="E9">
-        <v>0.9479621</v>
+        <v>0.9066622</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.7667457</v>
+        <v>0.7596706</v>
       </c>
       <c r="C10">
-        <v>0.0975065</v>
+        <v>0.08184909999999999</v>
       </c>
       <c r="D10">
-        <v>0.5303233000000001</v>
+        <v>0.567628</v>
       </c>
       <c r="E10">
-        <v>0.9053906</v>
+        <v>0.8838669</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.8428328</v>
+        <v>0.8202621</v>
       </c>
       <c r="C11">
-        <v>0.07242460000000001</v>
+        <v>0.0651953</v>
       </c>
       <c r="D11">
-        <v>0.6474488</v>
+        <v>0.6573263</v>
       </c>
       <c r="E11">
-        <v>0.9399739</v>
+        <v>0.9156644</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.9125621</v>
+        <v>0.8414043</v>
       </c>
       <c r="C12">
-        <v>0.0637959</v>
+        <v>0.06897730000000001</v>
       </c>
       <c r="D12">
-        <v>0.6853059</v>
+        <v>0.6582673</v>
       </c>
       <c r="E12">
-        <v>0.9803992</v>
+        <v>0.9359468</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.7605725</v>
+        <v>0.7109207</v>
       </c>
       <c r="C13">
-        <v>0.1041705</v>
+        <v>0.09485499999999999</v>
       </c>
       <c r="D13">
-        <v>0.5086524</v>
+        <v>0.4988037</v>
       </c>
       <c r="E13">
-        <v>0.9069566</v>
+        <v>0.8586964</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.8153623</v>
+        <v>0.7819143</v>
       </c>
       <c r="C14">
-        <v>0.0917221</v>
+        <v>0.08050640000000001</v>
       </c>
       <c r="D14">
-        <v>0.5722621</v>
+        <v>0.5869858999999999</v>
       </c>
       <c r="E14">
-        <v>0.9357993</v>
+        <v>0.9004465</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -713,16 +713,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.8896636999999999</v>
+        <v>0.8344622</v>
       </c>
       <c r="C15">
-        <v>0.0594892</v>
+        <v>0.0576769</v>
       </c>
       <c r="D15">
-        <v>0.7108451</v>
+        <v>0.6898052</v>
       </c>
       <c r="E15">
-        <v>0.9635657</v>
+        <v>0.9195291</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.8642954</v>
+        <v>0.8370942</v>
       </c>
       <c r="C16">
-        <v>0.0678848</v>
+        <v>0.0614093</v>
       </c>
       <c r="D16">
-        <v>0.6719503999999999</v>
+        <v>0.6800786</v>
       </c>
       <c r="E16">
-        <v>0.9519307</v>
+        <v>0.9254904</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.7857049</v>
+        <v>0.702377</v>
       </c>
       <c r="C17">
-        <v>0.09277340000000001</v>
+        <v>0.0866237</v>
       </c>
       <c r="D17">
-        <v>0.554598</v>
+        <v>0.5116117999999999</v>
       </c>
       <c r="E17">
-        <v>0.9152265000000001</v>
+        <v>0.8416865</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.8648683</v>
+        <v>0.8454604999999999</v>
       </c>
       <c r="C18">
-        <v>0.0757332</v>
+        <v>0.0653387</v>
       </c>
       <c r="D18">
-        <v>0.6425011</v>
+        <v>0.6724481</v>
       </c>
       <c r="E18">
-        <v>0.9579695</v>
+        <v>0.9358112</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.8292951</v>
+        <v>0.7677832</v>
       </c>
       <c r="C19">
-        <v>0.1025616</v>
+        <v>0.1020633</v>
       </c>
       <c r="D19">
-        <v>0.5400758</v>
+        <v>0.5184503</v>
       </c>
       <c r="E19">
-        <v>0.9526026</v>
+        <v>0.9103436</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.8087214</v>
+        <v>0.6942963</v>
       </c>
       <c r="C20">
-        <v>0.1163504</v>
+        <v>0.1288054</v>
       </c>
       <c r="D20">
-        <v>0.4918796</v>
+        <v>0.4087432</v>
       </c>
       <c r="E20">
-        <v>0.9486284</v>
+        <v>0.8818147</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.4762157</v>
+        <v>0.4364888</v>
       </c>
       <c r="C21">
-        <v>0.1608937</v>
+        <v>0.1465196</v>
       </c>
       <c r="D21">
-        <v>0.2043254</v>
+        <v>0.1941953</v>
       </c>
       <c r="E21">
-        <v>0.7629747</v>
+        <v>0.7134353</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.8889172</v>
+        <v>0.8468728</v>
       </c>
       <c r="C22">
-        <v>0.1337939</v>
+        <v>0.1493421</v>
       </c>
       <c r="D22">
-        <v>0.3598527</v>
+        <v>0.3665824</v>
       </c>
       <c r="E22">
-        <v>0.991298</v>
+        <v>0.9814301</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.0460096</v>
+        <v>0.0405067</v>
       </c>
       <c r="C23">
-        <v>0.0470792</v>
+        <v>0.0419697</v>
       </c>
       <c r="D23">
-        <v>0.0058579</v>
+        <v>0.0050593</v>
       </c>
       <c r="E23">
-        <v>0.283024</v>
+        <v>0.2595294</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -925,20 +925,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S s1 g1 c2 a1 o3 t3</t>
+          <t>S s1 g1 c2 a0 o2 t2</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.204061</v>
+        <v>0.4033242</v>
       </c>
       <c r="C24">
-        <v>0.134021</v>
+        <v>0.2108263</v>
       </c>
       <c r="D24">
-        <v>0.0484114</v>
+        <v>0.1082537</v>
       </c>
       <c r="E24">
-        <v>0.5636996</v>
+        <v>0.7900849</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -949,20 +949,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S s1 g1 c3 a1 o4 t4</t>
+          <t>S s1 g1 c3 a0 o3 t3</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.4046832</v>
+        <v>0.1420718</v>
       </c>
       <c r="C25">
-        <v>0.1533125</v>
+        <v>0.0905511</v>
       </c>
       <c r="D25">
-        <v>0.1633805</v>
+        <v>0.0371732</v>
       </c>
       <c r="E25">
-        <v>0.7029341</v>
+        <v>0.4153023</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -973,20 +973,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S s1 g1 c4 a1 o5 t5</t>
+          <t>S s1 g1 c4 a0 o4 t4</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.3879725</v>
+        <v>0.2949682</v>
       </c>
       <c r="C26">
-        <v>0.1362707</v>
+        <v>0.1087105</v>
       </c>
       <c r="D26">
-        <v>0.1707003</v>
+        <v>0.1305675</v>
       </c>
       <c r="E26">
-        <v>0.6612763</v>
+        <v>0.5382252</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -997,20 +997,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S s1 g1 c5 a1 o6 t6</t>
+          <t>S s1 g1 c5 a0 o5 t5</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.8084633</v>
+        <v>0.2969736</v>
       </c>
       <c r="C27">
-        <v>0.2276677</v>
+        <v>0.1231864</v>
       </c>
       <c r="D27">
-        <v>0.1912946</v>
+        <v>0.1173044</v>
       </c>
       <c r="E27">
-        <v>0.9868971</v>
+        <v>0.5731477</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1021,20 +1021,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S s1 g1 c6 a1 o7 t7</t>
+          <t>S s1 g1 c6 a0 o6 t6</t>
         </is>
       </c>
       <c r="B28">
-        <v>0.3345419</v>
+        <v>0.6019238</v>
       </c>
       <c r="C28">
-        <v>0.1259924</v>
+        <v>0.1610849</v>
       </c>
       <c r="D28">
-        <v>0.1422211</v>
+        <v>0.288194</v>
       </c>
       <c r="E28">
-        <v>0.6038508</v>
+        <v>0.849559</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1045,20 +1045,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S s1 g1 c7 a1 o8 t8</t>
+          <t>S s1 g1 c7 a0 o7 t7</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.4371976</v>
+        <v>0.2037154</v>
       </c>
       <c r="C29">
-        <v>0.1807275</v>
+        <v>0.0896074</v>
       </c>
       <c r="D29">
-        <v>0.1554921</v>
+        <v>0.0797366</v>
       </c>
       <c r="E29">
-        <v>0.766217</v>
+        <v>0.430323</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1069,20 +1069,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S s1 g1 c8 a1 o9 t9</t>
+          <t>S s1 g1 c8 a0 o8 t8</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.3965612</v>
+        <v>0.322409</v>
       </c>
       <c r="C30">
-        <v>0.0989611</v>
+        <v>0.1282748</v>
       </c>
       <c r="D30">
-        <v>0.2261186</v>
+        <v>0.1308365</v>
       </c>
       <c r="E30">
-        <v>0.5964585</v>
+        <v>0.6006412</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1093,20 +1093,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S s1 g1 c9 a1 o10 t10</t>
+          <t>S s1 g1 c9 a0 o9 t9</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.5173975</v>
+        <v>0.3348306</v>
       </c>
       <c r="C31">
-        <v>0.1128493</v>
+        <v>0.0836023</v>
       </c>
       <c r="D31">
-        <v>0.3065724</v>
+        <v>0.1943256</v>
       </c>
       <c r="E31">
-        <v>0.7222057</v>
+        <v>0.5123251</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1117,20 +1117,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S s1 g1 c10 a1 o11 t11</t>
+          <t>S s1 g1 c10 a0 o10 t10</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.6760083</v>
+        <v>0.4208786</v>
       </c>
       <c r="C32">
-        <v>0.1683154</v>
+        <v>0.0972857</v>
       </c>
       <c r="D32">
-        <v>0.3163165</v>
+        <v>0.2494632</v>
       </c>
       <c r="E32">
-        <v>0.9039345</v>
+        <v>0.6137591999999999</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1141,20 +1141,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S s1 g1 c11 a1 o12 t12</t>
+          <t>S s1 g1 c11 a0 o11 t11</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.3884056</v>
+        <v>0.457955</v>
       </c>
       <c r="C33">
-        <v>0.1201941</v>
+        <v>0.129996</v>
       </c>
       <c r="D33">
-        <v>0.1906578</v>
+        <v>0.232365</v>
       </c>
       <c r="E33">
-        <v>0.631278</v>
+        <v>0.7022111</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1165,20 +1165,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S s1 g1 c12 a1 o13 t13</t>
+          <t>S s1 g1 c12 a0 o12 t12</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.4688894</v>
+        <v>0.2814194</v>
       </c>
       <c r="C34">
-        <v>0.1229794</v>
+        <v>0.09373040000000001</v>
       </c>
       <c r="D34">
-        <v>0.2511461</v>
+        <v>0.1363556</v>
       </c>
       <c r="E34">
-        <v>0.6991602</v>
+        <v>0.4927583</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1189,20 +1189,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S s1 g1 c13 a1 o14 t14</t>
+          <t>S s1 g1 c13 a0 o13 t13</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.6171504</v>
+        <v>0.3634469</v>
       </c>
       <c r="C35">
-        <v>0.1335842</v>
+        <v>0.0997999</v>
       </c>
       <c r="D35">
-        <v>0.3473603</v>
+        <v>0.196877</v>
       </c>
       <c r="E35">
-        <v>0.8299967</v>
+        <v>0.5707863</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1213,20 +1213,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S s1 g1 c14 a1 o15 t15</t>
+          <t>S s1 g1 c14 a0 o14 t14</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.5601062999999999</v>
+        <v>0.4452939</v>
       </c>
       <c r="C36">
-        <v>0.1265925</v>
+        <v>0.1014657</v>
       </c>
       <c r="D36">
-        <v>0.3174653</v>
+        <v>0.264087</v>
       </c>
       <c r="E36">
-        <v>0.7770629</v>
+        <v>0.6423148</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1237,20 +1237,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S s1 g1 c15 a1 o16 t16</t>
+          <t>S s1 g1 c15 a0 o15 t15</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.4229651</v>
+        <v>0.4500355</v>
       </c>
       <c r="C37">
-        <v>0.1104048</v>
+        <v>0.107861</v>
       </c>
       <c r="D37">
-        <v>0.2319678</v>
+        <v>0.2583261</v>
       </c>
       <c r="E37">
-        <v>0.6401481</v>
+        <v>0.6578286</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1261,20 +1261,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S s1 g1 c16 a1 o17 t17</t>
+          <t>S s1 g1 c16 a0 o16 t16</t>
         </is>
       </c>
       <c r="B38">
-        <v>0.5613118</v>
+        <v>0.27316</v>
       </c>
       <c r="C38">
-        <v>0.1557939</v>
+        <v>0.0825444</v>
       </c>
       <c r="D38">
-        <v>0.2702049</v>
+        <v>0.1426419</v>
       </c>
       <c r="E38">
-        <v>0.8155611</v>
+        <v>0.4591464</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1285,20 +1285,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S s1 g1 c17 a1 o18 t18</t>
+          <t>S s1 g1 c17 a0 o17 t17</t>
         </is>
       </c>
       <c r="B39">
-        <v>0.4927004</v>
+        <v>0.4655895</v>
       </c>
       <c r="C39">
-        <v>0.1636303</v>
+        <v>0.12701</v>
       </c>
       <c r="D39">
-        <v>0.2120962</v>
+        <v>0.2426222</v>
       </c>
       <c r="E39">
-        <v>0.7779802</v>
+        <v>0.7032113</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1309,20 +1309,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S s1 g1 c18 a1 o19 t19</t>
+          <t>S s1 g1 c18 a0 o18 t18</t>
         </is>
       </c>
       <c r="B40">
-        <v>0.4580695</v>
+        <v>0.3449176</v>
       </c>
       <c r="C40">
-        <v>0.1789875</v>
+        <v>0.1264391</v>
       </c>
       <c r="D40">
-        <v>0.170609</v>
+        <v>0.149535</v>
       </c>
       <c r="E40">
-        <v>0.7764477</v>
+        <v>0.6119084</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1333,20 +1333,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S s1 g1 c19 a1 o20 t20</t>
+          <t>S s1 g1 c19 a0 o19 t19</t>
         </is>
       </c>
       <c r="B41">
-        <v>0.1538069</v>
+        <v>0.2656104</v>
       </c>
       <c r="C41">
-        <v>0.0752346</v>
+        <v>0.1230021</v>
       </c>
       <c r="D41">
-        <v>0.0553026</v>
+        <v>0.0950955</v>
       </c>
       <c r="E41">
-        <v>0.3607631</v>
+        <v>0.5545149</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1357,20 +1357,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S s1 g1 c20 a1 o21 t21</t>
+          <t>S s1 g1 c20 a0 o20 t20</t>
         </is>
       </c>
       <c r="B42">
-        <v>0.6153573</v>
+        <v>0.1098068</v>
       </c>
       <c r="C42">
-        <v>0.3230525</v>
+        <v>0.0563175</v>
       </c>
       <c r="D42">
-        <v>0.0992811</v>
+        <v>0.0383478</v>
       </c>
       <c r="E42">
-        <v>0.9587118</v>
+        <v>0.2761826</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1381,20 +1381,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S s1 g1 c21 a1 o22 t22</t>
+          <t>S s1 g1 c21 a0 o21 t21</t>
         </is>
       </c>
       <c r="B43">
-        <v>0.009549800000000001</v>
+        <v>0.4682902</v>
       </c>
       <c r="C43">
-        <v>0.0099349</v>
+        <v>0.2921364</v>
       </c>
       <c r="D43">
-        <v>0.001229</v>
+        <v>0.0811661</v>
       </c>
       <c r="E43">
-        <v>0.070245</v>
+        <v>0.8977608</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1405,20 +1405,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a0 o1 t1</t>
+          <t>S s1 g1 c22 a0 o22 t22</t>
         </is>
       </c>
       <c r="B44">
-        <v>0.9698086</v>
+        <v>0.006678</v>
       </c>
       <c r="C44">
-        <v>0.1058589</v>
+        <v>0.007149</v>
       </c>
       <c r="D44">
-        <v>0.0261686</v>
+        <v>0.0008125122</v>
       </c>
       <c r="E44">
-        <v>0.999974</v>
+        <v>0.0526556</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1429,20 +1429,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a1 o2 t2</t>
+          <t>S s2 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B45">
-        <v>0.8860886</v>
+        <v>0.9641863000000001</v>
       </c>
       <c r="C45">
-        <v>0.1213775</v>
+        <v>0.1029264</v>
       </c>
       <c r="D45">
-        <v>0.424201</v>
+        <v>0.07248060000000001</v>
       </c>
       <c r="E45">
-        <v>0.9879711</v>
+        <v>0.9998922</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1453,20 +1453,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a2 o3 t3</t>
+          <t>S s2 g1 c1 a1 o2 t2</t>
         </is>
       </c>
       <c r="B46">
-        <v>0.7812443</v>
+        <v>0.8822416</v>
       </c>
       <c r="C46">
-        <v>0.1020262</v>
+        <v>0.118823</v>
       </c>
       <c r="D46">
-        <v>0.5256863000000001</v>
+        <v>0.4432784</v>
       </c>
       <c r="E46">
-        <v>0.9200501</v>
+        <v>0.9860128</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1477,20 +1477,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a3 o4 t4</t>
+          <t>S s2 g1 c1 a2 o3 t3</t>
         </is>
       </c>
       <c r="B47">
-        <v>0.9634917</v>
+        <v>0.7772989</v>
       </c>
       <c r="C47">
-        <v>0.07976949999999999</v>
+        <v>0.102858</v>
       </c>
       <c r="D47">
-        <v>0.236531</v>
+        <v>0.521331</v>
       </c>
       <c r="E47">
-        <v>0.9995554</v>
+        <v>0.9179348000000001</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1501,20 +1501,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a4 o5 t5</t>
+          <t>S s2 g1 c1 a3 o4 t4</t>
         </is>
       </c>
       <c r="B48">
-        <v>0.7919922</v>
+        <v>0.9602046</v>
       </c>
       <c r="C48">
-        <v>0.1014673</v>
+        <v>0.0787799</v>
       </c>
       <c r="D48">
-        <v>0.5323969</v>
+        <v>0.2978664</v>
       </c>
       <c r="E48">
-        <v>0.9271817</v>
+        <v>0.9992718</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1525,20 +1525,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a5 o6 t6</t>
+          <t>S s2 g1 c1 a4 o5 t5</t>
         </is>
       </c>
       <c r="B49">
-        <v>0.8848181000000001</v>
+        <v>0.7958296</v>
       </c>
       <c r="C49">
-        <v>0.0860247</v>
+        <v>0.1014851</v>
       </c>
       <c r="D49">
-        <v>0.5949503</v>
+        <v>0.5340097</v>
       </c>
       <c r="E49">
-        <v>0.975714</v>
+        <v>0.9298646</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1549,20 +1549,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a6 o7 t7</t>
+          <t>S s2 g1 c1 a5 o6 t6</t>
         </is>
       </c>
       <c r="B50">
-        <v>0.8573892</v>
+        <v>0.8754044</v>
       </c>
       <c r="C50">
-        <v>0.0701483</v>
+        <v>0.0876744</v>
       </c>
       <c r="D50">
-        <v>0.6613501000000001</v>
+        <v>0.5924532</v>
       </c>
       <c r="E50">
-        <v>0.9487402</v>
+        <v>0.9713938</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1573,20 +1573,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a7 o8 t8</t>
+          <t>S s2 g1 c1 a6 o7 t7</t>
         </is>
       </c>
       <c r="B51">
-        <v>0.8682048999999999</v>
+        <v>0.8563851</v>
       </c>
       <c r="C51">
-        <v>0.0817582</v>
+        <v>0.06972540000000001</v>
       </c>
       <c r="D51">
-        <v>0.6188653</v>
+        <v>0.6624921</v>
       </c>
       <c r="E51">
-        <v>0.9639323</v>
+        <v>0.9476855</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1597,20 +1597,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a8 o9 t9</t>
+          <t>S s2 g1 c1 a7 o8 t8</t>
         </is>
       </c>
       <c r="B52">
-        <v>0.8455996</v>
+        <v>0.8667922</v>
       </c>
       <c r="C52">
-        <v>0.07401290000000001</v>
+        <v>0.08217679999999999</v>
       </c>
       <c r="D52">
-        <v>0.6432283</v>
+        <v>0.6172595</v>
       </c>
       <c r="E52">
-        <v>0.9432989000000001</v>
+        <v>0.9633091</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1621,20 +1621,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a9 o10 t10</t>
+          <t>S s2 g1 c1 a8 o9 t9</t>
         </is>
       </c>
       <c r="B53">
-        <v>0.9300797</v>
+        <v>0.8421391</v>
       </c>
       <c r="C53">
-        <v>0.0487981</v>
+        <v>0.0753327</v>
       </c>
       <c r="D53">
-        <v>0.7534647</v>
+        <v>0.6372785</v>
       </c>
       <c r="E53">
-        <v>0.983021</v>
+        <v>0.9418539</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1645,20 +1645,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a10 o11 t11</t>
+          <t>S s2 g1 c1 a9 o10 t10</t>
         </is>
       </c>
       <c r="B54">
-        <v>0.789811</v>
+        <v>0.9308406</v>
       </c>
       <c r="C54">
-        <v>0.0595567</v>
+        <v>0.0489488</v>
       </c>
       <c r="D54">
-        <v>0.6503612</v>
+        <v>0.7520137</v>
       </c>
       <c r="E54">
-        <v>0.8835973</v>
+        <v>0.9835358</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1669,20 +1669,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a11 o12 t12</t>
+          <t>S s2 g1 c1 a10 o11 t11</t>
         </is>
       </c>
       <c r="B55">
-        <v>0.9499063</v>
+        <v>0.7866839</v>
       </c>
       <c r="C55">
-        <v>0.0399227</v>
+        <v>0.0600276</v>
       </c>
       <c r="D55">
-        <v>0.7855064</v>
+        <v>0.6465587</v>
       </c>
       <c r="E55">
-        <v>0.9899182</v>
+        <v>0.8814419</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1693,20 +1693,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a12 o13 t13</t>
+          <t>S s2 g1 c1 a11 o12 t12</t>
         </is>
       </c>
       <c r="B56">
-        <v>0.8834397</v>
+        <v>0.949738</v>
       </c>
       <c r="C56">
-        <v>0.0542998</v>
+        <v>0.040037</v>
       </c>
       <c r="D56">
-        <v>0.7294581999999999</v>
+        <v>0.7849992</v>
       </c>
       <c r="E56">
-        <v>0.9551674999999999</v>
+        <v>0.9898776</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1717,20 +1717,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a13 o14 t14</t>
+          <t>S s2 g1 c1 a12 o13 t13</t>
         </is>
       </c>
       <c r="B57">
-        <v>0.8484071</v>
+        <v>0.8844843999999999</v>
       </c>
       <c r="C57">
-        <v>0.0603988</v>
+        <v>0.0541036</v>
       </c>
       <c r="D57">
-        <v>0.6903399</v>
+        <v>0.7306077</v>
       </c>
       <c r="E57">
-        <v>0.9335544</v>
+        <v>0.9557859</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1741,20 +1741,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a14 o15 t15</t>
+          <t>S s2 g1 c1 a13 o14 t14</t>
         </is>
       </c>
       <c r="B58">
-        <v>0.9327605</v>
+        <v>0.8482873</v>
       </c>
       <c r="C58">
-        <v>0.0539251</v>
+        <v>0.0600047</v>
       </c>
       <c r="D58">
-        <v>0.7200445</v>
+        <v>0.6915504</v>
       </c>
       <c r="E58">
-        <v>0.986811</v>
+        <v>0.9330857</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1765,20 +1765,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a15 o16 t16</t>
+          <t>S s2 g1 c1 a14 o15 t15</t>
         </is>
       </c>
       <c r="B59">
-        <v>0.821959</v>
+        <v>0.9333576</v>
       </c>
       <c r="C59">
-        <v>0.0613699</v>
+        <v>0.0537858</v>
       </c>
       <c r="D59">
-        <v>0.6699004</v>
+        <v>0.7200322</v>
       </c>
       <c r="E59">
-        <v>0.9130628</v>
+        <v>0.9870583000000001</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1789,20 +1789,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a16 o17 t17</t>
+          <t>S s2 g1 c1 a15 o16 t16</t>
         </is>
       </c>
       <c r="B60">
-        <v>0.8177809</v>
+        <v>0.817443</v>
       </c>
       <c r="C60">
-        <v>0.06409040000000001</v>
+        <v>0.0620517</v>
       </c>
       <c r="D60">
-        <v>0.6589015</v>
+        <v>0.6646590999999999</v>
       </c>
       <c r="E60">
-        <v>0.9124854</v>
+        <v>0.910039</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1813,20 +1813,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a17 o18 t18</t>
+          <t>S s2 g1 c1 a16 o17 t17</t>
         </is>
       </c>
       <c r="B61">
-        <v>0.7881535</v>
+        <v>0.8186287</v>
       </c>
       <c r="C61">
-        <v>0.0747308</v>
+        <v>0.0638358</v>
       </c>
       <c r="D61">
-        <v>0.6074438</v>
+        <v>0.6602481</v>
       </c>
       <c r="E61">
-        <v>0.8994458</v>
+        <v>0.9129158000000001</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1837,20 +1837,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a18 o19 t19</t>
+          <t>S s2 g1 c1 a17 o18 t18</t>
         </is>
       </c>
       <c r="B62">
-        <v>0.7593246</v>
+        <v>0.7893926999999999</v>
       </c>
       <c r="C62">
-        <v>0.0785526</v>
+        <v>0.0743224</v>
       </c>
       <c r="D62">
-        <v>0.5760318</v>
+        <v>0.6094631</v>
       </c>
       <c r="E62">
-        <v>0.8798971</v>
+        <v>0.9000231</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1861,20 +1861,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a19 o20 t20</t>
+          <t>S s2 g1 c1 a18 o19 t19</t>
         </is>
       </c>
       <c r="B63">
-        <v>0.8677991</v>
+        <v>0.7587601</v>
       </c>
       <c r="C63">
-        <v>0.0664608</v>
+        <v>0.077741</v>
       </c>
       <c r="D63">
-        <v>0.6783473</v>
+        <v>0.5777282</v>
       </c>
       <c r="E63">
-        <v>0.9533402</v>
+        <v>0.8785034</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1885,20 +1885,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a20 o21 t21</t>
+          <t>S s2 g1 c1 a19 o20 t20</t>
         </is>
       </c>
       <c r="B64">
-        <v>0.8853934</v>
+        <v>0.8692708</v>
       </c>
       <c r="C64">
-        <v>0.1199779</v>
+        <v>0.0654269</v>
       </c>
       <c r="D64">
-        <v>0.4321884</v>
+        <v>0.6826703</v>
       </c>
       <c r="E64">
-        <v>0.9874075</v>
+        <v>0.9536017</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1909,20 +1909,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S s2 g1 c1 a21 o22 t22</t>
+          <t>S s2 g1 c1 a20 o21 t21</t>
         </is>
       </c>
       <c r="B65">
-        <v>0.3525013</v>
+        <v>0.8794921</v>
       </c>
       <c r="C65">
-        <v>0.0802983</v>
+        <v>0.1169327</v>
       </c>
       <c r="D65">
-        <v>0.2145679</v>
+        <v>0.4564075</v>
       </c>
       <c r="E65">
-        <v>0.5203594</v>
+        <v>0.9844813</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1933,20 +1933,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a1 o1 t2</t>
+          <t>S s2 g1 c1 a21 o22 t22</t>
         </is>
       </c>
       <c r="B66">
-        <v>0.08106289999999999</v>
+        <v>0.3558577</v>
       </c>
       <c r="C66">
-        <v>0.044259</v>
+        <v>0.0801491</v>
       </c>
       <c r="D66">
-        <v>0.0267914</v>
+        <v>0.2177693</v>
       </c>
       <c r="E66">
-        <v>0.2203781</v>
+        <v>0.522968</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1957,20 +1957,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a2 o2 t3</t>
+          <t>p s1 g1 c1 a1 o1 t2</t>
         </is>
       </c>
       <c r="B67">
-        <v>0.130919</v>
+        <v>0.1059229</v>
       </c>
       <c r="C67">
-        <v>0.0639402</v>
+        <v>0.0563448</v>
       </c>
       <c r="D67">
-        <v>0.0476834</v>
+        <v>0.0355985</v>
       </c>
       <c r="E67">
-        <v>0.3118677</v>
+        <v>0.2754877</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1981,20 +1981,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a3 o3 t4</t>
+          <t>p s1 g1 c1 a2 o2 t3</t>
         </is>
       </c>
       <c r="B68">
-        <v>0.0605661</v>
+        <v>0.1694723</v>
       </c>
       <c r="C68">
-        <v>0.0276076</v>
+        <v>0.07919030000000001</v>
       </c>
       <c r="D68">
-        <v>0.0243028</v>
+        <v>0.0634402</v>
       </c>
       <c r="E68">
-        <v>0.1430083</v>
+        <v>0.3806885</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2005,20 +2005,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a4 o4 t5</t>
+          <t>p s1 g1 c1 a3 o3 t4</t>
         </is>
       </c>
       <c r="B69">
-        <v>0.2147197</v>
+        <v>0.07221370000000001</v>
       </c>
       <c r="C69">
-        <v>0.0865316</v>
+        <v>0.0326738</v>
       </c>
       <c r="D69">
-        <v>0.0909112</v>
+        <v>0.0290568</v>
       </c>
       <c r="E69">
-        <v>0.4277946</v>
+        <v>0.1683557</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2029,20 +2029,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a5 o5 t6</t>
+          <t>p s1 g1 c1 a4 o4 t5</t>
         </is>
       </c>
       <c r="B70">
-        <v>0.06911109999999999</v>
+        <v>0.2610367</v>
       </c>
       <c r="C70">
-        <v>0.0297466</v>
+        <v>0.0985863</v>
       </c>
       <c r="D70">
-        <v>0.0291229</v>
+        <v>0.1148316</v>
       </c>
       <c r="E70">
-        <v>0.1552276</v>
+        <v>0.4902855</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2053,20 +2053,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a6 o6 t7</t>
+          <t>p s1 g1 c1 a5 o5 t6</t>
         </is>
       </c>
       <c r="B71">
-        <v>0.1456178</v>
+        <v>0.0803406</v>
       </c>
       <c r="C71">
-        <v>0.0491349</v>
+        <v>0.0340377</v>
       </c>
       <c r="D71">
-        <v>0.0728669</v>
+        <v>0.0342024</v>
       </c>
       <c r="E71">
-        <v>0.2698617</v>
+        <v>0.1772928</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2077,20 +2077,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a7 o7 t8</t>
+          <t>p s1 g1 c1 a6 o6 t7</t>
         </is>
       </c>
       <c r="B72">
-        <v>0.1782713</v>
+        <v>0.1880235</v>
       </c>
       <c r="C72">
-        <v>0.0614593</v>
+        <v>0.0609075</v>
       </c>
       <c r="D72">
-        <v>0.08703320000000001</v>
+        <v>0.0957954</v>
       </c>
       <c r="E72">
-        <v>0.3305281</v>
+        <v>0.3360452</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2101,20 +2101,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a8 o8 t9</t>
+          <t>p s1 g1 c1 a7 o7 t8</t>
         </is>
       </c>
       <c r="B73">
-        <v>0.0375143</v>
+        <v>0.2127315</v>
       </c>
       <c r="C73">
-        <v>0.0132806</v>
+        <v>0.0701263</v>
       </c>
       <c r="D73">
-        <v>0.018602</v>
+        <v>0.1062876</v>
       </c>
       <c r="E73">
-        <v>0.0742008</v>
+        <v>0.380402</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2125,20 +2125,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a9 o9 t10</t>
+          <t>p s1 g1 c1 a8 o8 t9</t>
         </is>
       </c>
       <c r="B74">
-        <v>0.4055704</v>
+        <v>0.0456641</v>
       </c>
       <c r="C74">
-        <v>0.100829</v>
+        <v>0.0162199</v>
       </c>
       <c r="D74">
-        <v>0.2311115</v>
+        <v>0.0225501</v>
       </c>
       <c r="E74">
-        <v>0.6076464</v>
+        <v>0.0902819</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2149,20 +2149,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a10 o10 t11</t>
+          <t>p s1 g1 c1 a9 o9 t10</t>
         </is>
       </c>
       <c r="B75">
-        <v>0.1972267</v>
+        <v>0.4514795</v>
       </c>
       <c r="C75">
-        <v>0.0555915</v>
+        <v>0.1027962</v>
       </c>
       <c r="D75">
-        <v>0.1098862</v>
+        <v>0.2673169</v>
       </c>
       <c r="E75">
-        <v>0.3283774</v>
+        <v>0.6499658</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2173,20 +2173,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a11 o11 t12</t>
+          <t>p s1 g1 c1 a10 o10 t11</t>
         </is>
       </c>
       <c r="B76">
-        <v>0.1969718</v>
+        <v>0.2214325</v>
       </c>
       <c r="C76">
-        <v>0.0537565</v>
+        <v>0.0593393</v>
       </c>
       <c r="D76">
-        <v>0.111903</v>
+        <v>0.1265338</v>
       </c>
       <c r="E76">
-        <v>0.3231769</v>
+        <v>0.358308</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2197,20 +2197,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a12 o12 t13</t>
+          <t>p s1 g1 c1 a11 o11 t12</t>
         </is>
       </c>
       <c r="B77">
-        <v>0.1846811</v>
+        <v>0.2351079</v>
       </c>
       <c r="C77">
-        <v>0.0511831</v>
+        <v>0.061071</v>
       </c>
       <c r="D77">
-        <v>0.1042198</v>
+        <v>0.1364249</v>
       </c>
       <c r="E77">
-        <v>0.3060386</v>
+        <v>0.374239</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2221,20 +2221,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a13 o13 t14</t>
+          <t>p s1 g1 c1 a12 o12 t13</t>
         </is>
       </c>
       <c r="B78">
-        <v>0.1458879</v>
+        <v>0.2089726</v>
       </c>
       <c r="C78">
-        <v>0.040956</v>
+        <v>0.056188</v>
       </c>
       <c r="D78">
-        <v>0.0823035</v>
+        <v>0.1194813</v>
       </c>
       <c r="E78">
-        <v>0.245456</v>
+        <v>0.339638</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2245,20 +2245,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a14 o14 t15</t>
+          <t>p s1 g1 c1 a13 o13 t14</t>
         </is>
       </c>
       <c r="B79">
-        <v>0.1183024</v>
+        <v>0.1652708</v>
       </c>
       <c r="C79">
-        <v>0.0321847</v>
+        <v>0.0452611</v>
       </c>
       <c r="D79">
-        <v>0.06828239999999999</v>
+        <v>0.0942712</v>
       </c>
       <c r="E79">
-        <v>0.1972086</v>
+        <v>0.2735909</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2269,20 +2269,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a15 o15 t16</t>
+          <t>p s1 g1 c1 a14 o14 t15</t>
         </is>
       </c>
       <c r="B80">
-        <v>0.1384446</v>
+        <v>0.1409407</v>
       </c>
       <c r="C80">
-        <v>0.0367751</v>
+        <v>0.0375689</v>
       </c>
       <c r="D80">
-        <v>0.08072269999999999</v>
+        <v>0.08198569999999999</v>
       </c>
       <c r="E80">
-        <v>0.2272384</v>
+        <v>0.2315948</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2293,20 +2293,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a16 o16 t17</t>
+          <t>p s1 g1 c1 a15 o15 t16</t>
         </is>
       </c>
       <c r="B81">
-        <v>0.2219656</v>
+        <v>0.1613294</v>
       </c>
       <c r="C81">
-        <v>0.0577988</v>
+        <v>0.0414436</v>
       </c>
       <c r="D81">
-        <v>0.1289552</v>
+        <v>0.0954594</v>
       </c>
       <c r="E81">
-        <v>0.3547398</v>
+        <v>0.2596067</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2317,20 +2317,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a17 o17 t18</t>
+          <t>p s1 g1 c1 a16 o16 t17</t>
         </is>
       </c>
       <c r="B82">
-        <v>0.1466958</v>
+        <v>0.2561926</v>
       </c>
       <c r="C82">
-        <v>0.0423913</v>
+        <v>0.06360010000000001</v>
       </c>
       <c r="D82">
-        <v>0.0813222</v>
+        <v>0.1518689</v>
       </c>
       <c r="E82">
-        <v>0.2503035</v>
+        <v>0.3985074</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2341,20 +2341,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a18 o18 t19</t>
+          <t>p s1 g1 c1 a17 o17 t18</t>
         </is>
       </c>
       <c r="B83">
-        <v>0.0929449</v>
+        <v>0.1677336</v>
       </c>
       <c r="C83">
-        <v>0.0288046</v>
+        <v>0.0469794</v>
       </c>
       <c r="D83">
-        <v>0.0498377</v>
+        <v>0.0943727</v>
       </c>
       <c r="E83">
-        <v>0.1667927</v>
+        <v>0.2804612</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2365,20 +2365,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a19 o19 t20</t>
+          <t>p s1 g1 c1 a18 o18 t19</t>
         </is>
       </c>
       <c r="B84">
-        <v>0.0933211</v>
+        <v>0.10715</v>
       </c>
       <c r="C84">
-        <v>0.0293752</v>
+        <v>0.0329288</v>
       </c>
       <c r="D84">
-        <v>0.0495382</v>
+        <v>0.0576052</v>
       </c>
       <c r="E84">
-        <v>0.168923</v>
+        <v>0.190685</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2389,20 +2389,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a20 o20 t21</t>
+          <t>p s1 g1 c1 a19 o19 t20</t>
         </is>
       </c>
       <c r="B85">
-        <v>0.2456268</v>
+        <v>0.11331</v>
       </c>
       <c r="C85">
-        <v>0.08373070000000001</v>
+        <v>0.0355368</v>
       </c>
       <c r="D85">
-        <v>0.1183907</v>
+        <v>0.0600513</v>
       </c>
       <c r="E85">
-        <v>0.4411763</v>
+        <v>0.203573</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2413,20 +2413,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a21 o21 t22</t>
+          <t>p s1 g1 c1 a20 o20 t21</t>
         </is>
       </c>
       <c r="B86">
-        <v>0.1075286</v>
+        <v>0.283311</v>
       </c>
       <c r="C86">
-        <v>0.0480885</v>
+        <v>0.0920762</v>
       </c>
       <c r="D86">
-        <v>0.0431737</v>
+        <v>0.1398054</v>
       </c>
       <c r="E86">
-        <v>0.2434079</v>
+        <v>0.4901797</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2437,20 +2437,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>p s1 g1 c1 a22 o22 t23</t>
+          <t>p s1 g1 c1 a21 o21 t22</t>
         </is>
       </c>
       <c r="B87">
-        <v>0.9999932</v>
+        <v>0.1288742</v>
       </c>
       <c r="C87">
-        <v>0.0068826</v>
+        <v>0.0566797</v>
       </c>
       <c r="D87">
-        <v>8.220498E-304</v>
+        <v>0.0521289</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0.2846725</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2461,20 +2461,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a1 o1 t2</t>
+          <t>p s1 g1 c1 a22 o22 t23</t>
         </is>
       </c>
       <c r="B88">
-        <v>0.6305269999999999</v>
+        <v>0.9999962999999999</v>
       </c>
       <c r="C88">
-        <v>0.1341269</v>
+        <v>0.0037017</v>
       </c>
       <c r="D88">
-        <v>0.3557222</v>
+        <v>1.506503E-303</v>
       </c>
       <c r="E88">
-        <v>0.8406319</v>
+        <v>1</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2485,20 +2485,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a2 o2 t3</t>
+          <t>p s2 g1 c1 a1 o1 t2</t>
         </is>
       </c>
       <c r="B89">
-        <v>0.7445232000000001</v>
+        <v>0.6604174</v>
       </c>
       <c r="C89">
-        <v>0.1022278</v>
+        <v>0.1285048</v>
       </c>
       <c r="D89">
-        <v>0.5040517</v>
+        <v>0.3874777</v>
       </c>
       <c r="E89">
-        <v>0.8931203</v>
+        <v>0.856711</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2509,20 +2509,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a3 o3 t4</t>
+          <t>p s2 g1 c1 a2 o2 t3</t>
         </is>
       </c>
       <c r="B90">
-        <v>0.5550084</v>
+        <v>0.7700978000000001</v>
       </c>
       <c r="C90">
-        <v>0.1101082</v>
+        <v>0.0952302</v>
       </c>
       <c r="D90">
-        <v>0.3423369</v>
+        <v>0.5385777</v>
       </c>
       <c r="E90">
-        <v>0.7492756</v>
+        <v>0.9057752999999999</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2533,20 +2533,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a4 o4 t5</t>
+          <t>p s2 g1 c1 a3 o3 t4</t>
         </is>
       </c>
       <c r="B91">
-        <v>0.8410101</v>
+        <v>0.5609611</v>
       </c>
       <c r="C91">
-        <v>0.06744070000000001</v>
+        <v>0.1099701</v>
       </c>
       <c r="D91">
-        <v>0.663112</v>
+        <v>0.3474853</v>
       </c>
       <c r="E91">
-        <v>0.9342775</v>
+        <v>0.754033</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2557,20 +2557,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a5 o5 t6</t>
+          <t>p s2 g1 c1 a4 o4 t5</t>
         </is>
       </c>
       <c r="B92">
-        <v>0.5895355</v>
+        <v>0.8529148</v>
       </c>
       <c r="C92">
-        <v>0.1045902</v>
+        <v>0.0628041</v>
       </c>
       <c r="D92">
-        <v>0.381047</v>
+        <v>0.6849081</v>
       </c>
       <c r="E92">
-        <v>0.770157</v>
+        <v>0.939282</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2581,20 +2581,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a6 o6 t7</t>
+          <t>p s2 g1 c1 a5 o5 t6</t>
         </is>
       </c>
       <c r="B93">
-        <v>0.7672909</v>
+        <v>0.5891632</v>
       </c>
       <c r="C93">
-        <v>0.0656524</v>
+        <v>0.1035657</v>
       </c>
       <c r="D93">
-        <v>0.6159546</v>
+        <v>0.382697</v>
       </c>
       <c r="E93">
-        <v>0.8714389</v>
+        <v>0.7683702</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2605,20 +2605,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a7 o7 t8</t>
+          <t>p s2 g1 c1 a6 o6 t7</t>
         </is>
       </c>
       <c r="B94">
-        <v>0.8075807</v>
+        <v>0.791721</v>
       </c>
       <c r="C94">
-        <v>0.0599978</v>
+        <v>0.060747</v>
       </c>
       <c r="D94">
-        <v>0.6632046</v>
+        <v>0.6486904</v>
       </c>
       <c r="E94">
-        <v>0.8994497</v>
+        <v>0.8866905</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2629,20 +2629,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a8 o8 t9</t>
+          <t>p s2 g1 c1 a7 o7 t8</t>
         </is>
       </c>
       <c r="B95">
-        <v>0.4298836</v>
+        <v>0.8160327000000001</v>
       </c>
       <c r="C95">
-        <v>0.0761747</v>
+        <v>0.0575713</v>
       </c>
       <c r="D95">
-        <v>0.2907971</v>
+        <v>0.6765692</v>
       </c>
       <c r="E95">
-        <v>0.5809961</v>
+        <v>0.9039012</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2653,20 +2653,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a9 o9 t10</t>
+          <t>p s2 g1 c1 a8 o8 t9</t>
         </is>
       </c>
       <c r="B96">
-        <v>0.9295739</v>
+        <v>0.4399247</v>
       </c>
       <c r="C96">
-        <v>0.027002</v>
+        <v>0.077346</v>
       </c>
       <c r="D96">
-        <v>0.8546747</v>
+        <v>0.2980204</v>
       </c>
       <c r="E96">
-        <v>0.9673457</v>
+        <v>0.5923785</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2677,20 +2677,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a10 o10 t11</t>
+          <t>p s2 g1 c1 a9 o9 t10</t>
         </is>
       </c>
       <c r="B97">
-        <v>0.8261741</v>
+        <v>0.9310891</v>
       </c>
       <c r="C97">
-        <v>0.048878</v>
+        <v>0.0261004</v>
       </c>
       <c r="D97">
-        <v>0.7092334</v>
+        <v>0.8589064</v>
       </c>
       <c r="E97">
-        <v>0.902546</v>
+        <v>0.9677308999999999</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2701,20 +2701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a11 o11 t12</t>
+          <t>p s2 g1 c1 a10 o10 t11</t>
         </is>
       </c>
       <c r="B98">
-        <v>0.8259427</v>
+        <v>0.8235951</v>
       </c>
       <c r="C98">
-        <v>0.0446054</v>
+        <v>0.0477165</v>
       </c>
       <c r="D98">
-        <v>0.7209148</v>
+        <v>0.7103682</v>
       </c>
       <c r="E98">
-        <v>0.8970878</v>
+        <v>0.89886</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2725,20 +2725,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a12 o12 t13</t>
+          <t>p s2 g1 c1 a11 o11 t12</t>
         </is>
       </c>
       <c r="B99">
-        <v>0.8141979</v>
+        <v>0.8345943</v>
       </c>
       <c r="C99">
-        <v>0.0457379</v>
+        <v>0.0425425</v>
       </c>
       <c r="D99">
-        <v>0.7078439</v>
+        <v>0.7339040999999999</v>
       </c>
       <c r="E99">
-        <v>0.8879636</v>
+        <v>0.9022578999999999</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2749,20 +2749,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a13 o13 t14</t>
+          <t>p s2 g1 c1 a12 o12 t13</t>
         </is>
       </c>
       <c r="B100">
-        <v>0.767678</v>
+        <v>0.812617</v>
       </c>
       <c r="C100">
-        <v>0.0539308</v>
+        <v>0.045843</v>
       </c>
       <c r="D100">
-        <v>0.646242</v>
+        <v>0.7062049</v>
       </c>
       <c r="E100">
-        <v>0.8566734</v>
+        <v>0.8866719</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2773,20 +2773,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a14 o14 t15</t>
+          <t>p s2 g1 c1 a13 o13 t14</t>
         </is>
       </c>
       <c r="B101">
-        <v>0.7218918</v>
+        <v>0.7647164</v>
       </c>
       <c r="C101">
-        <v>0.0547106</v>
+        <v>0.0535117</v>
       </c>
       <c r="D101">
-        <v>0.6034213</v>
+        <v>0.644692</v>
       </c>
       <c r="E101">
-        <v>0.8157761</v>
+        <v>0.8534148</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2797,20 +2797,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a15 o15 t16</t>
+          <t>p s2 g1 c1 a14 o14 t15</t>
         </is>
       </c>
       <c r="B102">
-        <v>0.7566133</v>
+        <v>0.7292334</v>
       </c>
       <c r="C102">
-        <v>0.052442</v>
+        <v>0.0537162</v>
       </c>
       <c r="D102">
-        <v>0.6401542</v>
+        <v>0.6124269</v>
       </c>
       <c r="E102">
-        <v>0.8445354</v>
+        <v>0.8211191</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2821,20 +2821,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a16 o16 t17</t>
+          <t>p s2 g1 c1 a15 o15 t16</t>
         </is>
       </c>
       <c r="B103">
-        <v>0.8466055</v>
+        <v>0.7594862999999999</v>
       </c>
       <c r="C103">
-        <v>0.0409485</v>
+        <v>0.0512499</v>
       </c>
       <c r="D103">
-        <v>0.7484195</v>
+        <v>0.6456468</v>
       </c>
       <c r="E103">
-        <v>0.9110273</v>
+        <v>0.8455049</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2845,20 +2845,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a17 o17 t18</t>
+          <t>p s2 g1 c1 a16 o16 t17</t>
         </is>
       </c>
       <c r="B104">
-        <v>0.7688296999999999</v>
+        <v>0.8497169</v>
       </c>
       <c r="C104">
-        <v>0.0538462</v>
+        <v>0.0399674</v>
       </c>
       <c r="D104">
-        <v>0.6474622</v>
+        <v>0.7537911</v>
       </c>
       <c r="E104">
-        <v>0.8576036</v>
+        <v>0.9126022</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2869,20 +2869,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a18 o18 t19</t>
+          <t>p s2 g1 c1 a17 o17 t18</t>
         </is>
       </c>
       <c r="B105">
-        <v>0.6646919999999999</v>
+        <v>0.7678943</v>
       </c>
       <c r="C105">
-        <v>0.0669405</v>
+        <v>0.0531273</v>
       </c>
       <c r="D105">
-        <v>0.5238799</v>
+        <v>0.6484483</v>
       </c>
       <c r="E105">
-        <v>0.7812484</v>
+        <v>0.8557824000000001</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2893,20 +2893,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a19 o19 t20</t>
+          <t>p s2 g1 c1 a18 o18 t19</t>
         </is>
       </c>
       <c r="B106">
-        <v>0.6656840000000001</v>
+        <v>0.6633025</v>
       </c>
       <c r="C106">
-        <v>0.0659979</v>
+        <v>0.06654839999999999</v>
       </c>
       <c r="D106">
-        <v>0.5268445</v>
+        <v>0.5234844</v>
       </c>
       <c r="E106">
-        <v>0.7807385999999999</v>
+        <v>0.7793849</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2917,20 +2917,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a20 o20 t21</t>
+          <t>p s2 g1 c1 a19 o19 t20</t>
         </is>
       </c>
       <c r="B107">
-        <v>0.8629956</v>
+        <v>0.6771853</v>
       </c>
       <c r="C107">
-        <v>0.0512758</v>
+        <v>0.06580370000000001</v>
       </c>
       <c r="D107">
-        <v>0.7291638</v>
+        <v>0.5376474</v>
       </c>
       <c r="E107">
-        <v>0.9364583</v>
+        <v>0.7909825</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2941,20 +2941,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a21 o21 t22</t>
+          <t>p s2 g1 c1 a20 o20 t21</t>
         </is>
       </c>
       <c r="B108">
-        <v>0.6997762</v>
+        <v>0.8664743</v>
       </c>
       <c r="C108">
-        <v>0.097833</v>
+        <v>0.0499798</v>
       </c>
       <c r="D108">
-        <v>0.4833844</v>
+        <v>0.7356414999999999</v>
       </c>
       <c r="E108">
-        <v>0.8530783</v>
+        <v>0.938013</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2965,20 +2965,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>p s2 g1 c1 a22 o22 t23</t>
+          <t>p s2 g1 c1 a21 o21 t22</t>
         </is>
       </c>
       <c r="B109">
-        <v>0.9999997</v>
+        <v>0.7083296</v>
       </c>
       <c r="C109">
-        <v>0.0003558413</v>
+        <v>0.0965338</v>
       </c>
       <c r="D109">
-        <v>1.590313E-302</v>
+        <v>0.4928679</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0.858526</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2989,68 +2989,68 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Psi s2 to1 g1 c1 a0 o1 t1</t>
+          <t>p s2 g1 c1 a22 o22 t23</t>
         </is>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>0.9999998</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.0002253848</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>2.473022E-302</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t xml:space="preserve">     </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a0 o1 t1</t>
+          <t>Psi s2 to1 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B111">
-        <v>0.165885</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0.0231062</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0.1253866</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0.21623</v>
+        <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve">     </t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a1 o2 t2</t>
+          <t>Psi s1 to2 g1 c1 a0 o1 t1</t>
         </is>
       </c>
       <c r="B112">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C112">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D112">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E112">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3061,20 +3061,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a2 o3 t3</t>
+          <t>Psi s1 to2 g1 c1 a1 o2 t2</t>
         </is>
       </c>
       <c r="B113">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C113">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D113">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E113">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3085,20 +3085,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a3 o4 t4</t>
+          <t>Psi s1 to2 g1 c1 a2 o3 t3</t>
         </is>
       </c>
       <c r="B114">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C114">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D114">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E114">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3109,20 +3109,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a4 o5 t5</t>
+          <t>Psi s1 to2 g1 c1 a3 o4 t4</t>
         </is>
       </c>
       <c r="B115">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C115">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D115">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E115">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3133,20 +3133,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a5 o6 t6</t>
+          <t>Psi s1 to2 g1 c1 a4 o5 t5</t>
         </is>
       </c>
       <c r="B116">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C116">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D116">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E116">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3157,20 +3157,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a6 o7 t7</t>
+          <t>Psi s1 to2 g1 c1 a5 o6 t6</t>
         </is>
       </c>
       <c r="B117">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C117">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D117">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E117">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3181,20 +3181,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a7 o8 t8</t>
+          <t>Psi s1 to2 g1 c1 a6 o7 t7</t>
         </is>
       </c>
       <c r="B118">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C118">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D118">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E118">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3205,20 +3205,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a8 o9 t9</t>
+          <t>Psi s1 to2 g1 c1 a7 o8 t8</t>
         </is>
       </c>
       <c r="B119">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C119">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D119">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E119">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3229,20 +3229,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a9 o10 t10</t>
+          <t>Psi s1 to2 g1 c1 a8 o9 t9</t>
         </is>
       </c>
       <c r="B120">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C120">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D120">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E120">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3253,20 +3253,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a10 o11 t11</t>
+          <t>Psi s1 to2 g1 c1 a9 o10 t10</t>
         </is>
       </c>
       <c r="B121">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C121">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D121">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E121">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3277,20 +3277,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a11 o12 t12</t>
+          <t>Psi s1 to2 g1 c1 a10 o11 t11</t>
         </is>
       </c>
       <c r="B122">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C122">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D122">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E122">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3301,20 +3301,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a12 o13 t13</t>
+          <t>Psi s1 to2 g1 c1 a11 o12 t12</t>
         </is>
       </c>
       <c r="B123">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C123">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D123">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E123">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3325,20 +3325,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a13 o14 t14</t>
+          <t>Psi s1 to2 g1 c1 a12 o13 t13</t>
         </is>
       </c>
       <c r="B124">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C124">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D124">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E124">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3349,20 +3349,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a14 o15 t15</t>
+          <t>Psi s1 to2 g1 c1 a13 o14 t14</t>
         </is>
       </c>
       <c r="B125">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C125">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D125">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E125">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3373,20 +3373,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a15 o16 t16</t>
+          <t>Psi s1 to2 g1 c1 a14 o15 t15</t>
         </is>
       </c>
       <c r="B126">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C126">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D126">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E126">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3397,20 +3397,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a16 o17 t17</t>
+          <t>Psi s1 to2 g1 c1 a15 o16 t16</t>
         </is>
       </c>
       <c r="B127">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C127">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D127">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E127">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3421,20 +3421,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a17 o18 t18</t>
+          <t>Psi s1 to2 g1 c1 a16 o17 t17</t>
         </is>
       </c>
       <c r="B128">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C128">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D128">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E128">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3445,20 +3445,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a18 o19 t19</t>
+          <t>Psi s1 to2 g1 c1 a17 o18 t18</t>
         </is>
       </c>
       <c r="B129">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C129">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D129">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E129">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3469,20 +3469,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a19 o20 t20</t>
+          <t>Psi s1 to2 g1 c1 a18 o19 t19</t>
         </is>
       </c>
       <c r="B130">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C130">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D130">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E130">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3493,20 +3493,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a20 o21 t21</t>
+          <t>Psi s1 to2 g1 c1 a19 o20 t20</t>
         </is>
       </c>
       <c r="B131">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C131">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D131">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E131">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3517,20 +3517,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c1 a21 o22 t22</t>
+          <t>Psi s1 to2 g1 c1 a20 o21 t21</t>
         </is>
       </c>
       <c r="B132">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C132">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D132">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E132">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3541,20 +3541,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a0 o2 t2</t>
+          <t>Psi s1 to2 g1 c1 a21 o22 t22</t>
         </is>
       </c>
       <c r="B133">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C133">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D133">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E133">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3565,20 +3565,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a1 o3 t3</t>
+          <t>Psi s1 to2 g1 c2 a0 o2 t2</t>
         </is>
       </c>
       <c r="B134">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C134">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D134">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E134">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3589,20 +3589,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a2 o4 t4</t>
+          <t>Psi s1 to2 g1 c2 a1 o3 t3</t>
         </is>
       </c>
       <c r="B135">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C135">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D135">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E135">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3613,20 +3613,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a3 o5 t5</t>
+          <t>Psi s1 to2 g1 c2 a2 o4 t4</t>
         </is>
       </c>
       <c r="B136">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C136">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D136">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E136">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3637,20 +3637,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a4 o6 t6</t>
+          <t>Psi s1 to2 g1 c2 a3 o5 t5</t>
         </is>
       </c>
       <c r="B137">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C137">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D137">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E137">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3661,20 +3661,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a5 o7 t7</t>
+          <t>Psi s1 to2 g1 c2 a4 o6 t6</t>
         </is>
       </c>
       <c r="B138">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C138">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D138">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E138">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3685,20 +3685,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a6 o8 t8</t>
+          <t>Psi s1 to2 g1 c2 a5 o7 t7</t>
         </is>
       </c>
       <c r="B139">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C139">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D139">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E139">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3709,20 +3709,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a7 o9 t9</t>
+          <t>Psi s1 to2 g1 c2 a6 o8 t8</t>
         </is>
       </c>
       <c r="B140">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C140">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D140">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E140">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3733,20 +3733,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a8 o10 t10</t>
+          <t>Psi s1 to2 g1 c2 a7 o9 t9</t>
         </is>
       </c>
       <c r="B141">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C141">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D141">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E141">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3757,20 +3757,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a9 o11 t11</t>
+          <t>Psi s1 to2 g1 c2 a8 o10 t10</t>
         </is>
       </c>
       <c r="B142">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C142">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D142">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E142">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3781,20 +3781,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a10 o12 t12</t>
+          <t>Psi s1 to2 g1 c2 a9 o11 t11</t>
         </is>
       </c>
       <c r="B143">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C143">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D143">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E143">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3805,20 +3805,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a11 o13 t13</t>
+          <t>Psi s1 to2 g1 c2 a10 o12 t12</t>
         </is>
       </c>
       <c r="B144">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C144">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D144">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E144">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3829,20 +3829,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a12 o14 t14</t>
+          <t>Psi s1 to2 g1 c2 a11 o13 t13</t>
         </is>
       </c>
       <c r="B145">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C145">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D145">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E145">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3853,20 +3853,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a13 o15 t15</t>
+          <t>Psi s1 to2 g1 c2 a12 o14 t14</t>
         </is>
       </c>
       <c r="B146">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C146">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D146">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E146">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3877,20 +3877,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a14 o16 t16</t>
+          <t>Psi s1 to2 g1 c2 a13 o15 t15</t>
         </is>
       </c>
       <c r="B147">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C147">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D147">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E147">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3901,20 +3901,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a15 o17 t17</t>
+          <t>Psi s1 to2 g1 c2 a14 o16 t16</t>
         </is>
       </c>
       <c r="B148">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C148">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D148">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E148">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3925,20 +3925,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a16 o18 t18</t>
+          <t>Psi s1 to2 g1 c2 a15 o17 t17</t>
         </is>
       </c>
       <c r="B149">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C149">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D149">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E149">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3949,20 +3949,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a17 o19 t19</t>
+          <t>Psi s1 to2 g1 c2 a16 o18 t18</t>
         </is>
       </c>
       <c r="B150">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C150">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D150">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E150">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3973,20 +3973,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a18 o20 t20</t>
+          <t>Psi s1 to2 g1 c2 a17 o19 t19</t>
         </is>
       </c>
       <c r="B151">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C151">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D151">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E151">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3997,20 +3997,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a19 o21 t21</t>
+          <t>Psi s1 to2 g1 c2 a18 o20 t20</t>
         </is>
       </c>
       <c r="B152">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C152">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D152">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E152">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4021,20 +4021,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c2 a20 o22 t22</t>
+          <t>Psi s1 to2 g1 c2 a19 o21 t21</t>
         </is>
       </c>
       <c r="B153">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C153">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D153">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E153">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4045,20 +4045,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a0 o3 t3</t>
+          <t>Psi s1 to2 g1 c2 a20 o22 t22</t>
         </is>
       </c>
       <c r="B154">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C154">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D154">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E154">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4069,20 +4069,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a1 o4 t4</t>
+          <t>Psi s1 to2 g1 c3 a0 o3 t3</t>
         </is>
       </c>
       <c r="B155">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C155">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D155">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E155">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4093,20 +4093,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a2 o5 t5</t>
+          <t>Psi s1 to2 g1 c3 a1 o4 t4</t>
         </is>
       </c>
       <c r="B156">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C156">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D156">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E156">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4117,20 +4117,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a3 o6 t6</t>
+          <t>Psi s1 to2 g1 c3 a2 o5 t5</t>
         </is>
       </c>
       <c r="B157">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C157">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D157">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E157">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4141,20 +4141,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a4 o7 t7</t>
+          <t>Psi s1 to2 g1 c3 a3 o6 t6</t>
         </is>
       </c>
       <c r="B158">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C158">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D158">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E158">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4165,20 +4165,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a5 o8 t8</t>
+          <t>Psi s1 to2 g1 c3 a4 o7 t7</t>
         </is>
       </c>
       <c r="B159">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C159">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D159">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E159">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4189,20 +4189,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a6 o9 t9</t>
+          <t>Psi s1 to2 g1 c3 a5 o8 t8</t>
         </is>
       </c>
       <c r="B160">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C160">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D160">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E160">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4213,20 +4213,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a7 o10 t10</t>
+          <t>Psi s1 to2 g1 c3 a6 o9 t9</t>
         </is>
       </c>
       <c r="B161">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C161">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D161">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E161">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4237,20 +4237,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a8 o11 t11</t>
+          <t>Psi s1 to2 g1 c3 a7 o10 t10</t>
         </is>
       </c>
       <c r="B162">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C162">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D162">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E162">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4261,20 +4261,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a9 o12 t12</t>
+          <t>Psi s1 to2 g1 c3 a8 o11 t11</t>
         </is>
       </c>
       <c r="B163">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C163">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D163">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E163">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4285,20 +4285,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a10 o13 t13</t>
+          <t>Psi s1 to2 g1 c3 a9 o12 t12</t>
         </is>
       </c>
       <c r="B164">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C164">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D164">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E164">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4309,20 +4309,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a11 o14 t14</t>
+          <t>Psi s1 to2 g1 c3 a10 o13 t13</t>
         </is>
       </c>
       <c r="B165">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C165">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D165">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E165">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4333,20 +4333,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a12 o15 t15</t>
+          <t>Psi s1 to2 g1 c3 a11 o14 t14</t>
         </is>
       </c>
       <c r="B166">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C166">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D166">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E166">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4357,20 +4357,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a13 o16 t16</t>
+          <t>Psi s1 to2 g1 c3 a12 o15 t15</t>
         </is>
       </c>
       <c r="B167">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C167">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D167">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E167">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4381,20 +4381,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a14 o17 t17</t>
+          <t>Psi s1 to2 g1 c3 a13 o16 t16</t>
         </is>
       </c>
       <c r="B168">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C168">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D168">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E168">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4405,20 +4405,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a15 o18 t18</t>
+          <t>Psi s1 to2 g1 c3 a14 o17 t17</t>
         </is>
       </c>
       <c r="B169">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C169">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D169">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E169">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4429,20 +4429,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a16 o19 t19</t>
+          <t>Psi s1 to2 g1 c3 a15 o18 t18</t>
         </is>
       </c>
       <c r="B170">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C170">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D170">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E170">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4453,20 +4453,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a17 o20 t20</t>
+          <t>Psi s1 to2 g1 c3 a16 o19 t19</t>
         </is>
       </c>
       <c r="B171">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C171">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D171">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E171">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4477,20 +4477,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a18 o21 t21</t>
+          <t>Psi s1 to2 g1 c3 a17 o20 t20</t>
         </is>
       </c>
       <c r="B172">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C172">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D172">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E172">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4501,20 +4501,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c3 a19 o22 t22</t>
+          <t>Psi s1 to2 g1 c3 a18 o21 t21</t>
         </is>
       </c>
       <c r="B173">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C173">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D173">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E173">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4525,20 +4525,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a0 o4 t4</t>
+          <t>Psi s1 to2 g1 c3 a19 o22 t22</t>
         </is>
       </c>
       <c r="B174">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C174">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D174">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E174">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4549,20 +4549,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a1 o5 t5</t>
+          <t>Psi s1 to2 g1 c4 a0 o4 t4</t>
         </is>
       </c>
       <c r="B175">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C175">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D175">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E175">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4573,20 +4573,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a2 o6 t6</t>
+          <t>Psi s1 to2 g1 c4 a1 o5 t5</t>
         </is>
       </c>
       <c r="B176">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C176">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D176">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E176">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4597,20 +4597,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a3 o7 t7</t>
+          <t>Psi s1 to2 g1 c4 a2 o6 t6</t>
         </is>
       </c>
       <c r="B177">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C177">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D177">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E177">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4621,20 +4621,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a4 o8 t8</t>
+          <t>Psi s1 to2 g1 c4 a3 o7 t7</t>
         </is>
       </c>
       <c r="B178">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C178">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D178">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E178">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4645,20 +4645,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a5 o9 t9</t>
+          <t>Psi s1 to2 g1 c4 a4 o8 t8</t>
         </is>
       </c>
       <c r="B179">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C179">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D179">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E179">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4669,20 +4669,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a6 o10 t10</t>
+          <t>Psi s1 to2 g1 c4 a5 o9 t9</t>
         </is>
       </c>
       <c r="B180">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C180">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D180">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E180">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4693,20 +4693,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a7 o11 t11</t>
+          <t>Psi s1 to2 g1 c4 a6 o10 t10</t>
         </is>
       </c>
       <c r="B181">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C181">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D181">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E181">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4717,20 +4717,20 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a8 o12 t12</t>
+          <t>Psi s1 to2 g1 c4 a7 o11 t11</t>
         </is>
       </c>
       <c r="B182">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C182">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D182">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E182">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4741,20 +4741,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a9 o13 t13</t>
+          <t>Psi s1 to2 g1 c4 a8 o12 t12</t>
         </is>
       </c>
       <c r="B183">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C183">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D183">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E183">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4765,20 +4765,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a10 o14 t14</t>
+          <t>Psi s1 to2 g1 c4 a9 o13 t13</t>
         </is>
       </c>
       <c r="B184">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C184">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D184">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E184">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4789,20 +4789,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a11 o15 t15</t>
+          <t>Psi s1 to2 g1 c4 a10 o14 t14</t>
         </is>
       </c>
       <c r="B185">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C185">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D185">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E185">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4813,20 +4813,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a12 o16 t16</t>
+          <t>Psi s1 to2 g1 c4 a11 o15 t15</t>
         </is>
       </c>
       <c r="B186">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C186">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D186">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E186">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4837,20 +4837,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a13 o17 t17</t>
+          <t>Psi s1 to2 g1 c4 a12 o16 t16</t>
         </is>
       </c>
       <c r="B187">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C187">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D187">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E187">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4861,20 +4861,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a14 o18 t18</t>
+          <t>Psi s1 to2 g1 c4 a13 o17 t17</t>
         </is>
       </c>
       <c r="B188">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C188">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D188">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E188">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4885,20 +4885,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a15 o19 t19</t>
+          <t>Psi s1 to2 g1 c4 a14 o18 t18</t>
         </is>
       </c>
       <c r="B189">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C189">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D189">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E189">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4909,20 +4909,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a16 o20 t20</t>
+          <t>Psi s1 to2 g1 c4 a15 o19 t19</t>
         </is>
       </c>
       <c r="B190">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C190">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D190">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E190">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4933,20 +4933,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a17 o21 t21</t>
+          <t>Psi s1 to2 g1 c4 a16 o20 t20</t>
         </is>
       </c>
       <c r="B191">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C191">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D191">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E191">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4957,20 +4957,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c4 a18 o22 t22</t>
+          <t>Psi s1 to2 g1 c4 a17 o21 t21</t>
         </is>
       </c>
       <c r="B192">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C192">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D192">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E192">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4981,20 +4981,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a0 o5 t5</t>
+          <t>Psi s1 to2 g1 c4 a18 o22 t22</t>
         </is>
       </c>
       <c r="B193">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C193">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D193">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E193">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5005,20 +5005,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a1 o6 t6</t>
+          <t>Psi s1 to2 g1 c5 a0 o5 t5</t>
         </is>
       </c>
       <c r="B194">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C194">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D194">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E194">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5029,20 +5029,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a2 o7 t7</t>
+          <t>Psi s1 to2 g1 c5 a1 o6 t6</t>
         </is>
       </c>
       <c r="B195">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C195">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D195">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E195">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5053,20 +5053,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a3 o8 t8</t>
+          <t>Psi s1 to2 g1 c5 a2 o7 t7</t>
         </is>
       </c>
       <c r="B196">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C196">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D196">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E196">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5077,20 +5077,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a4 o9 t9</t>
+          <t>Psi s1 to2 g1 c5 a3 o8 t8</t>
         </is>
       </c>
       <c r="B197">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C197">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D197">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E197">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5101,20 +5101,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a5 o10 t10</t>
+          <t>Psi s1 to2 g1 c5 a4 o9 t9</t>
         </is>
       </c>
       <c r="B198">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C198">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D198">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E198">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5125,20 +5125,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a6 o11 t11</t>
+          <t>Psi s1 to2 g1 c5 a5 o10 t10</t>
         </is>
       </c>
       <c r="B199">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C199">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D199">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E199">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5149,20 +5149,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a7 o12 t12</t>
+          <t>Psi s1 to2 g1 c5 a6 o11 t11</t>
         </is>
       </c>
       <c r="B200">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C200">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D200">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E200">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -5173,20 +5173,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a8 o13 t13</t>
+          <t>Psi s1 to2 g1 c5 a7 o12 t12</t>
         </is>
       </c>
       <c r="B201">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C201">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D201">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E201">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5197,20 +5197,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a9 o14 t14</t>
+          <t>Psi s1 to2 g1 c5 a8 o13 t13</t>
         </is>
       </c>
       <c r="B202">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C202">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D202">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E202">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5221,20 +5221,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a10 o15 t15</t>
+          <t>Psi s1 to2 g1 c5 a9 o14 t14</t>
         </is>
       </c>
       <c r="B203">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C203">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D203">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E203">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5245,20 +5245,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a11 o16 t16</t>
+          <t>Psi s1 to2 g1 c5 a10 o15 t15</t>
         </is>
       </c>
       <c r="B204">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C204">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D204">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E204">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5269,20 +5269,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a12 o17 t17</t>
+          <t>Psi s1 to2 g1 c5 a11 o16 t16</t>
         </is>
       </c>
       <c r="B205">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C205">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D205">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E205">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5293,20 +5293,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a13 o18 t18</t>
+          <t>Psi s1 to2 g1 c5 a12 o17 t17</t>
         </is>
       </c>
       <c r="B206">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C206">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D206">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E206">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5317,20 +5317,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a14 o19 t19</t>
+          <t>Psi s1 to2 g1 c5 a13 o18 t18</t>
         </is>
       </c>
       <c r="B207">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C207">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D207">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E207">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5341,20 +5341,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a15 o20 t20</t>
+          <t>Psi s1 to2 g1 c5 a14 o19 t19</t>
         </is>
       </c>
       <c r="B208">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C208">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D208">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E208">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5365,20 +5365,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a16 o21 t21</t>
+          <t>Psi s1 to2 g1 c5 a15 o20 t20</t>
         </is>
       </c>
       <c r="B209">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C209">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D209">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E209">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5389,20 +5389,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c5 a17 o22 t22</t>
+          <t>Psi s1 to2 g1 c5 a16 o21 t21</t>
         </is>
       </c>
       <c r="B210">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C210">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D210">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E210">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5413,20 +5413,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a0 o6 t6</t>
+          <t>Psi s1 to2 g1 c5 a17 o22 t22</t>
         </is>
       </c>
       <c r="B211">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C211">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D211">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E211">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5437,20 +5437,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a1 o7 t7</t>
+          <t>Psi s1 to2 g1 c6 a0 o6 t6</t>
         </is>
       </c>
       <c r="B212">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C212">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D212">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E212">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5461,20 +5461,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a2 o8 t8</t>
+          <t>Psi s1 to2 g1 c6 a1 o7 t7</t>
         </is>
       </c>
       <c r="B213">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C213">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D213">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E213">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5485,20 +5485,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a3 o9 t9</t>
+          <t>Psi s1 to2 g1 c6 a2 o8 t8</t>
         </is>
       </c>
       <c r="B214">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C214">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D214">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E214">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5509,20 +5509,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a4 o10 t10</t>
+          <t>Psi s1 to2 g1 c6 a3 o9 t9</t>
         </is>
       </c>
       <c r="B215">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C215">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D215">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E215">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5533,20 +5533,20 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a5 o11 t11</t>
+          <t>Psi s1 to2 g1 c6 a4 o10 t10</t>
         </is>
       </c>
       <c r="B216">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C216">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D216">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E216">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5557,20 +5557,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a6 o12 t12</t>
+          <t>Psi s1 to2 g1 c6 a5 o11 t11</t>
         </is>
       </c>
       <c r="B217">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C217">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D217">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E217">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5581,20 +5581,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a7 o13 t13</t>
+          <t>Psi s1 to2 g1 c6 a6 o12 t12</t>
         </is>
       </c>
       <c r="B218">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C218">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D218">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E218">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5605,20 +5605,20 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a8 o14 t14</t>
+          <t>Psi s1 to2 g1 c6 a7 o13 t13</t>
         </is>
       </c>
       <c r="B219">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C219">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D219">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E219">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5629,20 +5629,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a9 o15 t15</t>
+          <t>Psi s1 to2 g1 c6 a8 o14 t14</t>
         </is>
       </c>
       <c r="B220">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C220">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D220">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E220">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5653,20 +5653,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a10 o16 t16</t>
+          <t>Psi s1 to2 g1 c6 a9 o15 t15</t>
         </is>
       </c>
       <c r="B221">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C221">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D221">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E221">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5677,20 +5677,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a11 o17 t17</t>
+          <t>Psi s1 to2 g1 c6 a10 o16 t16</t>
         </is>
       </c>
       <c r="B222">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C222">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D222">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E222">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5701,20 +5701,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a12 o18 t18</t>
+          <t>Psi s1 to2 g1 c6 a11 o17 t17</t>
         </is>
       </c>
       <c r="B223">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C223">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D223">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E223">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5725,20 +5725,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a13 o19 t19</t>
+          <t>Psi s1 to2 g1 c6 a12 o18 t18</t>
         </is>
       </c>
       <c r="B224">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C224">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D224">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E224">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5749,20 +5749,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a14 o20 t20</t>
+          <t>Psi s1 to2 g1 c6 a13 o19 t19</t>
         </is>
       </c>
       <c r="B225">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C225">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D225">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E225">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5773,20 +5773,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a15 o21 t21</t>
+          <t>Psi s1 to2 g1 c6 a14 o20 t20</t>
         </is>
       </c>
       <c r="B226">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C226">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D226">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E226">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5797,20 +5797,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c6 a16 o22 t22</t>
+          <t>Psi s1 to2 g1 c6 a15 o21 t21</t>
         </is>
       </c>
       <c r="B227">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C227">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D227">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E227">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5821,20 +5821,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a0 o7 t7</t>
+          <t>Psi s1 to2 g1 c6 a16 o22 t22</t>
         </is>
       </c>
       <c r="B228">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C228">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D228">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E228">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5845,20 +5845,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a1 o8 t8</t>
+          <t>Psi s1 to2 g1 c7 a0 o7 t7</t>
         </is>
       </c>
       <c r="B229">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C229">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D229">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E229">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5869,20 +5869,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a2 o9 t9</t>
+          <t>Psi s1 to2 g1 c7 a1 o8 t8</t>
         </is>
       </c>
       <c r="B230">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C230">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D230">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E230">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5893,20 +5893,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a3 o10 t10</t>
+          <t>Psi s1 to2 g1 c7 a2 o9 t9</t>
         </is>
       </c>
       <c r="B231">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C231">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D231">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E231">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5917,20 +5917,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a4 o11 t11</t>
+          <t>Psi s1 to2 g1 c7 a3 o10 t10</t>
         </is>
       </c>
       <c r="B232">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C232">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D232">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E232">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5941,20 +5941,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a5 o12 t12</t>
+          <t>Psi s1 to2 g1 c7 a4 o11 t11</t>
         </is>
       </c>
       <c r="B233">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C233">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D233">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E233">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5965,20 +5965,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a6 o13 t13</t>
+          <t>Psi s1 to2 g1 c7 a5 o12 t12</t>
         </is>
       </c>
       <c r="B234">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C234">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D234">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E234">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5989,20 +5989,20 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a7 o14 t14</t>
+          <t>Psi s1 to2 g1 c7 a6 o13 t13</t>
         </is>
       </c>
       <c r="B235">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C235">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D235">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E235">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6013,20 +6013,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a8 o15 t15</t>
+          <t>Psi s1 to2 g1 c7 a7 o14 t14</t>
         </is>
       </c>
       <c r="B236">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C236">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D236">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E236">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -6037,20 +6037,20 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a9 o16 t16</t>
+          <t>Psi s1 to2 g1 c7 a8 o15 t15</t>
         </is>
       </c>
       <c r="B237">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C237">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D237">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E237">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -6061,20 +6061,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a10 o17 t17</t>
+          <t>Psi s1 to2 g1 c7 a9 o16 t16</t>
         </is>
       </c>
       <c r="B238">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C238">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D238">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E238">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -6085,20 +6085,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a11 o18 t18</t>
+          <t>Psi s1 to2 g1 c7 a10 o17 t17</t>
         </is>
       </c>
       <c r="B239">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C239">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D239">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E239">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -6109,20 +6109,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a12 o19 t19</t>
+          <t>Psi s1 to2 g1 c7 a11 o18 t18</t>
         </is>
       </c>
       <c r="B240">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C240">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D240">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E240">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6133,20 +6133,20 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a13 o20 t20</t>
+          <t>Psi s1 to2 g1 c7 a12 o19 t19</t>
         </is>
       </c>
       <c r="B241">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C241">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D241">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E241">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6157,20 +6157,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a14 o21 t21</t>
+          <t>Psi s1 to2 g1 c7 a13 o20 t20</t>
         </is>
       </c>
       <c r="B242">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C242">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D242">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E242">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -6181,20 +6181,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c7 a15 o22 t22</t>
+          <t>Psi s1 to2 g1 c7 a14 o21 t21</t>
         </is>
       </c>
       <c r="B243">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C243">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D243">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E243">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6205,20 +6205,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a0 o8 t8</t>
+          <t>Psi s1 to2 g1 c7 a15 o22 t22</t>
         </is>
       </c>
       <c r="B244">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C244">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D244">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E244">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -6229,20 +6229,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a1 o9 t9</t>
+          <t>Psi s1 to2 g1 c8 a0 o8 t8</t>
         </is>
       </c>
       <c r="B245">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C245">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D245">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E245">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -6253,20 +6253,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a2 o10 t10</t>
+          <t>Psi s1 to2 g1 c8 a1 o9 t9</t>
         </is>
       </c>
       <c r="B246">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C246">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D246">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E246">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -6277,20 +6277,20 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a3 o11 t11</t>
+          <t>Psi s1 to2 g1 c8 a2 o10 t10</t>
         </is>
       </c>
       <c r="B247">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C247">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D247">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E247">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -6301,20 +6301,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a4 o12 t12</t>
+          <t>Psi s1 to2 g1 c8 a3 o11 t11</t>
         </is>
       </c>
       <c r="B248">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C248">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D248">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E248">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6325,20 +6325,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a5 o13 t13</t>
+          <t>Psi s1 to2 g1 c8 a4 o12 t12</t>
         </is>
       </c>
       <c r="B249">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C249">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D249">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E249">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6349,20 +6349,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a6 o14 t14</t>
+          <t>Psi s1 to2 g1 c8 a5 o13 t13</t>
         </is>
       </c>
       <c r="B250">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C250">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D250">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E250">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6373,20 +6373,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a7 o15 t15</t>
+          <t>Psi s1 to2 g1 c8 a6 o14 t14</t>
         </is>
       </c>
       <c r="B251">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C251">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D251">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E251">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6397,20 +6397,20 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a8 o16 t16</t>
+          <t>Psi s1 to2 g1 c8 a7 o15 t15</t>
         </is>
       </c>
       <c r="B252">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C252">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D252">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E252">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6421,20 +6421,20 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a9 o17 t17</t>
+          <t>Psi s1 to2 g1 c8 a8 o16 t16</t>
         </is>
       </c>
       <c r="B253">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C253">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D253">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E253">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6445,20 +6445,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a10 o18 t18</t>
+          <t>Psi s1 to2 g1 c8 a9 o17 t17</t>
         </is>
       </c>
       <c r="B254">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C254">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D254">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E254">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6469,20 +6469,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a11 o19 t19</t>
+          <t>Psi s1 to2 g1 c8 a10 o18 t18</t>
         </is>
       </c>
       <c r="B255">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C255">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D255">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E255">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6493,20 +6493,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a12 o20 t20</t>
+          <t>Psi s1 to2 g1 c8 a11 o19 t19</t>
         </is>
       </c>
       <c r="B256">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C256">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D256">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E256">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6517,20 +6517,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a13 o21 t21</t>
+          <t>Psi s1 to2 g1 c8 a12 o20 t20</t>
         </is>
       </c>
       <c r="B257">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C257">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D257">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E257">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6541,20 +6541,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c8 a14 o22 t22</t>
+          <t>Psi s1 to2 g1 c8 a13 o21 t21</t>
         </is>
       </c>
       <c r="B258">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C258">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D258">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E258">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6565,20 +6565,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a0 o9 t9</t>
+          <t>Psi s1 to2 g1 c8 a14 o22 t22</t>
         </is>
       </c>
       <c r="B259">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C259">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D259">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E259">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6589,20 +6589,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a1 o10 t10</t>
+          <t>Psi s1 to2 g1 c9 a0 o9 t9</t>
         </is>
       </c>
       <c r="B260">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C260">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D260">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E260">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6613,20 +6613,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a2 o11 t11</t>
+          <t>Psi s1 to2 g1 c9 a1 o10 t10</t>
         </is>
       </c>
       <c r="B261">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C261">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D261">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E261">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6637,20 +6637,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a3 o12 t12</t>
+          <t>Psi s1 to2 g1 c9 a2 o11 t11</t>
         </is>
       </c>
       <c r="B262">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C262">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D262">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E262">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6661,20 +6661,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a4 o13 t13</t>
+          <t>Psi s1 to2 g1 c9 a3 o12 t12</t>
         </is>
       </c>
       <c r="B263">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C263">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D263">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E263">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6685,20 +6685,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a5 o14 t14</t>
+          <t>Psi s1 to2 g1 c9 a4 o13 t13</t>
         </is>
       </c>
       <c r="B264">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C264">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D264">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E264">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6709,20 +6709,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a6 o15 t15</t>
+          <t>Psi s1 to2 g1 c9 a5 o14 t14</t>
         </is>
       </c>
       <c r="B265">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C265">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D265">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E265">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6733,20 +6733,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a7 o16 t16</t>
+          <t>Psi s1 to2 g1 c9 a6 o15 t15</t>
         </is>
       </c>
       <c r="B266">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C266">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D266">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E266">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6757,20 +6757,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a8 o17 t17</t>
+          <t>Psi s1 to2 g1 c9 a7 o16 t16</t>
         </is>
       </c>
       <c r="B267">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C267">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D267">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E267">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6781,20 +6781,20 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a9 o18 t18</t>
+          <t>Psi s1 to2 g1 c9 a8 o17 t17</t>
         </is>
       </c>
       <c r="B268">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C268">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D268">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E268">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6805,20 +6805,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a10 o19 t19</t>
+          <t>Psi s1 to2 g1 c9 a9 o18 t18</t>
         </is>
       </c>
       <c r="B269">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C269">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D269">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E269">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6829,20 +6829,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a11 o20 t20</t>
+          <t>Psi s1 to2 g1 c9 a10 o19 t19</t>
         </is>
       </c>
       <c r="B270">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C270">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D270">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E270">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6853,20 +6853,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a12 o21 t21</t>
+          <t>Psi s1 to2 g1 c9 a11 o20 t20</t>
         </is>
       </c>
       <c r="B271">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C271">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D271">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E271">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6877,20 +6877,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c9 a13 o22 t22</t>
+          <t>Psi s1 to2 g1 c9 a12 o21 t21</t>
         </is>
       </c>
       <c r="B272">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C272">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D272">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E272">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6901,20 +6901,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a0 o10 t10</t>
+          <t>Psi s1 to2 g1 c9 a13 o22 t22</t>
         </is>
       </c>
       <c r="B273">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C273">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D273">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E273">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6925,20 +6925,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a1 o11 t11</t>
+          <t>Psi s1 to2 g1 c10 a0 o10 t10</t>
         </is>
       </c>
       <c r="B274">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C274">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D274">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E274">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6949,20 +6949,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a2 o12 t12</t>
+          <t>Psi s1 to2 g1 c10 a1 o11 t11</t>
         </is>
       </c>
       <c r="B275">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C275">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D275">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E275">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6973,20 +6973,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a3 o13 t13</t>
+          <t>Psi s1 to2 g1 c10 a2 o12 t12</t>
         </is>
       </c>
       <c r="B276">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C276">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D276">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E276">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6997,20 +6997,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a4 o14 t14</t>
+          <t>Psi s1 to2 g1 c10 a3 o13 t13</t>
         </is>
       </c>
       <c r="B277">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C277">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D277">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E277">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -7021,20 +7021,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a5 o15 t15</t>
+          <t>Psi s1 to2 g1 c10 a4 o14 t14</t>
         </is>
       </c>
       <c r="B278">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C278">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D278">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E278">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -7045,20 +7045,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a6 o16 t16</t>
+          <t>Psi s1 to2 g1 c10 a5 o15 t15</t>
         </is>
       </c>
       <c r="B279">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C279">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D279">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E279">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -7069,20 +7069,20 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a7 o17 t17</t>
+          <t>Psi s1 to2 g1 c10 a6 o16 t16</t>
         </is>
       </c>
       <c r="B280">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C280">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D280">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E280">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -7093,20 +7093,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a8 o18 t18</t>
+          <t>Psi s1 to2 g1 c10 a7 o17 t17</t>
         </is>
       </c>
       <c r="B281">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C281">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D281">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E281">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -7117,20 +7117,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a9 o19 t19</t>
+          <t>Psi s1 to2 g1 c10 a8 o18 t18</t>
         </is>
       </c>
       <c r="B282">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C282">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D282">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E282">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -7141,20 +7141,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a10 o20 t20</t>
+          <t>Psi s1 to2 g1 c10 a9 o19 t19</t>
         </is>
       </c>
       <c r="B283">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C283">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D283">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E283">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -7165,20 +7165,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a11 o21 t21</t>
+          <t>Psi s1 to2 g1 c10 a10 o20 t20</t>
         </is>
       </c>
       <c r="B284">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C284">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D284">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E284">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -7189,20 +7189,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c10 a12 o22 t22</t>
+          <t>Psi s1 to2 g1 c10 a11 o21 t21</t>
         </is>
       </c>
       <c r="B285">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C285">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D285">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E285">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7213,20 +7213,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a0 o11 t11</t>
+          <t>Psi s1 to2 g1 c10 a12 o22 t22</t>
         </is>
       </c>
       <c r="B286">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C286">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D286">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E286">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -7237,20 +7237,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a1 o12 t12</t>
+          <t>Psi s1 to2 g1 c11 a0 o11 t11</t>
         </is>
       </c>
       <c r="B287">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C287">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D287">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E287">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -7261,20 +7261,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a2 o13 t13</t>
+          <t>Psi s1 to2 g1 c11 a1 o12 t12</t>
         </is>
       </c>
       <c r="B288">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C288">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D288">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E288">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7285,20 +7285,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a3 o14 t14</t>
+          <t>Psi s1 to2 g1 c11 a2 o13 t13</t>
         </is>
       </c>
       <c r="B289">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C289">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D289">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E289">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7309,20 +7309,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a4 o15 t15</t>
+          <t>Psi s1 to2 g1 c11 a3 o14 t14</t>
         </is>
       </c>
       <c r="B290">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C290">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D290">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E290">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7333,20 +7333,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a5 o16 t16</t>
+          <t>Psi s1 to2 g1 c11 a4 o15 t15</t>
         </is>
       </c>
       <c r="B291">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C291">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D291">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E291">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7357,20 +7357,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a6 o17 t17</t>
+          <t>Psi s1 to2 g1 c11 a5 o16 t16</t>
         </is>
       </c>
       <c r="B292">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C292">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D292">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E292">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7381,20 +7381,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a7 o18 t18</t>
+          <t>Psi s1 to2 g1 c11 a6 o17 t17</t>
         </is>
       </c>
       <c r="B293">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C293">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D293">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E293">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7405,20 +7405,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a8 o19 t19</t>
+          <t>Psi s1 to2 g1 c11 a7 o18 t18</t>
         </is>
       </c>
       <c r="B294">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C294">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D294">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E294">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7429,20 +7429,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a9 o20 t20</t>
+          <t>Psi s1 to2 g1 c11 a8 o19 t19</t>
         </is>
       </c>
       <c r="B295">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C295">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D295">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E295">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7453,20 +7453,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a10 o21 t21</t>
+          <t>Psi s1 to2 g1 c11 a9 o20 t20</t>
         </is>
       </c>
       <c r="B296">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C296">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D296">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E296">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7477,20 +7477,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c11 a11 o22 t22</t>
+          <t>Psi s1 to2 g1 c11 a10 o21 t21</t>
         </is>
       </c>
       <c r="B297">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C297">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D297">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E297">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7501,20 +7501,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a0 o12 t12</t>
+          <t>Psi s1 to2 g1 c11 a11 o22 t22</t>
         </is>
       </c>
       <c r="B298">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C298">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D298">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E298">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7525,20 +7525,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a1 o13 t13</t>
+          <t>Psi s1 to2 g1 c12 a0 o12 t12</t>
         </is>
       </c>
       <c r="B299">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C299">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D299">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E299">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7549,20 +7549,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a2 o14 t14</t>
+          <t>Psi s1 to2 g1 c12 a1 o13 t13</t>
         </is>
       </c>
       <c r="B300">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C300">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D300">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E300">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7573,20 +7573,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a3 o15 t15</t>
+          <t>Psi s1 to2 g1 c12 a2 o14 t14</t>
         </is>
       </c>
       <c r="B301">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C301">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D301">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E301">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7597,20 +7597,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a4 o16 t16</t>
+          <t>Psi s1 to2 g1 c12 a3 o15 t15</t>
         </is>
       </c>
       <c r="B302">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C302">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D302">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E302">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7621,20 +7621,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a5 o17 t17</t>
+          <t>Psi s1 to2 g1 c12 a4 o16 t16</t>
         </is>
       </c>
       <c r="B303">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C303">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D303">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E303">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7645,20 +7645,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a6 o18 t18</t>
+          <t>Psi s1 to2 g1 c12 a5 o17 t17</t>
         </is>
       </c>
       <c r="B304">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C304">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D304">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E304">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7669,20 +7669,20 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a7 o19 t19</t>
+          <t>Psi s1 to2 g1 c12 a6 o18 t18</t>
         </is>
       </c>
       <c r="B305">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C305">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D305">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E305">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7693,20 +7693,20 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a8 o20 t20</t>
+          <t>Psi s1 to2 g1 c12 a7 o19 t19</t>
         </is>
       </c>
       <c r="B306">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C306">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D306">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E306">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7717,20 +7717,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a9 o21 t21</t>
+          <t>Psi s1 to2 g1 c12 a8 o20 t20</t>
         </is>
       </c>
       <c r="B307">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C307">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D307">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E307">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7741,20 +7741,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c12 a10 o22 t22</t>
+          <t>Psi s1 to2 g1 c12 a9 o21 t21</t>
         </is>
       </c>
       <c r="B308">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C308">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D308">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E308">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7765,20 +7765,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a0 o13 t13</t>
+          <t>Psi s1 to2 g1 c12 a10 o22 t22</t>
         </is>
       </c>
       <c r="B309">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C309">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D309">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E309">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7789,20 +7789,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a1 o14 t14</t>
+          <t>Psi s1 to2 g1 c13 a0 o13 t13</t>
         </is>
       </c>
       <c r="B310">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C310">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D310">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E310">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7813,20 +7813,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a2 o15 t15</t>
+          <t>Psi s1 to2 g1 c13 a1 o14 t14</t>
         </is>
       </c>
       <c r="B311">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C311">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D311">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E311">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7837,20 +7837,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a3 o16 t16</t>
+          <t>Psi s1 to2 g1 c13 a2 o15 t15</t>
         </is>
       </c>
       <c r="B312">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C312">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D312">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E312">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7861,20 +7861,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a4 o17 t17</t>
+          <t>Psi s1 to2 g1 c13 a3 o16 t16</t>
         </is>
       </c>
       <c r="B313">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C313">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D313">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E313">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7885,20 +7885,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a5 o18 t18</t>
+          <t>Psi s1 to2 g1 c13 a4 o17 t17</t>
         </is>
       </c>
       <c r="B314">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C314">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D314">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E314">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7909,20 +7909,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a6 o19 t19</t>
+          <t>Psi s1 to2 g1 c13 a5 o18 t18</t>
         </is>
       </c>
       <c r="B315">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C315">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D315">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E315">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -7933,20 +7933,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a7 o20 t20</t>
+          <t>Psi s1 to2 g1 c13 a6 o19 t19</t>
         </is>
       </c>
       <c r="B316">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C316">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D316">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E316">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -7957,20 +7957,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a8 o21 t21</t>
+          <t>Psi s1 to2 g1 c13 a7 o20 t20</t>
         </is>
       </c>
       <c r="B317">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C317">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D317">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E317">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -7981,20 +7981,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c13 a9 o22 t22</t>
+          <t>Psi s1 to2 g1 c13 a8 o21 t21</t>
         </is>
       </c>
       <c r="B318">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C318">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D318">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E318">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8005,20 +8005,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a0 o14 t14</t>
+          <t>Psi s1 to2 g1 c13 a9 o22 t22</t>
         </is>
       </c>
       <c r="B319">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C319">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D319">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E319">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8029,20 +8029,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a1 o15 t15</t>
+          <t>Psi s1 to2 g1 c14 a0 o14 t14</t>
         </is>
       </c>
       <c r="B320">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C320">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D320">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E320">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -8053,20 +8053,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a2 o16 t16</t>
+          <t>Psi s1 to2 g1 c14 a1 o15 t15</t>
         </is>
       </c>
       <c r="B321">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C321">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D321">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E321">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -8077,20 +8077,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a3 o17 t17</t>
+          <t>Psi s1 to2 g1 c14 a2 o16 t16</t>
         </is>
       </c>
       <c r="B322">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C322">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D322">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E322">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -8101,20 +8101,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a4 o18 t18</t>
+          <t>Psi s1 to2 g1 c14 a3 o17 t17</t>
         </is>
       </c>
       <c r="B323">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C323">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D323">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E323">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -8125,20 +8125,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a5 o19 t19</t>
+          <t>Psi s1 to2 g1 c14 a4 o18 t18</t>
         </is>
       </c>
       <c r="B324">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C324">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D324">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E324">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -8149,20 +8149,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a6 o20 t20</t>
+          <t>Psi s1 to2 g1 c14 a5 o19 t19</t>
         </is>
       </c>
       <c r="B325">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C325">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D325">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E325">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -8173,20 +8173,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a7 o21 t21</t>
+          <t>Psi s1 to2 g1 c14 a6 o20 t20</t>
         </is>
       </c>
       <c r="B326">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C326">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D326">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E326">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -8197,20 +8197,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c14 a8 o22 t22</t>
+          <t>Psi s1 to2 g1 c14 a7 o21 t21</t>
         </is>
       </c>
       <c r="B327">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C327">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D327">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E327">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -8221,20 +8221,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a0 o15 t15</t>
+          <t>Psi s1 to2 g1 c14 a8 o22 t22</t>
         </is>
       </c>
       <c r="B328">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C328">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D328">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E328">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -8245,20 +8245,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a1 o16 t16</t>
+          <t>Psi s1 to2 g1 c15 a0 o15 t15</t>
         </is>
       </c>
       <c r="B329">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C329">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D329">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E329">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -8269,20 +8269,20 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a2 o17 t17</t>
+          <t>Psi s1 to2 g1 c15 a1 o16 t16</t>
         </is>
       </c>
       <c r="B330">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C330">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D330">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E330">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -8293,20 +8293,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a3 o18 t18</t>
+          <t>Psi s1 to2 g1 c15 a2 o17 t17</t>
         </is>
       </c>
       <c r="B331">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C331">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D331">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E331">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -8317,20 +8317,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a4 o19 t19</t>
+          <t>Psi s1 to2 g1 c15 a3 o18 t18</t>
         </is>
       </c>
       <c r="B332">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C332">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D332">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E332">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -8341,20 +8341,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a5 o20 t20</t>
+          <t>Psi s1 to2 g1 c15 a4 o19 t19</t>
         </is>
       </c>
       <c r="B333">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C333">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D333">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E333">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -8365,20 +8365,20 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a6 o21 t21</t>
+          <t>Psi s1 to2 g1 c15 a5 o20 t20</t>
         </is>
       </c>
       <c r="B334">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C334">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D334">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E334">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -8389,20 +8389,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c15 a7 o22 t22</t>
+          <t>Psi s1 to2 g1 c15 a6 o21 t21</t>
         </is>
       </c>
       <c r="B335">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C335">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D335">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E335">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -8413,20 +8413,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a0 o16 t16</t>
+          <t>Psi s1 to2 g1 c15 a7 o22 t22</t>
         </is>
       </c>
       <c r="B336">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C336">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D336">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E336">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -8437,20 +8437,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a1 o17 t17</t>
+          <t>Psi s1 to2 g1 c16 a0 o16 t16</t>
         </is>
       </c>
       <c r="B337">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C337">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D337">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E337">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -8461,20 +8461,20 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a2 o18 t18</t>
+          <t>Psi s1 to2 g1 c16 a1 o17 t17</t>
         </is>
       </c>
       <c r="B338">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C338">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D338">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E338">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -8485,20 +8485,20 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a3 o19 t19</t>
+          <t>Psi s1 to2 g1 c16 a2 o18 t18</t>
         </is>
       </c>
       <c r="B339">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C339">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D339">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E339">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -8509,20 +8509,20 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a4 o20 t20</t>
+          <t>Psi s1 to2 g1 c16 a3 o19 t19</t>
         </is>
       </c>
       <c r="B340">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C340">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D340">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E340">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -8533,20 +8533,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a5 o21 t21</t>
+          <t>Psi s1 to2 g1 c16 a4 o20 t20</t>
         </is>
       </c>
       <c r="B341">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C341">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D341">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E341">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -8557,20 +8557,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c16 a6 o22 t22</t>
+          <t>Psi s1 to2 g1 c16 a5 o21 t21</t>
         </is>
       </c>
       <c r="B342">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C342">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D342">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E342">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -8581,20 +8581,20 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a0 o17 t17</t>
+          <t>Psi s1 to2 g1 c16 a6 o22 t22</t>
         </is>
       </c>
       <c r="B343">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C343">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D343">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E343">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -8605,20 +8605,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a1 o18 t18</t>
+          <t>Psi s1 to2 g1 c17 a0 o17 t17</t>
         </is>
       </c>
       <c r="B344">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C344">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D344">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E344">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -8629,20 +8629,20 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a2 o19 t19</t>
+          <t>Psi s1 to2 g1 c17 a1 o18 t18</t>
         </is>
       </c>
       <c r="B345">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C345">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D345">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E345">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -8653,20 +8653,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a3 o20 t20</t>
+          <t>Psi s1 to2 g1 c17 a2 o19 t19</t>
         </is>
       </c>
       <c r="B346">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C346">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D346">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E346">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -8677,20 +8677,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a4 o21 t21</t>
+          <t>Psi s1 to2 g1 c17 a3 o20 t20</t>
         </is>
       </c>
       <c r="B347">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C347">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D347">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E347">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -8701,20 +8701,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c17 a5 o22 t22</t>
+          <t>Psi s1 to2 g1 c17 a4 o21 t21</t>
         </is>
       </c>
       <c r="B348">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C348">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D348">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E348">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -8725,20 +8725,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a0 o18 t18</t>
+          <t>Psi s1 to2 g1 c17 a5 o22 t22</t>
         </is>
       </c>
       <c r="B349">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C349">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D349">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E349">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -8749,20 +8749,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a1 o19 t19</t>
+          <t>Psi s1 to2 g1 c18 a0 o18 t18</t>
         </is>
       </c>
       <c r="B350">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C350">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D350">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E350">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -8773,20 +8773,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a2 o20 t20</t>
+          <t>Psi s1 to2 g1 c18 a1 o19 t19</t>
         </is>
       </c>
       <c r="B351">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C351">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D351">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E351">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -8797,20 +8797,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a3 o21 t21</t>
+          <t>Psi s1 to2 g1 c18 a2 o20 t20</t>
         </is>
       </c>
       <c r="B352">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C352">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D352">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E352">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -8821,20 +8821,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c18 a4 o22 t22</t>
+          <t>Psi s1 to2 g1 c18 a3 o21 t21</t>
         </is>
       </c>
       <c r="B353">
-        <v>0.1412991</v>
+        <v>0.1836969</v>
       </c>
       <c r="C353">
-        <v>0.0510661</v>
+        <v>0.0486158</v>
       </c>
       <c r="D353">
-        <v>0.0672667</v>
+        <v>0.1065051</v>
       </c>
       <c r="E353">
-        <v>0.2729653</v>
+        <v>0.2981652</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -8845,20 +8845,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c19 a0 o19 t19</t>
+          <t>Psi s1 to2 g1 c18 a4 o22 t22</t>
         </is>
       </c>
       <c r="B354">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C354">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D354">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E354">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -8869,20 +8869,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c19 a1 o20 t20</t>
+          <t>Psi s1 to2 g1 c19 a0 o19 t19</t>
         </is>
       </c>
       <c r="B355">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C355">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D355">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E355">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -8893,20 +8893,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c19 a2 o21 t21</t>
+          <t>Psi s1 to2 g1 c19 a1 o20 t20</t>
         </is>
       </c>
       <c r="B356">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C356">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D356">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E356">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -8917,20 +8917,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c19 a3 o22 t22</t>
+          <t>Psi s1 to2 g1 c19 a2 o21 t21</t>
         </is>
       </c>
       <c r="B357">
-        <v>0.2301326</v>
+        <v>0.3011893</v>
       </c>
       <c r="C357">
-        <v>0.08331909999999999</v>
+        <v>0.0713077</v>
       </c>
       <c r="D357">
-        <v>0.1062816</v>
+        <v>0.18158</v>
       </c>
       <c r="E357">
-        <v>0.4290259</v>
+        <v>0.4557158</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -8941,20 +8941,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c20 a0 o20 t20</t>
+          <t>Psi s1 to2 g1 c19 a3 o22 t22</t>
         </is>
       </c>
       <c r="B358">
-        <v>0.165885</v>
+        <v>0.1836969</v>
       </c>
       <c r="C358">
-        <v>0.0231062</v>
+        <v>0.0486158</v>
       </c>
       <c r="D358">
-        <v>0.1253866</v>
+        <v>0.1065051</v>
       </c>
       <c r="E358">
-        <v>0.21623</v>
+        <v>0.2981652</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -8965,20 +8965,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c20 a1 o21 t21</t>
+          <t>Psi s1 to2 g1 c20 a0 o20 t20</t>
         </is>
       </c>
       <c r="B359">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C359">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D359">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E359">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -8989,20 +8989,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c20 a2 o22 t22</t>
+          <t>Psi s1 to2 g1 c20 a1 o21 t21</t>
         </is>
       </c>
       <c r="B360">
-        <v>0.3304054</v>
+        <v>0.3393463</v>
       </c>
       <c r="C360">
-        <v>0.0710421</v>
+        <v>0.0538022</v>
       </c>
       <c r="D360">
-        <v>0.2082129</v>
+        <v>0.2429492</v>
       </c>
       <c r="E360">
-        <v>0.4807664</v>
+        <v>0.4511961</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -9013,20 +9013,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c21 a0 o21 t21</t>
+          <t>Psi s1 to2 g1 c20 a2 o22 t22</t>
         </is>
       </c>
       <c r="B361">
-        <v>0.165885</v>
+        <v>0.3011893</v>
       </c>
       <c r="C361">
-        <v>0.0231062</v>
+        <v>0.0713077</v>
       </c>
       <c r="D361">
-        <v>0.1253866</v>
+        <v>0.18158</v>
       </c>
       <c r="E361">
-        <v>0.21623</v>
+        <v>0.4557158</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -9037,20 +9037,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Psi s1 to2 g1 c21 a1 o22 t22</t>
+          <t>Psi s1 to2 g1 c21 a0 o21 t21</t>
         </is>
       </c>
       <c r="B362">
-        <v>0.165885</v>
+        <v>0.1202353</v>
       </c>
       <c r="C362">
-        <v>0.0231062</v>
+        <v>0.026337</v>
       </c>
       <c r="D362">
-        <v>0.1253866</v>
+        <v>0.0774</v>
       </c>
       <c r="E362">
-        <v>0.21623</v>
+        <v>0.1820977</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -9061,22 +9061,46 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
+          <t>Psi s1 to2 g1 c21 a1 o22 t22</t>
+        </is>
+      </c>
+      <c r="B363">
+        <v>0.3393463</v>
+      </c>
+      <c r="C363">
+        <v>0.0538022</v>
+      </c>
+      <c r="D363">
+        <v>0.2429492</v>
+      </c>
+      <c r="E363">
+        <v>0.4511961</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
           <t>Psi s1 to2 g1 c22 a0 o22 t22</t>
         </is>
       </c>
-      <c r="B363">
-        <v>0.165885</v>
-      </c>
-      <c r="C363">
-        <v>0.0231062</v>
-      </c>
-      <c r="D363">
-        <v>0.1253866</v>
-      </c>
-      <c r="E363">
-        <v>0.21623</v>
-      </c>
-      <c r="F363" t="inlineStr">
+      <c r="B364">
+        <v>0.1202353</v>
+      </c>
+      <c r="C364">
+        <v>0.026337</v>
+      </c>
+      <c r="D364">
+        <v>0.0774</v>
+      </c>
+      <c r="E364">
+        <v>0.1820977</v>
+      </c>
+      <c r="F364" t="inlineStr">
         <is>
           <t xml:space="preserve">     </t>
         </is>
